--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - secondo invio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4394C492-91D3-4677-886A-69882C25E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE8B6D-C6FA-4E56-A8E9-01899782B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -187,15 +187,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -554,151 +545,160 @@
     <t>Viene segnalato all'utente l'errore, chidendo conferma se proseguire con la validazione del documento o annullare l'operazione per correggere il problema</t>
   </si>
   <si>
-    <t>2023-03-28T12:56:00Z</t>
+    <t>Dedalus</t>
   </si>
   <si>
-    <t>2023-03-28T14:15:00Z</t>
+    <t>TCWA</t>
   </si>
   <si>
-    <t>2023-03-28T14:17:00Z</t>
+    <t>10.6</t>
   </si>
   <si>
-    <t>2023-03-28T14:18:00Z</t>
+    <t>2023-04-11T18:37:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:21:00Z</t>
+    <t>2023-04-11T18:45:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:23:00Z</t>
+    <t>2023-04-11T18:42:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:24:00Z</t>
+    <t>2023-04-11T18:43:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:25:00Z</t>
+    <t>2023-04-11T19:53:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:26:00Z</t>
+    <t>2023-04-11T19:54:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:27:00Z</t>
+    <t>2023-04-11T18:47:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:28:00Z</t>
+    <t>2023-04-11T18:49:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:29:00Z</t>
+    <t>2023-04-11T18:52:00Z</t>
   </si>
   <si>
-    <t>2023-03-28T14:30:00Z</t>
+    <t>2023-04-11T18:53:00Z</t>
   </si>
   <si>
-    <t>1a44e08943863e94</t>
+    <t>2023-04-11T18:54:00Z</t>
   </si>
   <si>
-    <t>3aabaef1146cdc30</t>
+    <t>2023-04-11T18:55:00Z</t>
   </si>
   <si>
-    <t>43e4c4271f591df4</t>
+    <t>2023-04-11T18:56:00Z</t>
   </si>
   <si>
-    <t>5c212a2ba5db9b8f</t>
+    <t>2023-04-11T18:57:00Z</t>
   </si>
   <si>
-    <t>ac7513c72c634127</t>
+    <t>2023-04-11T18:58:00Z</t>
   </si>
   <si>
-    <t>15cee91e8e69679a</t>
+    <t>5f9457138da29580</t>
   </si>
   <si>
-    <t>9d0b2e58d343b0ca</t>
+    <t>3bd1b1fba81da84b</t>
   </si>
   <si>
-    <t>77e3cc1189d6a7fd</t>
+    <t>bdf6d19029dfa8ee</t>
   </si>
   <si>
-    <t>035957e836f9eb15</t>
+    <t>dae198d89ee6f4db</t>
   </si>
   <si>
-    <t>13af4020d2c494fd</t>
+    <t>73d5cf6cf5297b72</t>
   </si>
   <si>
-    <t>10f8b188f0b95615</t>
+    <t>5b2063e288e3f156</t>
   </si>
   <si>
-    <t>d12d5104a10ec91e</t>
+    <t>3edc6d889d0766d3</t>
   </si>
   <si>
-    <t>c8241155447cdee4</t>
+    <t>b164e8a71a8dcb5c</t>
   </si>
   <si>
-    <t>af17162a457b1d58</t>
+    <t>de99d25224d6ebc8</t>
   </si>
   <si>
-    <t>f6f8ff9b6d54df11</t>
+    <t>6180a2d2287e8758</t>
   </si>
   <si>
-    <t>eeb37caff48c751e</t>
+    <t>61f137fe294f2e7a</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.450412423a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>9d768808a0f2c347</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0ec2c43482^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>e85cad9d9a5e0726</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.429969dfb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2056fdf0f33dfbc7</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f535a4440c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>e4ee95ca64be042f</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ab4fead09b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>398971a8142112ef</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.30f26cc197^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>e3684f2a6d744253</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f32e4e727e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>8c174d777aff6be4</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f6b9ef6a9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7b32ba0bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.88d5360a50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.09084d7608^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e7940202a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6533422bed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.602df352bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3d9e1be19b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.108e33985c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.46f08847a6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.bfe93043f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.173181412d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.dcd6db43aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7803b4a9ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a0ef337319^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9003febdd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a3f49ad116^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.94889b2121^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>5319413e3e9446a2</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d089aae03d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-03-28T15:41:00Z</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.56f5b0c609^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>5eda278f2865dcf5</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8f0b27c7c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-03-28T15:43:00Z</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.76e3924442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.cece6fbffb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f2a4aeeef5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c0b7772a89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1255,6 +1255,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1276,9 +1279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2649,13 +2649,13 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
@@ -2670,7 +2670,7 @@
     <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="1" spans="1:15">
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2682,13 +2682,15 @@
       <c r="N1" s="9"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:15" ht="18.75">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="47"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2700,15 +2702,15 @@
       <c r="N2" s="9"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="47"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2720,13 +2722,13 @@
       <c r="N3" s="9"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="46"/>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="47"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2739,13 +2741,13 @@
       <c r="N4" s="9"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="46"/>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="47"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2757,9 +2759,9 @@
       <c r="N5" s="9"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2772,7 +2774,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2787,7 +2789,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2799,51 +2801,51 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="19.5" thickBot="1">
       <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="E9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="150.75" thickBot="1">
@@ -2851,32 +2853,32 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>95</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -2888,32 +2890,32 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
@@ -2925,32 +2927,32 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>97</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -2962,32 +2964,32 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>98</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -2999,40 +3001,38 @@
         <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N14" s="20"/>
       <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="135.75" thickBot="1">
@@ -3040,40 +3040,38 @@
         <v>37</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N15" s="20"/>
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="90.75" thickBot="1">
@@ -3081,34 +3079,32 @@
         <v>45</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N16" s="20"/>
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="120.75" thickBot="1">
@@ -3116,40 +3112,38 @@
         <v>63</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N17" s="20"/>
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="120.75" thickBot="1">
@@ -3157,40 +3151,38 @@
         <v>64</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N18" s="20"/>
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="120.75" thickBot="1">
@@ -3198,40 +3190,38 @@
         <v>65</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N19" s="20"/>
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" ht="120.75" thickBot="1">
@@ -3239,40 +3229,38 @@
         <v>66</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N20" s="20"/>
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" ht="120.75" thickBot="1">
@@ -3280,40 +3268,38 @@
         <v>67</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N21" s="20"/>
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="120.75" thickBot="1">
@@ -3321,40 +3307,38 @@
         <v>68</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N22" s="20"/>
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="120.75" thickBot="1">
@@ -3362,40 +3346,38 @@
         <v>69</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F23" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N23" s="20"/>
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="120.75" thickBot="1">
@@ -3403,40 +3385,38 @@
         <v>70</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F24" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N24" s="20"/>
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="120.75" thickBot="1">
@@ -3444,40 +3424,38 @@
         <v>71</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F25" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N25" s="20"/>
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" ht="120.75" thickBot="1">
@@ -3485,40 +3463,38 @@
         <v>72</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F26" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N26" s="20"/>
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" ht="120.75" thickBot="1">
@@ -3526,40 +3502,38 @@
         <v>73</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F27" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N27" s="20"/>
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" ht="120">
@@ -3567,43 +3541,41 @@
         <v>74</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F28" s="17">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N28" s="20"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15">
       <c r="F29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3614,7 +3586,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1">
+    <row r="30" spans="1:15">
       <c r="F30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3625,7 +3597,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1">
+    <row r="31" spans="1:15">
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -3637,7 +3609,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1">
+    <row r="32" spans="1:15">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3649,7 +3621,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="6:15" ht="14.25" customHeight="1">
+    <row r="33" spans="6:15">
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3661,7 +3633,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="6:15" ht="14.25" customHeight="1">
+    <row r="34" spans="6:15">
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3673,7 +3645,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="6:15" ht="14.25" customHeight="1">
+    <row r="35" spans="6:15">
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3685,7 +3657,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="6:15" ht="14.25" customHeight="1">
+    <row r="36" spans="6:15">
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3697,7 +3669,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="6:15" ht="14.25" customHeight="1">
+    <row r="37" spans="6:15">
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3709,7 +3681,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="6:15" ht="14.25" customHeight="1">
+    <row r="38" spans="6:15">
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3721,7 +3693,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="6:15" ht="14.25" customHeight="1">
+    <row r="39" spans="6:15">
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3733,7 +3705,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="6:15" ht="14.25" customHeight="1">
+    <row r="40" spans="6:15">
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3745,7 +3717,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="6:15" ht="14.25" customHeight="1">
+    <row r="41" spans="6:15">
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3757,7 +3729,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="6:15" ht="14.25" customHeight="1">
+    <row r="42" spans="6:15">
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3769,7 +3741,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="6:15" ht="14.25" customHeight="1">
+    <row r="43" spans="6:15">
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3781,7 +3753,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="6:15" ht="14.25" customHeight="1">
+    <row r="44" spans="6:15">
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3793,7 +3765,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="6:15" ht="14.25" customHeight="1">
+    <row r="45" spans="6:15">
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3805,7 +3777,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="6:15" ht="14.25" customHeight="1">
+    <row r="46" spans="6:15">
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3817,7 +3789,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="6:15" ht="14.25" customHeight="1">
+    <row r="47" spans="6:15">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -3829,7 +3801,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="6:15" ht="14.25" customHeight="1">
+    <row r="48" spans="6:15">
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3841,7 +3813,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="6:15" ht="14.25" customHeight="1">
+    <row r="49" spans="6:15">
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3853,7 +3825,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="6:15" ht="14.25" customHeight="1">
+    <row r="50" spans="6:15">
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3865,7 +3837,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="6:15" ht="14.25" customHeight="1">
+    <row r="51" spans="6:15">
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3877,7 +3849,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="6:15" ht="14.25" customHeight="1">
+    <row r="52" spans="6:15">
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3889,7 +3861,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="6:15" ht="14.25" customHeight="1">
+    <row r="53" spans="6:15">
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3901,7 +3873,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="6:15" ht="14.25" customHeight="1">
+    <row r="54" spans="6:15">
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3913,7 +3885,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="6:15" ht="14.25" customHeight="1">
+    <row r="55" spans="6:15">
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -3925,7 +3897,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="6:15" ht="14.25" customHeight="1">
+    <row r="56" spans="6:15">
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3937,7 +3909,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="6:15" ht="14.25" customHeight="1">
+    <row r="57" spans="6:15">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3949,7 +3921,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="6:15" ht="14.25" customHeight="1">
+    <row r="58" spans="6:15">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3961,7 +3933,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="6:15" ht="14.25" customHeight="1">
+    <row r="59" spans="6:15">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3973,7 +3945,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="6:15" ht="14.25" customHeight="1">
+    <row r="60" spans="6:15">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -3985,7 +3957,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="6:15" ht="14.25" customHeight="1">
+    <row r="61" spans="6:15">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -3997,7 +3969,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="6:15" ht="14.25" customHeight="1">
+    <row r="62" spans="6:15">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4009,7 +3981,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="6:15" ht="14.25" customHeight="1">
+    <row r="63" spans="6:15">
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -4021,7 +3993,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="6:15" ht="14.25" customHeight="1">
+    <row r="64" spans="6:15">
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -4033,7 +4005,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="6:15" ht="14.25" customHeight="1">
+    <row r="65" spans="6:15">
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -4045,7 +4017,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="6:15" ht="14.25" customHeight="1">
+    <row r="66" spans="6:15">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -4057,7 +4029,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="6:15" ht="14.25" customHeight="1">
+    <row r="67" spans="6:15">
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -4069,7 +4041,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="6:15" ht="14.25" customHeight="1">
+    <row r="68" spans="6:15">
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -4081,7 +4053,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="6:15" ht="14.25" customHeight="1">
+    <row r="69" spans="6:15">
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -4093,7 +4065,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="6:15" ht="14.25" customHeight="1">
+    <row r="70" spans="6:15">
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -4105,7 +4077,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="6:15" ht="14.25" customHeight="1">
+    <row r="71" spans="6:15">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -4117,7 +4089,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="6:15" ht="14.25" customHeight="1">
+    <row r="72" spans="6:15">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -4129,7 +4101,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="6:15" ht="14.25" customHeight="1">
+    <row r="73" spans="6:15">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -4141,7 +4113,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="6:15" ht="14.25" customHeight="1">
+    <row r="74" spans="6:15">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -4153,7 +4125,7 @@
       <c r="N74" s="9"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="6:15" ht="14.25" customHeight="1">
+    <row r="75" spans="6:15">
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -4165,7 +4137,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="6:15" ht="14.25" customHeight="1">
+    <row r="76" spans="6:15">
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -4177,7 +4149,7 @@
       <c r="N76" s="9"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="6:15" ht="14.25" customHeight="1">
+    <row r="77" spans="6:15">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -4189,7 +4161,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="6:15" ht="14.25" customHeight="1">
+    <row r="78" spans="6:15">
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -4201,7 +4173,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="6:15" ht="14.25" customHeight="1">
+    <row r="79" spans="6:15">
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -4213,7 +4185,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="6:15" ht="14.25" customHeight="1">
+    <row r="80" spans="6:15">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -4225,7 +4197,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="6:15" ht="14.25" customHeight="1">
+    <row r="81" spans="6:15">
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -4237,7 +4209,7 @@
       <c r="N81" s="9"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="6:15" ht="14.25" customHeight="1">
+    <row r="82" spans="6:15">
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -4249,7 +4221,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="6:15" ht="14.25" customHeight="1">
+    <row r="83" spans="6:15">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -4261,7 +4233,7 @@
       <c r="N83" s="9"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="6:15" ht="14.25" customHeight="1">
+    <row r="84" spans="6:15">
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -4273,7 +4245,7 @@
       <c r="N84" s="9"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="6:15" ht="14.25" customHeight="1">
+    <row r="85" spans="6:15">
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -4285,7 +4257,7 @@
       <c r="N85" s="9"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="6:15" ht="14.25" customHeight="1">
+    <row r="86" spans="6:15">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -4297,7 +4269,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="6:15" ht="14.25" customHeight="1">
+    <row r="87" spans="6:15">
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -4309,7 +4281,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="6:15" ht="14.25" customHeight="1">
+    <row r="88" spans="6:15">
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -4321,7 +4293,7 @@
       <c r="N88" s="9"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="6:15" ht="14.25" customHeight="1">
+    <row r="89" spans="6:15">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -4333,7 +4305,7 @@
       <c r="N89" s="9"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="6:15" ht="14.25" customHeight="1">
+    <row r="90" spans="6:15">
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4345,7 +4317,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="6:15" ht="14.25" customHeight="1">
+    <row r="91" spans="6:15">
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -4357,7 +4329,7 @@
       <c r="N91" s="9"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="6:15" ht="14.25" customHeight="1">
+    <row r="92" spans="6:15">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -4369,7 +4341,7 @@
       <c r="N92" s="9"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="6:15" ht="14.25" customHeight="1">
+    <row r="93" spans="6:15">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -4381,7 +4353,7 @@
       <c r="N93" s="9"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="6:15" ht="14.25" customHeight="1">
+    <row r="94" spans="6:15">
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -4393,7 +4365,7 @@
       <c r="N94" s="9"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="6:15" ht="14.25" customHeight="1">
+    <row r="95" spans="6:15">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -4405,7 +4377,7 @@
       <c r="N95" s="9"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="6:15" ht="14.25" customHeight="1">
+    <row r="96" spans="6:15">
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -4417,7 +4389,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="6:15" ht="14.25" customHeight="1">
+    <row r="97" spans="6:15">
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -4429,7 +4401,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="6:15" ht="14.25" customHeight="1">
+    <row r="98" spans="6:15">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -4441,7 +4413,7 @@
       <c r="N98" s="9"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="6:15" ht="14.25" customHeight="1">
+    <row r="99" spans="6:15">
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -4453,7 +4425,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="6:15" ht="14.25" customHeight="1">
+    <row r="100" spans="6:15">
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -4465,7 +4437,7 @@
       <c r="N100" s="9"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="6:15" ht="14.25" customHeight="1">
+    <row r="101" spans="6:15">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -4477,7 +4449,7 @@
       <c r="N101" s="9"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="6:15" ht="14.25" customHeight="1">
+    <row r="102" spans="6:15">
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -4489,7 +4461,7 @@
       <c r="N102" s="9"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="6:15" ht="14.25" customHeight="1">
+    <row r="103" spans="6:15">
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -4501,7 +4473,7 @@
       <c r="N103" s="9"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="6:15" ht="14.25" customHeight="1">
+    <row r="104" spans="6:15">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -4513,7 +4485,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="6:15" ht="14.25" customHeight="1">
+    <row r="105" spans="6:15">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -4525,7 +4497,7 @@
       <c r="N105" s="9"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="6:15" ht="14.25" customHeight="1">
+    <row r="106" spans="6:15">
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -4537,7 +4509,7 @@
       <c r="N106" s="9"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="6:15" ht="14.25" customHeight="1">
+    <row r="107" spans="6:15">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -4549,7 +4521,7 @@
       <c r="N107" s="9"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="6:15" ht="14.25" customHeight="1">
+    <row r="108" spans="6:15">
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -4561,7 +4533,7 @@
       <c r="N108" s="9"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="6:15" ht="14.25" customHeight="1">
+    <row r="109" spans="6:15">
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -4573,7 +4545,7 @@
       <c r="N109" s="9"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="6:15" ht="14.25" customHeight="1">
+    <row r="110" spans="6:15">
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -4585,7 +4557,7 @@
       <c r="N110" s="9"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="6:15" ht="14.25" customHeight="1">
+    <row r="111" spans="6:15">
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -4597,7 +4569,7 @@
       <c r="N111" s="9"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="6:15" ht="14.25" customHeight="1">
+    <row r="112" spans="6:15">
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -4609,7 +4581,7 @@
       <c r="N112" s="9"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="6:15" ht="14.25" customHeight="1">
+    <row r="113" spans="6:15">
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -4621,7 +4593,7 @@
       <c r="N113" s="9"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="6:15" ht="14.25" customHeight="1">
+    <row r="114" spans="6:15">
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -4633,7 +4605,7 @@
       <c r="N114" s="9"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="6:15" ht="14.25" customHeight="1">
+    <row r="115" spans="6:15">
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -4645,7 +4617,7 @@
       <c r="N115" s="9"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="6:15" ht="14.25" customHeight="1">
+    <row r="116" spans="6:15">
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -4657,7 +4629,7 @@
       <c r="N116" s="9"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="6:15" ht="14.25" customHeight="1">
+    <row r="117" spans="6:15">
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -4669,7 +4641,7 @@
       <c r="N117" s="9"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="6:15" ht="14.25" customHeight="1">
+    <row r="118" spans="6:15">
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -4681,7 +4653,7 @@
       <c r="N118" s="9"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="6:15" ht="14.25" customHeight="1">
+    <row r="119" spans="6:15">
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -4693,7 +4665,7 @@
       <c r="N119" s="9"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="6:15" ht="14.25" customHeight="1">
+    <row r="120" spans="6:15">
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -4705,7 +4677,7 @@
       <c r="N120" s="9"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="6:15" ht="14.25" customHeight="1">
+    <row r="121" spans="6:15">
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
@@ -4717,7 +4689,7 @@
       <c r="N121" s="9"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="6:15" ht="14.25" customHeight="1">
+    <row r="122" spans="6:15">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
@@ -4729,7 +4701,7 @@
       <c r="N122" s="9"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="6:15" ht="14.25" customHeight="1">
+    <row r="123" spans="6:15">
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
@@ -4741,7 +4713,7 @@
       <c r="N123" s="9"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="6:15" ht="14.25" customHeight="1">
+    <row r="124" spans="6:15">
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -4753,7 +4725,7 @@
       <c r="N124" s="9"/>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="6:15" ht="14.25" customHeight="1">
+    <row r="125" spans="6:15">
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
@@ -4765,7 +4737,7 @@
       <c r="N125" s="9"/>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="6:15" ht="14.25" customHeight="1">
+    <row r="126" spans="6:15">
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
@@ -4777,7 +4749,7 @@
       <c r="N126" s="9"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="6:15" ht="14.25" customHeight="1">
+    <row r="127" spans="6:15">
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -4789,7 +4761,7 @@
       <c r="N127" s="9"/>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="6:15" ht="14.25" customHeight="1">
+    <row r="128" spans="6:15">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -4801,7 +4773,7 @@
       <c r="N128" s="9"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="6:15" ht="14.25" customHeight="1">
+    <row r="129" spans="6:15">
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
@@ -4813,7 +4785,7 @@
       <c r="N129" s="9"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="6:15" ht="14.25" customHeight="1">
+    <row r="130" spans="6:15">
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -4825,7 +4797,7 @@
       <c r="N130" s="9"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="6:15" ht="14.25" customHeight="1">
+    <row r="131" spans="6:15">
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
@@ -4837,7 +4809,7 @@
       <c r="N131" s="9"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="6:15" ht="14.25" customHeight="1">
+    <row r="132" spans="6:15">
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -4849,7 +4821,7 @@
       <c r="N132" s="9"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="6:15" ht="14.25" customHeight="1">
+    <row r="133" spans="6:15">
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -4861,7 +4833,7 @@
       <c r="N133" s="9"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="6:15" ht="14.25" customHeight="1">
+    <row r="134" spans="6:15">
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -4873,7 +4845,7 @@
       <c r="N134" s="9"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="6:15" ht="14.25" customHeight="1">
+    <row r="135" spans="6:15">
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -4885,7 +4857,7 @@
       <c r="N135" s="9"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="6:15" ht="14.25" customHeight="1">
+    <row r="136" spans="6:15">
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4897,7 +4869,7 @@
       <c r="N136" s="9"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="6:15" ht="14.25" customHeight="1">
+    <row r="137" spans="6:15">
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
@@ -4909,7 +4881,7 @@
       <c r="N137" s="9"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="6:15" ht="14.25" customHeight="1">
+    <row r="138" spans="6:15">
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
@@ -4921,7 +4893,7 @@
       <c r="N138" s="9"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="6:15" ht="14.25" customHeight="1">
+    <row r="139" spans="6:15">
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -4933,7 +4905,7 @@
       <c r="N139" s="9"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="6:15" ht="14.25" customHeight="1">
+    <row r="140" spans="6:15">
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
@@ -4945,7 +4917,7 @@
       <c r="N140" s="9"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="6:15" ht="14.25" customHeight="1">
+    <row r="141" spans="6:15">
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -4957,7 +4929,7 @@
       <c r="N141" s="9"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="6:15" ht="14.25" customHeight="1">
+    <row r="142" spans="6:15">
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
@@ -4969,7 +4941,7 @@
       <c r="N142" s="9"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="6:15" ht="14.25" customHeight="1">
+    <row r="143" spans="6:15">
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
@@ -4981,7 +4953,7 @@
       <c r="N143" s="9"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="6:15" ht="14.25" customHeight="1">
+    <row r="144" spans="6:15">
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -4993,7 +4965,7 @@
       <c r="N144" s="9"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="6:15" ht="14.25" customHeight="1">
+    <row r="145" spans="6:15">
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -5005,7 +4977,7 @@
       <c r="N145" s="9"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="6:15" ht="14.25" customHeight="1">
+    <row r="146" spans="6:15">
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
@@ -5017,7 +4989,7 @@
       <c r="N146" s="9"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="6:15" ht="14.25" customHeight="1">
+    <row r="147" spans="6:15">
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -5029,7 +5001,7 @@
       <c r="N147" s="9"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="6:15" ht="14.25" customHeight="1">
+    <row r="148" spans="6:15">
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
@@ -5041,7 +5013,7 @@
       <c r="N148" s="9"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="6:15" ht="14.25" customHeight="1">
+    <row r="149" spans="6:15">
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
@@ -5053,7 +5025,7 @@
       <c r="N149" s="9"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="6:15" ht="14.25" customHeight="1">
+    <row r="150" spans="6:15">
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -5065,7 +5037,7 @@
       <c r="N150" s="9"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="6:15" ht="14.25" customHeight="1">
+    <row r="151" spans="6:15">
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -5077,7 +5049,7 @@
       <c r="N151" s="9"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="6:15" ht="14.25" customHeight="1">
+    <row r="152" spans="6:15">
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
@@ -5089,7 +5061,7 @@
       <c r="N152" s="9"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="6:15" ht="14.25" customHeight="1">
+    <row r="153" spans="6:15">
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
@@ -5101,7 +5073,7 @@
       <c r="N153" s="9"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="6:15" ht="14.25" customHeight="1">
+    <row r="154" spans="6:15">
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -5113,7 +5085,7 @@
       <c r="N154" s="9"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="6:15" ht="14.25" customHeight="1">
+    <row r="155" spans="6:15">
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
@@ -5125,7 +5097,7 @@
       <c r="N155" s="9"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="6:15" ht="14.25" customHeight="1">
+    <row r="156" spans="6:15">
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
@@ -5137,7 +5109,7 @@
       <c r="N156" s="9"/>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="6:15" ht="14.25" customHeight="1">
+    <row r="157" spans="6:15">
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
@@ -5149,7 +5121,7 @@
       <c r="N157" s="9"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="6:15" ht="14.25" customHeight="1">
+    <row r="158" spans="6:15">
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
@@ -5161,7 +5133,7 @@
       <c r="N158" s="9"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="6:15" ht="14.25" customHeight="1">
+    <row r="159" spans="6:15">
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
@@ -5173,7 +5145,7 @@
       <c r="N159" s="9"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="6:15" ht="14.25" customHeight="1">
+    <row r="160" spans="6:15">
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
@@ -5185,7 +5157,7 @@
       <c r="N160" s="9"/>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="6:15" ht="14.25" customHeight="1">
+    <row r="161" spans="6:15">
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
@@ -5197,7 +5169,7 @@
       <c r="N161" s="9"/>
       <c r="O161" s="6"/>
     </row>
-    <row r="162" spans="6:15" ht="14.25" customHeight="1">
+    <row r="162" spans="6:15">
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
@@ -5209,7 +5181,7 @@
       <c r="N162" s="9"/>
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="6:15" ht="14.25" customHeight="1">
+    <row r="163" spans="6:15">
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
@@ -5221,7 +5193,7 @@
       <c r="N163" s="9"/>
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="6:15" ht="14.25" customHeight="1">
+    <row r="164" spans="6:15">
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
@@ -5233,7 +5205,7 @@
       <c r="N164" s="9"/>
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="6:15" ht="14.25" customHeight="1">
+    <row r="165" spans="6:15">
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
@@ -5245,7 +5217,7 @@
       <c r="N165" s="9"/>
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="6:15" ht="14.25" customHeight="1">
+    <row r="166" spans="6:15">
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -5257,7 +5229,7 @@
       <c r="N166" s="9"/>
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="6:15" ht="14.25" customHeight="1">
+    <row r="167" spans="6:15">
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -5269,7 +5241,7 @@
       <c r="N167" s="9"/>
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="6:15" ht="14.25" customHeight="1">
+    <row r="168" spans="6:15">
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
@@ -5281,7 +5253,7 @@
       <c r="N168" s="9"/>
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="6:15" ht="14.25" customHeight="1">
+    <row r="169" spans="6:15">
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
@@ -5293,7 +5265,7 @@
       <c r="N169" s="9"/>
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="6:15" ht="14.25" customHeight="1">
+    <row r="170" spans="6:15">
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
@@ -5305,7 +5277,7 @@
       <c r="N170" s="9"/>
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="6:15" ht="14.25" customHeight="1">
+    <row r="171" spans="6:15">
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
@@ -5317,7 +5289,7 @@
       <c r="N171" s="9"/>
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="6:15" ht="14.25" customHeight="1">
+    <row r="172" spans="6:15">
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
@@ -5329,7 +5301,7 @@
       <c r="N172" s="9"/>
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="6:15" ht="14.25" customHeight="1">
+    <row r="173" spans="6:15">
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
@@ -5341,7 +5313,7 @@
       <c r="N173" s="9"/>
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="6:15" ht="14.25" customHeight="1">
+    <row r="174" spans="6:15">
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
@@ -5353,7 +5325,7 @@
       <c r="N174" s="9"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="6:15" ht="14.25" customHeight="1">
+    <row r="175" spans="6:15">
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -5365,7 +5337,7 @@
       <c r="N175" s="9"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="6:15" ht="14.25" customHeight="1">
+    <row r="176" spans="6:15">
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
@@ -5377,7 +5349,7 @@
       <c r="N176" s="9"/>
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="6:15" ht="14.25" customHeight="1">
+    <row r="177" spans="6:15">
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
@@ -5389,7 +5361,7 @@
       <c r="N177" s="9"/>
       <c r="O177" s="6"/>
     </row>
-    <row r="178" spans="6:15" ht="14.25" customHeight="1">
+    <row r="178" spans="6:15">
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
@@ -5401,7 +5373,7 @@
       <c r="N178" s="9"/>
       <c r="O178" s="6"/>
     </row>
-    <row r="179" spans="6:15" ht="14.25" customHeight="1">
+    <row r="179" spans="6:15">
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
@@ -5413,7 +5385,7 @@
       <c r="N179" s="9"/>
       <c r="O179" s="6"/>
     </row>
-    <row r="180" spans="6:15" ht="14.25" customHeight="1">
+    <row r="180" spans="6:15">
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
@@ -5425,7 +5397,7 @@
       <c r="N180" s="9"/>
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="6:15" ht="14.25" customHeight="1">
+    <row r="181" spans="6:15">
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -5437,7 +5409,7 @@
       <c r="N181" s="9"/>
       <c r="O181" s="6"/>
     </row>
-    <row r="182" spans="6:15" ht="14.25" customHeight="1">
+    <row r="182" spans="6:15">
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
@@ -5449,7 +5421,7 @@
       <c r="N182" s="9"/>
       <c r="O182" s="6"/>
     </row>
-    <row r="183" spans="6:15" ht="14.25" customHeight="1">
+    <row r="183" spans="6:15">
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
@@ -5461,7 +5433,7 @@
       <c r="N183" s="9"/>
       <c r="O183" s="6"/>
     </row>
-    <row r="184" spans="6:15" ht="14.25" customHeight="1">
+    <row r="184" spans="6:15">
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -5473,7 +5445,7 @@
       <c r="N184" s="9"/>
       <c r="O184" s="6"/>
     </row>
-    <row r="185" spans="6:15" ht="14.25" customHeight="1">
+    <row r="185" spans="6:15">
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -5485,7 +5457,7 @@
       <c r="N185" s="9"/>
       <c r="O185" s="6"/>
     </row>
-    <row r="186" spans="6:15" ht="14.25" customHeight="1">
+    <row r="186" spans="6:15">
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
@@ -5497,7 +5469,7 @@
       <c r="N186" s="9"/>
       <c r="O186" s="6"/>
     </row>
-    <row r="187" spans="6:15" ht="14.25" customHeight="1">
+    <row r="187" spans="6:15">
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
@@ -5509,7 +5481,7 @@
       <c r="N187" s="9"/>
       <c r="O187" s="6"/>
     </row>
-    <row r="188" spans="6:15" ht="14.25" customHeight="1">
+    <row r="188" spans="6:15">
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
@@ -5521,7 +5493,7 @@
       <c r="N188" s="9"/>
       <c r="O188" s="6"/>
     </row>
-    <row r="189" spans="6:15" ht="14.25" customHeight="1">
+    <row r="189" spans="6:15">
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
@@ -5533,7 +5505,7 @@
       <c r="N189" s="9"/>
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="6:15" ht="14.25" customHeight="1">
+    <row r="190" spans="6:15">
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
@@ -5545,7 +5517,7 @@
       <c r="N190" s="9"/>
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="6:15" ht="14.25" customHeight="1">
+    <row r="191" spans="6:15">
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
@@ -5557,7 +5529,7 @@
       <c r="N191" s="9"/>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="6:15" ht="14.25" customHeight="1">
+    <row r="192" spans="6:15">
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
@@ -5569,7 +5541,7 @@
       <c r="N192" s="9"/>
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="6:15" ht="14.25" customHeight="1">
+    <row r="193" spans="6:15">
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
@@ -5581,7 +5553,7 @@
       <c r="N193" s="9"/>
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="6:15" ht="14.25" customHeight="1">
+    <row r="194" spans="6:15">
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
@@ -5593,7 +5565,7 @@
       <c r="N194" s="9"/>
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="6:15" ht="14.25" customHeight="1">
+    <row r="195" spans="6:15">
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
@@ -5605,7 +5577,7 @@
       <c r="N195" s="9"/>
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="6:15" ht="14.25" customHeight="1">
+    <row r="196" spans="6:15">
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
@@ -5617,7 +5589,7 @@
       <c r="N196" s="9"/>
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="6:15" ht="14.25" customHeight="1">
+    <row r="197" spans="6:15">
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
@@ -5629,7 +5601,7 @@
       <c r="N197" s="9"/>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="6:15" ht="14.25" customHeight="1">
+    <row r="198" spans="6:15">
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
@@ -5641,7 +5613,7 @@
       <c r="N198" s="9"/>
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="6:15" ht="14.25" customHeight="1">
+    <row r="199" spans="6:15">
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
@@ -5653,7 +5625,7 @@
       <c r="N199" s="9"/>
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="6:15" ht="14.25" customHeight="1">
+    <row r="200" spans="6:15">
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
@@ -5665,7 +5637,7 @@
       <c r="N200" s="9"/>
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="6:15" ht="14.25" customHeight="1">
+    <row r="201" spans="6:15">
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
@@ -5677,7 +5649,7 @@
       <c r="N201" s="9"/>
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="6:15" ht="14.25" customHeight="1">
+    <row r="202" spans="6:15">
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
@@ -5689,7 +5661,7 @@
       <c r="N202" s="9"/>
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="6:15" ht="14.25" customHeight="1">
+    <row r="203" spans="6:15">
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
@@ -5701,7 +5673,7 @@
       <c r="N203" s="9"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="6:15" ht="14.25" customHeight="1">
+    <row r="204" spans="6:15">
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
@@ -5713,7 +5685,7 @@
       <c r="N204" s="9"/>
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="6:15" ht="14.25" customHeight="1">
+    <row r="205" spans="6:15">
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
@@ -5725,7 +5697,7 @@
       <c r="N205" s="9"/>
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="6:15" ht="14.25" customHeight="1">
+    <row r="206" spans="6:15">
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
@@ -5737,7 +5709,7 @@
       <c r="N206" s="9"/>
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="6:15" ht="14.25" customHeight="1">
+    <row r="207" spans="6:15">
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
@@ -5749,7 +5721,7 @@
       <c r="N207" s="9"/>
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="6:15" ht="14.25" customHeight="1">
+    <row r="208" spans="6:15">
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
@@ -5761,7 +5733,7 @@
       <c r="N208" s="9"/>
       <c r="O208" s="6"/>
     </row>
-    <row r="209" spans="6:15" ht="14.25" customHeight="1">
+    <row r="209" spans="6:15">
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -5773,7 +5745,7 @@
       <c r="N209" s="9"/>
       <c r="O209" s="6"/>
     </row>
-    <row r="210" spans="6:15" ht="14.25" customHeight="1">
+    <row r="210" spans="6:15">
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
@@ -5785,7 +5757,7 @@
       <c r="N210" s="9"/>
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="6:15" ht="14.25" customHeight="1">
+    <row r="211" spans="6:15">
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
@@ -5797,7 +5769,7 @@
       <c r="N211" s="9"/>
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="6:15" ht="14.25" customHeight="1">
+    <row r="212" spans="6:15">
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
@@ -5809,7 +5781,7 @@
       <c r="N212" s="9"/>
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="6:15" ht="14.25" customHeight="1">
+    <row r="213" spans="6:15">
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
@@ -5821,7 +5793,7 @@
       <c r="N213" s="9"/>
       <c r="O213" s="6"/>
     </row>
-    <row r="214" spans="6:15" ht="14.25" customHeight="1">
+    <row r="214" spans="6:15">
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
@@ -5833,7 +5805,7 @@
       <c r="N214" s="9"/>
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="6:15" ht="14.25" customHeight="1">
+    <row r="215" spans="6:15">
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
@@ -5845,7 +5817,7 @@
       <c r="N215" s="9"/>
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="6:15" ht="14.25" customHeight="1">
+    <row r="216" spans="6:15">
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
@@ -5857,7 +5829,7 @@
       <c r="N216" s="9"/>
       <c r="O216" s="6"/>
     </row>
-    <row r="217" spans="6:15" ht="14.25" customHeight="1">
+    <row r="217" spans="6:15">
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
@@ -5869,7 +5841,7 @@
       <c r="N217" s="9"/>
       <c r="O217" s="6"/>
     </row>
-    <row r="218" spans="6:15" ht="14.25" customHeight="1">
+    <row r="218" spans="6:15">
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
@@ -5881,7 +5853,7 @@
       <c r="N218" s="9"/>
       <c r="O218" s="6"/>
     </row>
-    <row r="219" spans="6:15" ht="14.25" customHeight="1">
+    <row r="219" spans="6:15">
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
@@ -5893,7 +5865,7 @@
       <c r="N219" s="9"/>
       <c r="O219" s="6"/>
     </row>
-    <row r="220" spans="6:15" ht="14.25" customHeight="1">
+    <row r="220" spans="6:15">
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
@@ -5905,7 +5877,7 @@
       <c r="N220" s="9"/>
       <c r="O220" s="6"/>
     </row>
-    <row r="221" spans="6:15" ht="14.25" customHeight="1">
+    <row r="221" spans="6:15">
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
@@ -5917,7 +5889,7 @@
       <c r="N221" s="9"/>
       <c r="O221" s="6"/>
     </row>
-    <row r="222" spans="6:15" ht="14.25" customHeight="1">
+    <row r="222" spans="6:15">
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
@@ -5929,7 +5901,7 @@
       <c r="N222" s="9"/>
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="6:15" ht="14.25" customHeight="1">
+    <row r="223" spans="6:15">
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
@@ -5941,7 +5913,7 @@
       <c r="N223" s="9"/>
       <c r="O223" s="6"/>
     </row>
-    <row r="224" spans="6:15" ht="14.25" customHeight="1">
+    <row r="224" spans="6:15">
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
@@ -5953,7 +5925,7 @@
       <c r="N224" s="9"/>
       <c r="O224" s="6"/>
     </row>
-    <row r="225" spans="6:15" ht="14.25" customHeight="1">
+    <row r="225" spans="6:15">
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
@@ -5965,7 +5937,7 @@
       <c r="N225" s="9"/>
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="6:15" ht="14.25" customHeight="1">
+    <row r="226" spans="6:15">
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
@@ -5977,7 +5949,7 @@
       <c r="N226" s="9"/>
       <c r="O226" s="6"/>
     </row>
-    <row r="227" spans="6:15" ht="14.25" customHeight="1">
+    <row r="227" spans="6:15">
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
@@ -5989,7 +5961,7 @@
       <c r="N227" s="9"/>
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="6:15" ht="14.25" customHeight="1">
+    <row r="228" spans="6:15">
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
@@ -6001,7 +5973,7 @@
       <c r="N228" s="9"/>
       <c r="O228" s="6"/>
     </row>
-    <row r="229" spans="6:15" ht="14.25" customHeight="1">
+    <row r="229" spans="6:15">
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
@@ -6013,7 +5985,7 @@
       <c r="N229" s="9"/>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="6:15" ht="14.25" customHeight="1">
+    <row r="230" spans="6:15">
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
@@ -6025,7 +5997,7 @@
       <c r="N230" s="9"/>
       <c r="O230" s="6"/>
     </row>
-    <row r="231" spans="6:15" ht="14.25" customHeight="1">
+    <row r="231" spans="6:15">
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
@@ -6037,7 +6009,7 @@
       <c r="N231" s="9"/>
       <c r="O231" s="6"/>
     </row>
-    <row r="232" spans="6:15" ht="14.25" customHeight="1">
+    <row r="232" spans="6:15">
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
@@ -6049,7 +6021,7 @@
       <c r="N232" s="9"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="6:15" ht="14.25" customHeight="1">
+    <row r="233" spans="6:15">
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
@@ -6061,7 +6033,7 @@
       <c r="N233" s="9"/>
       <c r="O233" s="6"/>
     </row>
-    <row r="234" spans="6:15" ht="14.25" customHeight="1">
+    <row r="234" spans="6:15">
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
@@ -6073,7 +6045,7 @@
       <c r="N234" s="9"/>
       <c r="O234" s="6"/>
     </row>
-    <row r="235" spans="6:15" ht="14.25" customHeight="1">
+    <row r="235" spans="6:15">
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
@@ -6085,7 +6057,7 @@
       <c r="N235" s="9"/>
       <c r="O235" s="6"/>
     </row>
-    <row r="236" spans="6:15" ht="14.25" customHeight="1">
+    <row r="236" spans="6:15">
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
@@ -6097,7 +6069,7 @@
       <c r="N236" s="9"/>
       <c r="O236" s="6"/>
     </row>
-    <row r="237" spans="6:15" ht="14.25" customHeight="1">
+    <row r="237" spans="6:15">
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
@@ -6109,7 +6081,7 @@
       <c r="N237" s="9"/>
       <c r="O237" s="6"/>
     </row>
-    <row r="238" spans="6:15" ht="14.25" customHeight="1">
+    <row r="238" spans="6:15">
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
@@ -6121,7 +6093,7 @@
       <c r="N238" s="9"/>
       <c r="O238" s="6"/>
     </row>
-    <row r="239" spans="6:15" ht="14.25" customHeight="1">
+    <row r="239" spans="6:15">
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
@@ -6133,7 +6105,7 @@
       <c r="N239" s="9"/>
       <c r="O239" s="6"/>
     </row>
-    <row r="240" spans="6:15" ht="14.25" customHeight="1">
+    <row r="240" spans="6:15">
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
@@ -6145,7 +6117,7 @@
       <c r="N240" s="9"/>
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="6:15" ht="14.25" customHeight="1">
+    <row r="241" spans="6:15">
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
@@ -6157,7 +6129,7 @@
       <c r="N241" s="9"/>
       <c r="O241" s="6"/>
     </row>
-    <row r="242" spans="6:15" ht="14.25" customHeight="1">
+    <row r="242" spans="6:15">
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
@@ -6169,7 +6141,7 @@
       <c r="N242" s="9"/>
       <c r="O242" s="6"/>
     </row>
-    <row r="243" spans="6:15" ht="14.25" customHeight="1">
+    <row r="243" spans="6:15">
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
@@ -6181,7 +6153,7 @@
       <c r="N243" s="9"/>
       <c r="O243" s="6"/>
     </row>
-    <row r="244" spans="6:15" ht="14.25" customHeight="1">
+    <row r="244" spans="6:15">
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
@@ -6193,7 +6165,7 @@
       <c r="N244" s="9"/>
       <c r="O244" s="6"/>
     </row>
-    <row r="245" spans="6:15" ht="14.25" customHeight="1">
+    <row r="245" spans="6:15">
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
@@ -6205,7 +6177,7 @@
       <c r="N245" s="9"/>
       <c r="O245" s="6"/>
     </row>
-    <row r="246" spans="6:15" ht="14.25" customHeight="1">
+    <row r="246" spans="6:15">
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
@@ -6217,7 +6189,7 @@
       <c r="N246" s="9"/>
       <c r="O246" s="6"/>
     </row>
-    <row r="247" spans="6:15" ht="14.25" customHeight="1">
+    <row r="247" spans="6:15">
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
@@ -6229,7 +6201,7 @@
       <c r="N247" s="9"/>
       <c r="O247" s="6"/>
     </row>
-    <row r="248" spans="6:15" ht="14.25" customHeight="1">
+    <row r="248" spans="6:15">
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
@@ -6241,7 +6213,7 @@
       <c r="N248" s="9"/>
       <c r="O248" s="6"/>
     </row>
-    <row r="249" spans="6:15" ht="14.25" customHeight="1">
+    <row r="249" spans="6:15">
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
@@ -6253,7 +6225,7 @@
       <c r="N249" s="9"/>
       <c r="O249" s="6"/>
     </row>
-    <row r="250" spans="6:15" ht="14.25" customHeight="1">
+    <row r="250" spans="6:15">
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
@@ -6265,7 +6237,7 @@
       <c r="N250" s="9"/>
       <c r="O250" s="6"/>
     </row>
-    <row r="251" spans="6:15" ht="14.25" customHeight="1">
+    <row r="251" spans="6:15">
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
@@ -6277,7 +6249,7 @@
       <c r="N251" s="9"/>
       <c r="O251" s="6"/>
     </row>
-    <row r="252" spans="6:15" ht="14.25" customHeight="1">
+    <row r="252" spans="6:15">
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
@@ -6289,7 +6261,7 @@
       <c r="N252" s="9"/>
       <c r="O252" s="6"/>
     </row>
-    <row r="253" spans="6:15" ht="14.25" customHeight="1">
+    <row r="253" spans="6:15">
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
@@ -6301,7 +6273,7 @@
       <c r="N253" s="9"/>
       <c r="O253" s="6"/>
     </row>
-    <row r="254" spans="6:15" ht="14.25" customHeight="1">
+    <row r="254" spans="6:15">
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
@@ -6313,7 +6285,7 @@
       <c r="N254" s="9"/>
       <c r="O254" s="6"/>
     </row>
-    <row r="255" spans="6:15" ht="14.25" customHeight="1">
+    <row r="255" spans="6:15">
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
@@ -6325,7 +6297,7 @@
       <c r="N255" s="9"/>
       <c r="O255" s="6"/>
     </row>
-    <row r="256" spans="6:15" ht="14.25" customHeight="1">
+    <row r="256" spans="6:15">
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
@@ -6337,7 +6309,7 @@
       <c r="N256" s="9"/>
       <c r="O256" s="6"/>
     </row>
-    <row r="257" spans="6:15" ht="14.25" customHeight="1">
+    <row r="257" spans="6:15">
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
@@ -6349,7 +6321,7 @@
       <c r="N257" s="9"/>
       <c r="O257" s="6"/>
     </row>
-    <row r="258" spans="6:15" ht="14.25" customHeight="1">
+    <row r="258" spans="6:15">
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
@@ -6361,7 +6333,7 @@
       <c r="N258" s="9"/>
       <c r="O258" s="6"/>
     </row>
-    <row r="259" spans="6:15" ht="14.25" customHeight="1">
+    <row r="259" spans="6:15">
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
@@ -6373,7 +6345,7 @@
       <c r="N259" s="9"/>
       <c r="O259" s="6"/>
     </row>
-    <row r="260" spans="6:15" ht="14.25" customHeight="1">
+    <row r="260" spans="6:15">
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
@@ -6385,7 +6357,7 @@
       <c r="N260" s="9"/>
       <c r="O260" s="6"/>
     </row>
-    <row r="261" spans="6:15" ht="14.25" customHeight="1">
+    <row r="261" spans="6:15">
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
@@ -6397,7 +6369,7 @@
       <c r="N261" s="9"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="6:15" ht="14.25" customHeight="1">
+    <row r="262" spans="6:15">
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
@@ -6409,7 +6381,7 @@
       <c r="N262" s="9"/>
       <c r="O262" s="6"/>
     </row>
-    <row r="263" spans="6:15" ht="14.25" customHeight="1">
+    <row r="263" spans="6:15">
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
@@ -6421,7 +6393,7 @@
       <c r="N263" s="9"/>
       <c r="O263" s="6"/>
     </row>
-    <row r="264" spans="6:15" ht="14.25" customHeight="1">
+    <row r="264" spans="6:15">
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
@@ -6433,7 +6405,7 @@
       <c r="N264" s="9"/>
       <c r="O264" s="6"/>
     </row>
-    <row r="265" spans="6:15" ht="14.25" customHeight="1">
+    <row r="265" spans="6:15">
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
@@ -6445,7 +6417,7 @@
       <c r="N265" s="9"/>
       <c r="O265" s="6"/>
     </row>
-    <row r="266" spans="6:15" ht="14.25" customHeight="1">
+    <row r="266" spans="6:15">
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
@@ -6457,7 +6429,7 @@
       <c r="N266" s="9"/>
       <c r="O266" s="6"/>
     </row>
-    <row r="267" spans="6:15" ht="14.25" customHeight="1">
+    <row r="267" spans="6:15">
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
@@ -6469,7 +6441,7 @@
       <c r="N267" s="9"/>
       <c r="O267" s="6"/>
     </row>
-    <row r="268" spans="6:15" ht="14.25" customHeight="1">
+    <row r="268" spans="6:15">
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
       <c r="H268" s="7"/>
@@ -6481,7 +6453,7 @@
       <c r="N268" s="9"/>
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="6:15" ht="14.25" customHeight="1">
+    <row r="269" spans="6:15">
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
       <c r="H269" s="7"/>
@@ -6493,7 +6465,7 @@
       <c r="N269" s="9"/>
       <c r="O269" s="6"/>
     </row>
-    <row r="270" spans="6:15" ht="14.25" customHeight="1">
+    <row r="270" spans="6:15">
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
       <c r="H270" s="7"/>
@@ -6505,7 +6477,7 @@
       <c r="N270" s="9"/>
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="6:15" ht="14.25" customHeight="1">
+    <row r="271" spans="6:15">
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
       <c r="H271" s="7"/>
@@ -6517,7 +6489,7 @@
       <c r="N271" s="9"/>
       <c r="O271" s="6"/>
     </row>
-    <row r="272" spans="6:15" ht="14.25" customHeight="1">
+    <row r="272" spans="6:15">
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
       <c r="H272" s="7"/>
@@ -6529,7 +6501,7 @@
       <c r="N272" s="9"/>
       <c r="O272" s="6"/>
     </row>
-    <row r="273" spans="6:15" ht="14.25" customHeight="1">
+    <row r="273" spans="6:15">
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
       <c r="H273" s="7"/>
@@ -6541,7 +6513,7 @@
       <c r="N273" s="9"/>
       <c r="O273" s="6"/>
     </row>
-    <row r="274" spans="6:15" ht="14.25" customHeight="1">
+    <row r="274" spans="6:15">
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
       <c r="H274" s="7"/>
@@ -6553,7 +6525,7 @@
       <c r="N274" s="9"/>
       <c r="O274" s="6"/>
     </row>
-    <row r="275" spans="6:15" ht="14.25" customHeight="1">
+    <row r="275" spans="6:15">
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
@@ -6565,7 +6537,7 @@
       <c r="N275" s="9"/>
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="6:15" ht="14.25" customHeight="1">
+    <row r="276" spans="6:15">
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
@@ -6577,7 +6549,7 @@
       <c r="N276" s="9"/>
       <c r="O276" s="6"/>
     </row>
-    <row r="277" spans="6:15" ht="14.25" customHeight="1">
+    <row r="277" spans="6:15">
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
@@ -6589,7 +6561,7 @@
       <c r="N277" s="9"/>
       <c r="O277" s="6"/>
     </row>
-    <row r="278" spans="6:15" ht="14.25" customHeight="1">
+    <row r="278" spans="6:15">
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
@@ -6601,7 +6573,7 @@
       <c r="N278" s="9"/>
       <c r="O278" s="6"/>
     </row>
-    <row r="279" spans="6:15" ht="14.25" customHeight="1">
+    <row r="279" spans="6:15">
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
@@ -6613,7 +6585,7 @@
       <c r="N279" s="9"/>
       <c r="O279" s="6"/>
     </row>
-    <row r="280" spans="6:15" ht="14.25" customHeight="1">
+    <row r="280" spans="6:15">
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
@@ -6625,7 +6597,7 @@
       <c r="N280" s="9"/>
       <c r="O280" s="6"/>
     </row>
-    <row r="281" spans="6:15" ht="14.25" customHeight="1">
+    <row r="281" spans="6:15">
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
@@ -6637,7 +6609,7 @@
       <c r="N281" s="9"/>
       <c r="O281" s="6"/>
     </row>
-    <row r="282" spans="6:15" ht="14.25" customHeight="1">
+    <row r="282" spans="6:15">
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
@@ -6649,7 +6621,7 @@
       <c r="N282" s="9"/>
       <c r="O282" s="6"/>
     </row>
-    <row r="283" spans="6:15" ht="14.25" customHeight="1">
+    <row r="283" spans="6:15">
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
@@ -6661,7 +6633,7 @@
       <c r="N283" s="9"/>
       <c r="O283" s="6"/>
     </row>
-    <row r="284" spans="6:15" ht="14.25" customHeight="1">
+    <row r="284" spans="6:15">
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
@@ -6673,7 +6645,7 @@
       <c r="N284" s="9"/>
       <c r="O284" s="6"/>
     </row>
-    <row r="285" spans="6:15" ht="14.25" customHeight="1">
+    <row r="285" spans="6:15">
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
@@ -6685,7 +6657,7 @@
       <c r="N285" s="9"/>
       <c r="O285" s="6"/>
     </row>
-    <row r="286" spans="6:15" ht="14.25" customHeight="1">
+    <row r="286" spans="6:15">
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
@@ -6697,7 +6669,7 @@
       <c r="N286" s="9"/>
       <c r="O286" s="6"/>
     </row>
-    <row r="287" spans="6:15" ht="14.25" customHeight="1">
+    <row r="287" spans="6:15">
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
@@ -6709,7 +6681,7 @@
       <c r="N287" s="9"/>
       <c r="O287" s="6"/>
     </row>
-    <row r="288" spans="6:15" ht="14.25" customHeight="1">
+    <row r="288" spans="6:15">
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
@@ -6721,7 +6693,7 @@
       <c r="N288" s="9"/>
       <c r="O288" s="6"/>
     </row>
-    <row r="289" spans="6:15" ht="14.25" customHeight="1">
+    <row r="289" spans="6:15">
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
@@ -6733,7 +6705,7 @@
       <c r="N289" s="9"/>
       <c r="O289" s="6"/>
     </row>
-    <row r="290" spans="6:15" ht="14.25" customHeight="1">
+    <row r="290" spans="6:15">
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
@@ -6745,7 +6717,7 @@
       <c r="N290" s="9"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="6:15" ht="14.25" customHeight="1">
+    <row r="291" spans="6:15">
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
@@ -6757,7 +6729,7 @@
       <c r="N291" s="9"/>
       <c r="O291" s="6"/>
     </row>
-    <row r="292" spans="6:15" ht="14.25" customHeight="1">
+    <row r="292" spans="6:15">
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
@@ -6769,7 +6741,7 @@
       <c r="N292" s="9"/>
       <c r="O292" s="6"/>
     </row>
-    <row r="293" spans="6:15" ht="14.25" customHeight="1">
+    <row r="293" spans="6:15">
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
@@ -6781,7 +6753,7 @@
       <c r="N293" s="9"/>
       <c r="O293" s="6"/>
     </row>
-    <row r="294" spans="6:15" ht="14.25" customHeight="1">
+    <row r="294" spans="6:15">
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
@@ -6793,7 +6765,7 @@
       <c r="N294" s="9"/>
       <c r="O294" s="6"/>
     </row>
-    <row r="295" spans="6:15" ht="14.25" customHeight="1">
+    <row r="295" spans="6:15">
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
@@ -6805,7 +6777,7 @@
       <c r="N295" s="9"/>
       <c r="O295" s="6"/>
     </row>
-    <row r="296" spans="6:15" ht="14.25" customHeight="1">
+    <row r="296" spans="6:15">
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
@@ -6817,7 +6789,7 @@
       <c r="N296" s="9"/>
       <c r="O296" s="6"/>
     </row>
-    <row r="297" spans="6:15" ht="14.25" customHeight="1">
+    <row r="297" spans="6:15">
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
@@ -6829,7 +6801,7 @@
       <c r="N297" s="9"/>
       <c r="O297" s="6"/>
     </row>
-    <row r="298" spans="6:15" ht="14.25" customHeight="1">
+    <row r="298" spans="6:15">
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
@@ -6841,7 +6813,7 @@
       <c r="N298" s="9"/>
       <c r="O298" s="6"/>
     </row>
-    <row r="299" spans="6:15" ht="14.25" customHeight="1">
+    <row r="299" spans="6:15">
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
@@ -6853,7 +6825,7 @@
       <c r="N299" s="9"/>
       <c r="O299" s="6"/>
     </row>
-    <row r="300" spans="6:15" ht="14.25" customHeight="1">
+    <row r="300" spans="6:15">
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
@@ -6865,7 +6837,7 @@
       <c r="N300" s="9"/>
       <c r="O300" s="6"/>
     </row>
-    <row r="301" spans="6:15" ht="14.25" customHeight="1">
+    <row r="301" spans="6:15">
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
@@ -6877,7 +6849,7 @@
       <c r="N301" s="9"/>
       <c r="O301" s="6"/>
     </row>
-    <row r="302" spans="6:15" ht="14.25" customHeight="1">
+    <row r="302" spans="6:15">
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
@@ -6889,7 +6861,7 @@
       <c r="N302" s="9"/>
       <c r="O302" s="6"/>
     </row>
-    <row r="303" spans="6:15" ht="14.25" customHeight="1">
+    <row r="303" spans="6:15">
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
@@ -6901,7 +6873,7 @@
       <c r="N303" s="9"/>
       <c r="O303" s="6"/>
     </row>
-    <row r="304" spans="6:15" ht="14.25" customHeight="1">
+    <row r="304" spans="6:15">
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
@@ -6913,7 +6885,7 @@
       <c r="N304" s="9"/>
       <c r="O304" s="6"/>
     </row>
-    <row r="305" spans="6:15" ht="14.25" customHeight="1">
+    <row r="305" spans="6:15">
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
@@ -6925,7 +6897,7 @@
       <c r="N305" s="9"/>
       <c r="O305" s="6"/>
     </row>
-    <row r="306" spans="6:15" ht="14.25" customHeight="1">
+    <row r="306" spans="6:15">
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
@@ -6937,7 +6909,7 @@
       <c r="N306" s="9"/>
       <c r="O306" s="6"/>
     </row>
-    <row r="307" spans="6:15" ht="14.25" customHeight="1">
+    <row r="307" spans="6:15">
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
@@ -6949,7 +6921,7 @@
       <c r="N307" s="9"/>
       <c r="O307" s="6"/>
     </row>
-    <row r="308" spans="6:15" ht="14.25" customHeight="1">
+    <row r="308" spans="6:15">
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
@@ -6961,7 +6933,7 @@
       <c r="N308" s="9"/>
       <c r="O308" s="6"/>
     </row>
-    <row r="309" spans="6:15" ht="14.25" customHeight="1">
+    <row r="309" spans="6:15">
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
@@ -6973,7 +6945,7 @@
       <c r="N309" s="9"/>
       <c r="O309" s="6"/>
     </row>
-    <row r="310" spans="6:15" ht="14.25" customHeight="1">
+    <row r="310" spans="6:15">
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
@@ -6985,7 +6957,7 @@
       <c r="N310" s="9"/>
       <c r="O310" s="6"/>
     </row>
-    <row r="311" spans="6:15" ht="14.25" customHeight="1">
+    <row r="311" spans="6:15">
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
@@ -6997,7 +6969,7 @@
       <c r="N311" s="9"/>
       <c r="O311" s="6"/>
     </row>
-    <row r="312" spans="6:15" ht="14.25" customHeight="1">
+    <row r="312" spans="6:15">
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
@@ -7009,7 +6981,7 @@
       <c r="N312" s="9"/>
       <c r="O312" s="6"/>
     </row>
-    <row r="313" spans="6:15" ht="14.25" customHeight="1">
+    <row r="313" spans="6:15">
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
@@ -7021,7 +6993,7 @@
       <c r="N313" s="9"/>
       <c r="O313" s="6"/>
     </row>
-    <row r="314" spans="6:15" ht="14.25" customHeight="1">
+    <row r="314" spans="6:15">
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
@@ -7033,7 +7005,7 @@
       <c r="N314" s="9"/>
       <c r="O314" s="6"/>
     </row>
-    <row r="315" spans="6:15" ht="14.25" customHeight="1">
+    <row r="315" spans="6:15">
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
@@ -7045,7 +7017,7 @@
       <c r="N315" s="9"/>
       <c r="O315" s="6"/>
     </row>
-    <row r="316" spans="6:15" ht="14.25" customHeight="1">
+    <row r="316" spans="6:15">
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
@@ -7057,7 +7029,7 @@
       <c r="N316" s="9"/>
       <c r="O316" s="6"/>
     </row>
-    <row r="317" spans="6:15" ht="14.25" customHeight="1">
+    <row r="317" spans="6:15">
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
@@ -7069,7 +7041,7 @@
       <c r="N317" s="9"/>
       <c r="O317" s="6"/>
     </row>
-    <row r="318" spans="6:15" ht="14.25" customHeight="1">
+    <row r="318" spans="6:15">
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
@@ -7081,7 +7053,7 @@
       <c r="N318" s="9"/>
       <c r="O318" s="6"/>
     </row>
-    <row r="319" spans="6:15" ht="14.25" customHeight="1">
+    <row r="319" spans="6:15">
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
@@ -7093,7 +7065,7 @@
       <c r="N319" s="9"/>
       <c r="O319" s="6"/>
     </row>
-    <row r="320" spans="6:15" ht="14.25" customHeight="1">
+    <row r="320" spans="6:15">
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
       <c r="H320" s="7"/>
@@ -7105,7 +7077,7 @@
       <c r="N320" s="9"/>
       <c r="O320" s="6"/>
     </row>
-    <row r="321" spans="6:15" ht="14.25" customHeight="1">
+    <row r="321" spans="6:15">
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
@@ -7117,7 +7089,7 @@
       <c r="N321" s="9"/>
       <c r="O321" s="6"/>
     </row>
-    <row r="322" spans="6:15" ht="14.25" customHeight="1">
+    <row r="322" spans="6:15">
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
@@ -7129,7 +7101,7 @@
       <c r="N322" s="9"/>
       <c r="O322" s="6"/>
     </row>
-    <row r="323" spans="6:15" ht="14.25" customHeight="1">
+    <row r="323" spans="6:15">
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="7"/>
@@ -7141,7 +7113,7 @@
       <c r="N323" s="9"/>
       <c r="O323" s="6"/>
     </row>
-    <row r="324" spans="6:15" ht="14.25" customHeight="1">
+    <row r="324" spans="6:15">
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
@@ -7153,7 +7125,7 @@
       <c r="N324" s="9"/>
       <c r="O324" s="6"/>
     </row>
-    <row r="325" spans="6:15" ht="14.25" customHeight="1">
+    <row r="325" spans="6:15">
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
@@ -7165,7 +7137,7 @@
       <c r="N325" s="9"/>
       <c r="O325" s="6"/>
     </row>
-    <row r="326" spans="6:15" ht="14.25" customHeight="1">
+    <row r="326" spans="6:15">
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
@@ -7177,7 +7149,7 @@
       <c r="N326" s="9"/>
       <c r="O326" s="6"/>
     </row>
-    <row r="327" spans="6:15" ht="14.25" customHeight="1">
+    <row r="327" spans="6:15">
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
@@ -7189,7 +7161,7 @@
       <c r="N327" s="9"/>
       <c r="O327" s="6"/>
     </row>
-    <row r="328" spans="6:15" ht="14.25" customHeight="1">
+    <row r="328" spans="6:15">
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
@@ -7201,7 +7173,7 @@
       <c r="N328" s="9"/>
       <c r="O328" s="6"/>
     </row>
-    <row r="329" spans="6:15" ht="14.25" customHeight="1">
+    <row r="329" spans="6:15">
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
@@ -7213,7 +7185,7 @@
       <c r="N329" s="9"/>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="6:15" ht="14.25" customHeight="1">
+    <row r="330" spans="6:15">
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
@@ -7225,7 +7197,7 @@
       <c r="N330" s="9"/>
       <c r="O330" s="6"/>
     </row>
-    <row r="331" spans="6:15" ht="14.25" customHeight="1">
+    <row r="331" spans="6:15">
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
       <c r="H331" s="7"/>
@@ -7237,7 +7209,7 @@
       <c r="N331" s="9"/>
       <c r="O331" s="6"/>
     </row>
-    <row r="332" spans="6:15" ht="14.25" customHeight="1">
+    <row r="332" spans="6:15">
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
@@ -7249,7 +7221,7 @@
       <c r="N332" s="9"/>
       <c r="O332" s="6"/>
     </row>
-    <row r="333" spans="6:15" ht="14.25" customHeight="1">
+    <row r="333" spans="6:15">
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
@@ -7261,7 +7233,7 @@
       <c r="N333" s="9"/>
       <c r="O333" s="6"/>
     </row>
-    <row r="334" spans="6:15" ht="14.25" customHeight="1">
+    <row r="334" spans="6:15">
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
@@ -7273,7 +7245,7 @@
       <c r="N334" s="9"/>
       <c r="O334" s="6"/>
     </row>
-    <row r="335" spans="6:15" ht="14.25" customHeight="1">
+    <row r="335" spans="6:15">
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
@@ -7285,7 +7257,7 @@
       <c r="N335" s="9"/>
       <c r="O335" s="6"/>
     </row>
-    <row r="336" spans="6:15" ht="14.25" customHeight="1">
+    <row r="336" spans="6:15">
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
@@ -7297,7 +7269,7 @@
       <c r="N336" s="9"/>
       <c r="O336" s="6"/>
     </row>
-    <row r="337" spans="6:15" ht="14.25" customHeight="1">
+    <row r="337" spans="6:15">
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
@@ -7309,7 +7281,7 @@
       <c r="N337" s="9"/>
       <c r="O337" s="6"/>
     </row>
-    <row r="338" spans="6:15" ht="14.25" customHeight="1">
+    <row r="338" spans="6:15">
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
@@ -7321,7 +7293,7 @@
       <c r="N338" s="9"/>
       <c r="O338" s="6"/>
     </row>
-    <row r="339" spans="6:15" ht="14.25" customHeight="1">
+    <row r="339" spans="6:15">
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
@@ -7333,7 +7305,7 @@
       <c r="N339" s="9"/>
       <c r="O339" s="6"/>
     </row>
-    <row r="340" spans="6:15" ht="14.25" customHeight="1">
+    <row r="340" spans="6:15">
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
@@ -7345,7 +7317,7 @@
       <c r="N340" s="9"/>
       <c r="O340" s="6"/>
     </row>
-    <row r="341" spans="6:15" ht="14.25" customHeight="1">
+    <row r="341" spans="6:15">
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
@@ -7357,7 +7329,7 @@
       <c r="N341" s="9"/>
       <c r="O341" s="6"/>
     </row>
-    <row r="342" spans="6:15" ht="14.25" customHeight="1">
+    <row r="342" spans="6:15">
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
@@ -7369,7 +7341,7 @@
       <c r="N342" s="9"/>
       <c r="O342" s="6"/>
     </row>
-    <row r="343" spans="6:15" ht="14.25" customHeight="1">
+    <row r="343" spans="6:15">
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
@@ -7381,7 +7353,7 @@
       <c r="N343" s="9"/>
       <c r="O343" s="6"/>
     </row>
-    <row r="344" spans="6:15" ht="14.25" customHeight="1">
+    <row r="344" spans="6:15">
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
@@ -7393,7 +7365,7 @@
       <c r="N344" s="9"/>
       <c r="O344" s="6"/>
     </row>
-    <row r="345" spans="6:15" ht="14.25" customHeight="1">
+    <row r="345" spans="6:15">
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
@@ -7405,7 +7377,7 @@
       <c r="N345" s="9"/>
       <c r="O345" s="6"/>
     </row>
-    <row r="346" spans="6:15" ht="14.25" customHeight="1">
+    <row r="346" spans="6:15">
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
@@ -7417,7 +7389,7 @@
       <c r="N346" s="9"/>
       <c r="O346" s="6"/>
     </row>
-    <row r="347" spans="6:15" ht="14.25" customHeight="1">
+    <row r="347" spans="6:15">
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
@@ -7429,7 +7401,7 @@
       <c r="N347" s="9"/>
       <c r="O347" s="6"/>
     </row>
-    <row r="348" spans="6:15" ht="14.25" customHeight="1">
+    <row r="348" spans="6:15">
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
@@ -7441,7 +7413,7 @@
       <c r="N348" s="9"/>
       <c r="O348" s="6"/>
     </row>
-    <row r="349" spans="6:15" ht="14.25" customHeight="1">
+    <row r="349" spans="6:15">
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
@@ -7453,7 +7425,7 @@
       <c r="N349" s="9"/>
       <c r="O349" s="6"/>
     </row>
-    <row r="350" spans="6:15" ht="14.25" customHeight="1">
+    <row r="350" spans="6:15">
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
@@ -7465,7 +7437,7 @@
       <c r="N350" s="9"/>
       <c r="O350" s="6"/>
     </row>
-    <row r="351" spans="6:15" ht="14.25" customHeight="1">
+    <row r="351" spans="6:15">
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
@@ -7477,7 +7449,7 @@
       <c r="N351" s="9"/>
       <c r="O351" s="6"/>
     </row>
-    <row r="352" spans="6:15" ht="14.25" customHeight="1">
+    <row r="352" spans="6:15">
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
@@ -7489,7 +7461,7 @@
       <c r="N352" s="9"/>
       <c r="O352" s="6"/>
     </row>
-    <row r="353" spans="6:15" ht="14.25" customHeight="1">
+    <row r="353" spans="6:15">
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
@@ -7501,7 +7473,7 @@
       <c r="N353" s="9"/>
       <c r="O353" s="6"/>
     </row>
-    <row r="354" spans="6:15" ht="14.25" customHeight="1">
+    <row r="354" spans="6:15">
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
@@ -7513,7 +7485,7 @@
       <c r="N354" s="9"/>
       <c r="O354" s="6"/>
     </row>
-    <row r="355" spans="6:15" ht="14.25" customHeight="1">
+    <row r="355" spans="6:15">
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
@@ -7525,7 +7497,7 @@
       <c r="N355" s="9"/>
       <c r="O355" s="6"/>
     </row>
-    <row r="356" spans="6:15" ht="14.25" customHeight="1">
+    <row r="356" spans="6:15">
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
@@ -7537,7 +7509,7 @@
       <c r="N356" s="9"/>
       <c r="O356" s="6"/>
     </row>
-    <row r="357" spans="6:15" ht="14.25" customHeight="1">
+    <row r="357" spans="6:15">
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
@@ -7549,7 +7521,7 @@
       <c r="N357" s="9"/>
       <c r="O357" s="6"/>
     </row>
-    <row r="358" spans="6:15" ht="14.25" customHeight="1">
+    <row r="358" spans="6:15">
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
@@ -7561,7 +7533,7 @@
       <c r="N358" s="9"/>
       <c r="O358" s="6"/>
     </row>
-    <row r="359" spans="6:15" ht="14.25" customHeight="1">
+    <row r="359" spans="6:15">
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
@@ -7573,7 +7545,7 @@
       <c r="N359" s="9"/>
       <c r="O359" s="6"/>
     </row>
-    <row r="360" spans="6:15" ht="14.25" customHeight="1">
+    <row r="360" spans="6:15">
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
@@ -7585,7 +7557,7 @@
       <c r="N360" s="9"/>
       <c r="O360" s="6"/>
     </row>
-    <row r="361" spans="6:15" ht="14.25" customHeight="1">
+    <row r="361" spans="6:15">
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
@@ -7597,7 +7569,7 @@
       <c r="N361" s="9"/>
       <c r="O361" s="6"/>
     </row>
-    <row r="362" spans="6:15" ht="14.25" customHeight="1">
+    <row r="362" spans="6:15">
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
@@ -7609,7 +7581,7 @@
       <c r="N362" s="9"/>
       <c r="O362" s="6"/>
     </row>
-    <row r="363" spans="6:15" ht="14.25" customHeight="1">
+    <row r="363" spans="6:15">
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
@@ -7621,7 +7593,7 @@
       <c r="N363" s="9"/>
       <c r="O363" s="6"/>
     </row>
-    <row r="364" spans="6:15" ht="14.25" customHeight="1">
+    <row r="364" spans="6:15">
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
@@ -7633,7 +7605,7 @@
       <c r="N364" s="9"/>
       <c r="O364" s="6"/>
     </row>
-    <row r="365" spans="6:15" ht="14.25" customHeight="1">
+    <row r="365" spans="6:15">
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
@@ -7645,7 +7617,7 @@
       <c r="N365" s="9"/>
       <c r="O365" s="6"/>
     </row>
-    <row r="366" spans="6:15" ht="14.25" customHeight="1">
+    <row r="366" spans="6:15">
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
@@ -7657,7 +7629,7 @@
       <c r="N366" s="9"/>
       <c r="O366" s="6"/>
     </row>
-    <row r="367" spans="6:15" ht="14.25" customHeight="1">
+    <row r="367" spans="6:15">
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
@@ -7669,7 +7641,7 @@
       <c r="N367" s="9"/>
       <c r="O367" s="6"/>
     </row>
-    <row r="368" spans="6:15" ht="14.25" customHeight="1">
+    <row r="368" spans="6:15">
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
@@ -7681,7 +7653,7 @@
       <c r="N368" s="9"/>
       <c r="O368" s="6"/>
     </row>
-    <row r="369" spans="6:15" ht="14.25" customHeight="1">
+    <row r="369" spans="6:15">
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
@@ -7693,7 +7665,7 @@
       <c r="N369" s="9"/>
       <c r="O369" s="6"/>
     </row>
-    <row r="370" spans="6:15" ht="14.25" customHeight="1">
+    <row r="370" spans="6:15">
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
@@ -7705,7 +7677,7 @@
       <c r="N370" s="9"/>
       <c r="O370" s="6"/>
     </row>
-    <row r="371" spans="6:15" ht="14.25" customHeight="1">
+    <row r="371" spans="6:15">
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
@@ -7717,7 +7689,7 @@
       <c r="N371" s="9"/>
       <c r="O371" s="6"/>
     </row>
-    <row r="372" spans="6:15" ht="14.25" customHeight="1">
+    <row r="372" spans="6:15">
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
@@ -7729,7 +7701,7 @@
       <c r="N372" s="9"/>
       <c r="O372" s="6"/>
     </row>
-    <row r="373" spans="6:15" ht="14.25" customHeight="1">
+    <row r="373" spans="6:15">
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
@@ -7741,7 +7713,7 @@
       <c r="N373" s="9"/>
       <c r="O373" s="6"/>
     </row>
-    <row r="374" spans="6:15" ht="14.25" customHeight="1">
+    <row r="374" spans="6:15">
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
@@ -7753,7 +7725,7 @@
       <c r="N374" s="9"/>
       <c r="O374" s="6"/>
     </row>
-    <row r="375" spans="6:15" ht="14.25" customHeight="1">
+    <row r="375" spans="6:15">
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
@@ -7765,7 +7737,7 @@
       <c r="N375" s="9"/>
       <c r="O375" s="6"/>
     </row>
-    <row r="376" spans="6:15" ht="14.25" customHeight="1">
+    <row r="376" spans="6:15">
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
       <c r="H376" s="7"/>
@@ -7777,7 +7749,7 @@
       <c r="N376" s="9"/>
       <c r="O376" s="6"/>
     </row>
-    <row r="377" spans="6:15" ht="14.25" customHeight="1">
+    <row r="377" spans="6:15">
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
@@ -7789,7 +7761,7 @@
       <c r="N377" s="9"/>
       <c r="O377" s="6"/>
     </row>
-    <row r="378" spans="6:15" ht="14.25" customHeight="1">
+    <row r="378" spans="6:15">
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
@@ -7801,7 +7773,7 @@
       <c r="N378" s="9"/>
       <c r="O378" s="6"/>
     </row>
-    <row r="379" spans="6:15" ht="14.25" customHeight="1">
+    <row r="379" spans="6:15">
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
@@ -7813,7 +7785,7 @@
       <c r="N379" s="9"/>
       <c r="O379" s="6"/>
     </row>
-    <row r="380" spans="6:15" ht="14.25" customHeight="1">
+    <row r="380" spans="6:15">
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
@@ -7825,7 +7797,7 @@
       <c r="N380" s="9"/>
       <c r="O380" s="6"/>
     </row>
-    <row r="381" spans="6:15" ht="14.25" customHeight="1">
+    <row r="381" spans="6:15">
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
@@ -7837,7 +7809,7 @@
       <c r="N381" s="9"/>
       <c r="O381" s="6"/>
     </row>
-    <row r="382" spans="6:15" ht="14.25" customHeight="1">
+    <row r="382" spans="6:15">
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
@@ -7849,7 +7821,7 @@
       <c r="N382" s="9"/>
       <c r="O382" s="6"/>
     </row>
-    <row r="383" spans="6:15" ht="14.25" customHeight="1">
+    <row r="383" spans="6:15">
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
@@ -7861,7 +7833,7 @@
       <c r="N383" s="9"/>
       <c r="O383" s="6"/>
     </row>
-    <row r="384" spans="6:15" ht="14.25" customHeight="1">
+    <row r="384" spans="6:15">
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
@@ -7873,7 +7845,7 @@
       <c r="N384" s="9"/>
       <c r="O384" s="6"/>
     </row>
-    <row r="385" spans="6:15" ht="14.25" customHeight="1">
+    <row r="385" spans="6:15">
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
@@ -7885,7 +7857,7 @@
       <c r="N385" s="9"/>
       <c r="O385" s="6"/>
     </row>
-    <row r="386" spans="6:15" ht="14.25" customHeight="1">
+    <row r="386" spans="6:15">
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
@@ -7897,7 +7869,7 @@
       <c r="N386" s="9"/>
       <c r="O386" s="6"/>
     </row>
-    <row r="387" spans="6:15" ht="14.25" customHeight="1">
+    <row r="387" spans="6:15">
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
@@ -7909,7 +7881,7 @@
       <c r="N387" s="9"/>
       <c r="O387" s="6"/>
     </row>
-    <row r="388" spans="6:15" ht="14.25" customHeight="1">
+    <row r="388" spans="6:15">
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
@@ -7921,7 +7893,7 @@
       <c r="N388" s="9"/>
       <c r="O388" s="6"/>
     </row>
-    <row r="389" spans="6:15" ht="14.25" customHeight="1">
+    <row r="389" spans="6:15">
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
@@ -7933,7 +7905,7 @@
       <c r="N389" s="9"/>
       <c r="O389" s="6"/>
     </row>
-    <row r="390" spans="6:15" ht="14.25" customHeight="1">
+    <row r="390" spans="6:15">
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
@@ -7945,7 +7917,7 @@
       <c r="N390" s="9"/>
       <c r="O390" s="6"/>
     </row>
-    <row r="391" spans="6:15" ht="14.25" customHeight="1">
+    <row r="391" spans="6:15">
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
@@ -7957,7 +7929,7 @@
       <c r="N391" s="9"/>
       <c r="O391" s="6"/>
     </row>
-    <row r="392" spans="6:15" ht="14.25" customHeight="1">
+    <row r="392" spans="6:15">
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
@@ -7969,7 +7941,7 @@
       <c r="N392" s="9"/>
       <c r="O392" s="6"/>
     </row>
-    <row r="393" spans="6:15" ht="14.25" customHeight="1">
+    <row r="393" spans="6:15">
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
@@ -7981,7 +7953,7 @@
       <c r="N393" s="9"/>
       <c r="O393" s="6"/>
     </row>
-    <row r="394" spans="6:15" ht="14.25" customHeight="1">
+    <row r="394" spans="6:15">
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
@@ -7993,7 +7965,7 @@
       <c r="N394" s="9"/>
       <c r="O394" s="6"/>
     </row>
-    <row r="395" spans="6:15" ht="14.25" customHeight="1">
+    <row r="395" spans="6:15">
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
@@ -8005,7 +7977,7 @@
       <c r="N395" s="9"/>
       <c r="O395" s="6"/>
     </row>
-    <row r="396" spans="6:15" ht="14.25" customHeight="1">
+    <row r="396" spans="6:15">
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
@@ -8017,7 +7989,7 @@
       <c r="N396" s="9"/>
       <c r="O396" s="6"/>
     </row>
-    <row r="397" spans="6:15" ht="14.25" customHeight="1">
+    <row r="397" spans="6:15">
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
@@ -8029,7 +8001,7 @@
       <c r="N397" s="9"/>
       <c r="O397" s="6"/>
     </row>
-    <row r="398" spans="6:15" ht="14.25" customHeight="1">
+    <row r="398" spans="6:15">
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
@@ -8041,7 +8013,7 @@
       <c r="N398" s="9"/>
       <c r="O398" s="6"/>
     </row>
-    <row r="399" spans="6:15" ht="14.25" customHeight="1">
+    <row r="399" spans="6:15">
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
@@ -8053,7 +8025,7 @@
       <c r="N399" s="9"/>
       <c r="O399" s="6"/>
     </row>
-    <row r="400" spans="6:15" ht="14.25" customHeight="1">
+    <row r="400" spans="6:15">
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
       <c r="H400" s="7"/>
@@ -8065,7 +8037,7 @@
       <c r="N400" s="9"/>
       <c r="O400" s="6"/>
     </row>
-    <row r="401" spans="6:15" ht="14.25" customHeight="1">
+    <row r="401" spans="6:15">
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
@@ -8077,7 +8049,7 @@
       <c r="N401" s="9"/>
       <c r="O401" s="6"/>
     </row>
-    <row r="402" spans="6:15" ht="14.25" customHeight="1">
+    <row r="402" spans="6:15">
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
@@ -8089,7 +8061,7 @@
       <c r="N402" s="9"/>
       <c r="O402" s="6"/>
     </row>
-    <row r="403" spans="6:15" ht="14.25" customHeight="1">
+    <row r="403" spans="6:15">
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
@@ -8101,7 +8073,7 @@
       <c r="N403" s="9"/>
       <c r="O403" s="6"/>
     </row>
-    <row r="404" spans="6:15" ht="14.25" customHeight="1">
+    <row r="404" spans="6:15">
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
@@ -8113,7 +8085,7 @@
       <c r="N404" s="9"/>
       <c r="O404" s="6"/>
     </row>
-    <row r="405" spans="6:15" ht="14.25" customHeight="1">
+    <row r="405" spans="6:15">
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
@@ -8125,7 +8097,7 @@
       <c r="N405" s="9"/>
       <c r="O405" s="6"/>
     </row>
-    <row r="406" spans="6:15" ht="14.25" customHeight="1">
+    <row r="406" spans="6:15">
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
@@ -8137,7 +8109,7 @@
       <c r="N406" s="9"/>
       <c r="O406" s="6"/>
     </row>
-    <row r="407" spans="6:15" ht="14.25" customHeight="1">
+    <row r="407" spans="6:15">
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
@@ -8149,7 +8121,7 @@
       <c r="N407" s="9"/>
       <c r="O407" s="6"/>
     </row>
-    <row r="408" spans="6:15" ht="14.25" customHeight="1">
+    <row r="408" spans="6:15">
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
@@ -8161,7 +8133,7 @@
       <c r="N408" s="9"/>
       <c r="O408" s="6"/>
     </row>
-    <row r="409" spans="6:15" ht="14.25" customHeight="1">
+    <row r="409" spans="6:15">
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
@@ -8173,7 +8145,7 @@
       <c r="N409" s="9"/>
       <c r="O409" s="6"/>
     </row>
-    <row r="410" spans="6:15" ht="14.25" customHeight="1">
+    <row r="410" spans="6:15">
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
@@ -8185,7 +8157,7 @@
       <c r="N410" s="9"/>
       <c r="O410" s="6"/>
     </row>
-    <row r="411" spans="6:15" ht="14.25" customHeight="1">
+    <row r="411" spans="6:15">
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
@@ -8197,7 +8169,7 @@
       <c r="N411" s="9"/>
       <c r="O411" s="6"/>
     </row>
-    <row r="412" spans="6:15" ht="14.25" customHeight="1">
+    <row r="412" spans="6:15">
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
@@ -8209,7 +8181,7 @@
       <c r="N412" s="9"/>
       <c r="O412" s="6"/>
     </row>
-    <row r="413" spans="6:15" ht="14.25" customHeight="1">
+    <row r="413" spans="6:15">
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
@@ -8221,7 +8193,7 @@
       <c r="N413" s="9"/>
       <c r="O413" s="6"/>
     </row>
-    <row r="414" spans="6:15" ht="14.25" customHeight="1">
+    <row r="414" spans="6:15">
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
@@ -8233,7 +8205,7 @@
       <c r="N414" s="9"/>
       <c r="O414" s="6"/>
     </row>
-    <row r="415" spans="6:15" ht="14.25" customHeight="1">
+    <row r="415" spans="6:15">
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
@@ -8245,7 +8217,7 @@
       <c r="N415" s="9"/>
       <c r="O415" s="6"/>
     </row>
-    <row r="416" spans="6:15" ht="14.25" customHeight="1">
+    <row r="416" spans="6:15">
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
@@ -8257,7 +8229,7 @@
       <c r="N416" s="9"/>
       <c r="O416" s="6"/>
     </row>
-    <row r="417" spans="6:15" ht="14.25" customHeight="1">
+    <row r="417" spans="6:15">
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
@@ -8269,7 +8241,7 @@
       <c r="N417" s="9"/>
       <c r="O417" s="6"/>
     </row>
-    <row r="418" spans="6:15" ht="14.25" customHeight="1">
+    <row r="418" spans="6:15">
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
@@ -8281,7 +8253,7 @@
       <c r="N418" s="9"/>
       <c r="O418" s="6"/>
     </row>
-    <row r="419" spans="6:15" ht="14.25" customHeight="1">
+    <row r="419" spans="6:15">
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
@@ -8293,7 +8265,7 @@
       <c r="N419" s="9"/>
       <c r="O419" s="6"/>
     </row>
-    <row r="420" spans="6:15" ht="14.25" customHeight="1">
+    <row r="420" spans="6:15">
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
@@ -8305,7 +8277,7 @@
       <c r="N420" s="9"/>
       <c r="O420" s="6"/>
     </row>
-    <row r="421" spans="6:15" ht="14.25" customHeight="1">
+    <row r="421" spans="6:15">
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
@@ -8317,7 +8289,7 @@
       <c r="N421" s="9"/>
       <c r="O421" s="6"/>
     </row>
-    <row r="422" spans="6:15" ht="14.25" customHeight="1">
+    <row r="422" spans="6:15">
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
@@ -8329,7 +8301,7 @@
       <c r="N422" s="9"/>
       <c r="O422" s="6"/>
     </row>
-    <row r="423" spans="6:15" ht="14.25" customHeight="1">
+    <row r="423" spans="6:15">
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
       <c r="H423" s="7"/>
@@ -8341,7 +8313,7 @@
       <c r="N423" s="9"/>
       <c r="O423" s="6"/>
     </row>
-    <row r="424" spans="6:15" ht="14.25" customHeight="1">
+    <row r="424" spans="6:15">
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
@@ -8353,7 +8325,7 @@
       <c r="N424" s="9"/>
       <c r="O424" s="6"/>
     </row>
-    <row r="425" spans="6:15" ht="14.25" customHeight="1">
+    <row r="425" spans="6:15">
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
@@ -8365,7 +8337,7 @@
       <c r="N425" s="9"/>
       <c r="O425" s="6"/>
     </row>
-    <row r="426" spans="6:15" ht="14.25" customHeight="1">
+    <row r="426" spans="6:15">
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
@@ -8377,7 +8349,7 @@
       <c r="N426" s="9"/>
       <c r="O426" s="6"/>
     </row>
-    <row r="427" spans="6:15" ht="14.25" customHeight="1">
+    <row r="427" spans="6:15">
       <c r="F427" s="7"/>
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
@@ -8389,7 +8361,7 @@
       <c r="N427" s="9"/>
       <c r="O427" s="6"/>
     </row>
-    <row r="428" spans="6:15" ht="14.25" customHeight="1">
+    <row r="428" spans="6:15">
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
@@ -8401,7 +8373,7 @@
       <c r="N428" s="9"/>
       <c r="O428" s="6"/>
     </row>
-    <row r="429" spans="6:15" ht="14.25" customHeight="1">
+    <row r="429" spans="6:15">
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
@@ -8413,7 +8385,7 @@
       <c r="N429" s="9"/>
       <c r="O429" s="6"/>
     </row>
-    <row r="430" spans="6:15" ht="14.25" customHeight="1">
+    <row r="430" spans="6:15">
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
       <c r="H430" s="7"/>
@@ -8425,7 +8397,7 @@
       <c r="N430" s="9"/>
       <c r="O430" s="6"/>
     </row>
-    <row r="431" spans="6:15" ht="14.25" customHeight="1">
+    <row r="431" spans="6:15">
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
       <c r="H431" s="7"/>
@@ -8437,7 +8409,7 @@
       <c r="N431" s="9"/>
       <c r="O431" s="6"/>
     </row>
-    <row r="432" spans="6:15" ht="14.25" customHeight="1">
+    <row r="432" spans="6:15">
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
       <c r="H432" s="7"/>
@@ -8449,7 +8421,7 @@
       <c r="N432" s="9"/>
       <c r="O432" s="6"/>
     </row>
-    <row r="433" spans="6:15" ht="14.25" customHeight="1">
+    <row r="433" spans="6:15">
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
       <c r="H433" s="7"/>
@@ -8461,7 +8433,7 @@
       <c r="N433" s="9"/>
       <c r="O433" s="6"/>
     </row>
-    <row r="434" spans="6:15" ht="14.25" customHeight="1">
+    <row r="434" spans="6:15">
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
       <c r="H434" s="7"/>
@@ -8473,7 +8445,7 @@
       <c r="N434" s="9"/>
       <c r="O434" s="6"/>
     </row>
-    <row r="435" spans="6:15" ht="14.25" customHeight="1">
+    <row r="435" spans="6:15">
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
@@ -8485,7 +8457,7 @@
       <c r="N435" s="9"/>
       <c r="O435" s="6"/>
     </row>
-    <row r="436" spans="6:15" ht="14.25" customHeight="1">
+    <row r="436" spans="6:15">
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
@@ -8497,7 +8469,7 @@
       <c r="N436" s="9"/>
       <c r="O436" s="6"/>
     </row>
-    <row r="437" spans="6:15" ht="14.25" customHeight="1">
+    <row r="437" spans="6:15">
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
       <c r="H437" s="7"/>
@@ -8509,7 +8481,7 @@
       <c r="N437" s="9"/>
       <c r="O437" s="6"/>
     </row>
-    <row r="438" spans="6:15" ht="14.25" customHeight="1">
+    <row r="438" spans="6:15">
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
       <c r="H438" s="7"/>
@@ -8521,7 +8493,7 @@
       <c r="N438" s="9"/>
       <c r="O438" s="6"/>
     </row>
-    <row r="439" spans="6:15" ht="14.25" customHeight="1">
+    <row r="439" spans="6:15">
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
       <c r="H439" s="7"/>
@@ -8533,7 +8505,7 @@
       <c r="N439" s="9"/>
       <c r="O439" s="6"/>
     </row>
-    <row r="440" spans="6:15" ht="14.25" customHeight="1">
+    <row r="440" spans="6:15">
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
       <c r="H440" s="7"/>
@@ -8545,7 +8517,7 @@
       <c r="N440" s="9"/>
       <c r="O440" s="6"/>
     </row>
-    <row r="441" spans="6:15" ht="14.25" customHeight="1">
+    <row r="441" spans="6:15">
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
       <c r="H441" s="7"/>
@@ -8557,7 +8529,7 @@
       <c r="N441" s="9"/>
       <c r="O441" s="6"/>
     </row>
-    <row r="442" spans="6:15" ht="14.25" customHeight="1">
+    <row r="442" spans="6:15">
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
       <c r="H442" s="7"/>
@@ -8569,7 +8541,7 @@
       <c r="N442" s="9"/>
       <c r="O442" s="6"/>
     </row>
-    <row r="443" spans="6:15" ht="14.25" customHeight="1">
+    <row r="443" spans="6:15">
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
@@ -8581,7 +8553,7 @@
       <c r="N443" s="9"/>
       <c r="O443" s="6"/>
     </row>
-    <row r="444" spans="6:15" ht="14.25" customHeight="1">
+    <row r="444" spans="6:15">
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
       <c r="H444" s="7"/>
@@ -8593,7 +8565,7 @@
       <c r="N444" s="9"/>
       <c r="O444" s="6"/>
     </row>
-    <row r="445" spans="6:15" ht="14.25" customHeight="1">
+    <row r="445" spans="6:15">
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
@@ -8605,7 +8577,7 @@
       <c r="N445" s="9"/>
       <c r="O445" s="6"/>
     </row>
-    <row r="446" spans="6:15" ht="14.25" customHeight="1">
+    <row r="446" spans="6:15">
       <c r="F446" s="7"/>
       <c r="G446" s="7"/>
       <c r="H446" s="7"/>
@@ -8617,7 +8589,7 @@
       <c r="N446" s="9"/>
       <c r="O446" s="6"/>
     </row>
-    <row r="447" spans="6:15" ht="14.25" customHeight="1">
+    <row r="447" spans="6:15">
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
       <c r="H447" s="7"/>
@@ -8629,7 +8601,7 @@
       <c r="N447" s="9"/>
       <c r="O447" s="6"/>
     </row>
-    <row r="448" spans="6:15" ht="14.25" customHeight="1">
+    <row r="448" spans="6:15">
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
       <c r="H448" s="7"/>
@@ -8641,7 +8613,7 @@
       <c r="N448" s="9"/>
       <c r="O448" s="6"/>
     </row>
-    <row r="449" spans="6:15" ht="14.25" customHeight="1">
+    <row r="449" spans="6:15">
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
       <c r="H449" s="7"/>
@@ -8653,7 +8625,7 @@
       <c r="N449" s="9"/>
       <c r="O449" s="6"/>
     </row>
-    <row r="450" spans="6:15" ht="14.25" customHeight="1">
+    <row r="450" spans="6:15">
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
       <c r="H450" s="7"/>
@@ -8665,7 +8637,7 @@
       <c r="N450" s="9"/>
       <c r="O450" s="6"/>
     </row>
-    <row r="451" spans="6:15" ht="14.25" customHeight="1">
+    <row r="451" spans="6:15">
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
       <c r="H451" s="7"/>
@@ -8677,7 +8649,7 @@
       <c r="N451" s="9"/>
       <c r="O451" s="6"/>
     </row>
-    <row r="452" spans="6:15" ht="14.25" customHeight="1">
+    <row r="452" spans="6:15">
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
       <c r="H452" s="7"/>
@@ -8689,7 +8661,7 @@
       <c r="N452" s="9"/>
       <c r="O452" s="6"/>
     </row>
-    <row r="453" spans="6:15" ht="14.25" customHeight="1">
+    <row r="453" spans="6:15">
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
       <c r="H453" s="7"/>
@@ -8701,7 +8673,7 @@
       <c r="N453" s="9"/>
       <c r="O453" s="6"/>
     </row>
-    <row r="454" spans="6:15" ht="14.25" customHeight="1">
+    <row r="454" spans="6:15">
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
       <c r="H454" s="7"/>
@@ -8713,7 +8685,7 @@
       <c r="N454" s="9"/>
       <c r="O454" s="6"/>
     </row>
-    <row r="455" spans="6:15" ht="14.25" customHeight="1">
+    <row r="455" spans="6:15">
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
       <c r="H455" s="7"/>
@@ -8725,7 +8697,7 @@
       <c r="N455" s="9"/>
       <c r="O455" s="6"/>
     </row>
-    <row r="456" spans="6:15" ht="14.25" customHeight="1">
+    <row r="456" spans="6:15">
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
       <c r="H456" s="7"/>
@@ -8737,7 +8709,7 @@
       <c r="N456" s="9"/>
       <c r="O456" s="6"/>
     </row>
-    <row r="457" spans="6:15" ht="14.25" customHeight="1">
+    <row r="457" spans="6:15">
       <c r="F457" s="7"/>
       <c r="G457" s="7"/>
       <c r="H457" s="7"/>
@@ -8749,7 +8721,7 @@
       <c r="N457" s="9"/>
       <c r="O457" s="6"/>
     </row>
-    <row r="458" spans="6:15" ht="14.25" customHeight="1">
+    <row r="458" spans="6:15">
       <c r="F458" s="7"/>
       <c r="G458" s="7"/>
       <c r="H458" s="7"/>
@@ -8761,7 +8733,7 @@
       <c r="N458" s="9"/>
       <c r="O458" s="6"/>
     </row>
-    <row r="459" spans="6:15" ht="14.25" customHeight="1">
+    <row r="459" spans="6:15">
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
       <c r="H459" s="7"/>
@@ -8773,7 +8745,7 @@
       <c r="N459" s="9"/>
       <c r="O459" s="6"/>
     </row>
-    <row r="460" spans="6:15" ht="14.25" customHeight="1">
+    <row r="460" spans="6:15">
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
       <c r="H460" s="7"/>
@@ -8785,7 +8757,7 @@
       <c r="N460" s="9"/>
       <c r="O460" s="6"/>
     </row>
-    <row r="461" spans="6:15" ht="14.25" customHeight="1">
+    <row r="461" spans="6:15">
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
       <c r="H461" s="7"/>
@@ -8797,7 +8769,7 @@
       <c r="N461" s="9"/>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="6:15" ht="14.25" customHeight="1">
+    <row r="462" spans="6:15">
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
       <c r="H462" s="7"/>
@@ -8809,7 +8781,7 @@
       <c r="N462" s="9"/>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="6:15" ht="14.25" customHeight="1">
+    <row r="463" spans="6:15">
       <c r="F463" s="7"/>
       <c r="G463" s="7"/>
       <c r="H463" s="7"/>
@@ -8821,7 +8793,7 @@
       <c r="N463" s="9"/>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="6:15" ht="14.25" customHeight="1">
+    <row r="464" spans="6:15">
       <c r="F464" s="7"/>
       <c r="G464" s="7"/>
       <c r="H464" s="7"/>
@@ -8833,7 +8805,7 @@
       <c r="N464" s="9"/>
       <c r="O464" s="6"/>
     </row>
-    <row r="465" spans="6:15" ht="14.25" customHeight="1">
+    <row r="465" spans="6:15">
       <c r="F465" s="7"/>
       <c r="G465" s="7"/>
       <c r="H465" s="7"/>
@@ -8845,7 +8817,7 @@
       <c r="N465" s="9"/>
       <c r="O465" s="6"/>
     </row>
-    <row r="466" spans="6:15" ht="14.25" customHeight="1">
+    <row r="466" spans="6:15">
       <c r="F466" s="7"/>
       <c r="G466" s="7"/>
       <c r="H466" s="7"/>
@@ -8857,7 +8829,7 @@
       <c r="N466" s="9"/>
       <c r="O466" s="6"/>
     </row>
-    <row r="467" spans="6:15" ht="14.25" customHeight="1">
+    <row r="467" spans="6:15">
       <c r="F467" s="7"/>
       <c r="G467" s="7"/>
       <c r="H467" s="7"/>
@@ -8869,7 +8841,7 @@
       <c r="N467" s="9"/>
       <c r="O467" s="6"/>
     </row>
-    <row r="468" spans="6:15" ht="14.25" customHeight="1">
+    <row r="468" spans="6:15">
       <c r="F468" s="7"/>
       <c r="G468" s="7"/>
       <c r="H468" s="7"/>
@@ -8881,7 +8853,7 @@
       <c r="N468" s="9"/>
       <c r="O468" s="6"/>
     </row>
-    <row r="469" spans="6:15" ht="14.25" customHeight="1">
+    <row r="469" spans="6:15">
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
       <c r="H469" s="7"/>
@@ -8893,7 +8865,7 @@
       <c r="N469" s="9"/>
       <c r="O469" s="6"/>
     </row>
-    <row r="470" spans="6:15" ht="14.25" customHeight="1">
+    <row r="470" spans="6:15">
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
       <c r="H470" s="7"/>
@@ -8905,7 +8877,7 @@
       <c r="N470" s="9"/>
       <c r="O470" s="6"/>
     </row>
-    <row r="471" spans="6:15" ht="14.25" customHeight="1">
+    <row r="471" spans="6:15">
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
       <c r="H471" s="7"/>
@@ -8917,7 +8889,7 @@
       <c r="N471" s="9"/>
       <c r="O471" s="6"/>
     </row>
-    <row r="472" spans="6:15" ht="14.25" customHeight="1">
+    <row r="472" spans="6:15">
       <c r="F472" s="7"/>
       <c r="G472" s="7"/>
       <c r="H472" s="7"/>
@@ -8929,7 +8901,7 @@
       <c r="N472" s="9"/>
       <c r="O472" s="6"/>
     </row>
-    <row r="473" spans="6:15" ht="14.25" customHeight="1">
+    <row r="473" spans="6:15">
       <c r="F473" s="7"/>
       <c r="G473" s="7"/>
       <c r="H473" s="7"/>
@@ -8941,7 +8913,7 @@
       <c r="N473" s="9"/>
       <c r="O473" s="6"/>
     </row>
-    <row r="474" spans="6:15" ht="14.25" customHeight="1">
+    <row r="474" spans="6:15">
       <c r="F474" s="7"/>
       <c r="G474" s="7"/>
       <c r="H474" s="7"/>
@@ -8953,7 +8925,7 @@
       <c r="N474" s="9"/>
       <c r="O474" s="6"/>
     </row>
-    <row r="475" spans="6:15" ht="14.25" customHeight="1">
+    <row r="475" spans="6:15">
       <c r="F475" s="7"/>
       <c r="G475" s="7"/>
       <c r="H475" s="7"/>
@@ -8965,7 +8937,7 @@
       <c r="N475" s="9"/>
       <c r="O475" s="6"/>
     </row>
-    <row r="476" spans="6:15" ht="14.25" customHeight="1">
+    <row r="476" spans="6:15">
       <c r="F476" s="7"/>
       <c r="G476" s="7"/>
       <c r="H476" s="7"/>
@@ -8977,7 +8949,7 @@
       <c r="N476" s="9"/>
       <c r="O476" s="6"/>
     </row>
-    <row r="477" spans="6:15" ht="14.25" customHeight="1">
+    <row r="477" spans="6:15">
       <c r="F477" s="7"/>
       <c r="G477" s="7"/>
       <c r="H477" s="7"/>
@@ -8989,7 +8961,7 @@
       <c r="N477" s="9"/>
       <c r="O477" s="6"/>
     </row>
-    <row r="478" spans="6:15" ht="14.25" customHeight="1">
+    <row r="478" spans="6:15">
       <c r="F478" s="7"/>
       <c r="G478" s="7"/>
       <c r="H478" s="7"/>
@@ -9001,7 +8973,7 @@
       <c r="N478" s="9"/>
       <c r="O478" s="6"/>
     </row>
-    <row r="479" spans="6:15" ht="14.25" customHeight="1">
+    <row r="479" spans="6:15">
       <c r="F479" s="7"/>
       <c r="G479" s="7"/>
       <c r="H479" s="7"/>
@@ -9013,7 +8985,7 @@
       <c r="N479" s="9"/>
       <c r="O479" s="6"/>
     </row>
-    <row r="480" spans="6:15" ht="14.25" customHeight="1">
+    <row r="480" spans="6:15">
       <c r="F480" s="7"/>
       <c r="G480" s="7"/>
       <c r="H480" s="7"/>
@@ -9025,7 +8997,7 @@
       <c r="N480" s="9"/>
       <c r="O480" s="6"/>
     </row>
-    <row r="481" spans="6:15" ht="14.25" customHeight="1">
+    <row r="481" spans="6:15">
       <c r="F481" s="7"/>
       <c r="G481" s="7"/>
       <c r="H481" s="7"/>
@@ -9037,7 +9009,7 @@
       <c r="N481" s="9"/>
       <c r="O481" s="6"/>
     </row>
-    <row r="482" spans="6:15" ht="14.25" customHeight="1">
+    <row r="482" spans="6:15">
       <c r="F482" s="7"/>
       <c r="G482" s="7"/>
       <c r="H482" s="7"/>
@@ -9049,7 +9021,7 @@
       <c r="N482" s="9"/>
       <c r="O482" s="6"/>
     </row>
-    <row r="483" spans="6:15" ht="14.25" customHeight="1">
+    <row r="483" spans="6:15">
       <c r="F483" s="7"/>
       <c r="G483" s="7"/>
       <c r="H483" s="7"/>
@@ -9061,7 +9033,7 @@
       <c r="N483" s="9"/>
       <c r="O483" s="6"/>
     </row>
-    <row r="484" spans="6:15" ht="14.25" customHeight="1">
+    <row r="484" spans="6:15">
       <c r="F484" s="7"/>
       <c r="G484" s="7"/>
       <c r="H484" s="7"/>
@@ -9073,7 +9045,7 @@
       <c r="N484" s="9"/>
       <c r="O484" s="6"/>
     </row>
-    <row r="485" spans="6:15" ht="14.25" customHeight="1">
+    <row r="485" spans="6:15">
       <c r="F485" s="7"/>
       <c r="G485" s="7"/>
       <c r="H485" s="7"/>
@@ -9085,7 +9057,7 @@
       <c r="N485" s="9"/>
       <c r="O485" s="6"/>
     </row>
-    <row r="486" spans="6:15" ht="14.25" customHeight="1">
+    <row r="486" spans="6:15">
       <c r="F486" s="7"/>
       <c r="G486" s="7"/>
       <c r="H486" s="7"/>
@@ -9097,7 +9069,7 @@
       <c r="N486" s="9"/>
       <c r="O486" s="6"/>
     </row>
-    <row r="487" spans="6:15" ht="14.25" customHeight="1">
+    <row r="487" spans="6:15">
       <c r="F487" s="7"/>
       <c r="G487" s="7"/>
       <c r="H487" s="7"/>
@@ -9109,7 +9081,7 @@
       <c r="N487" s="9"/>
       <c r="O487" s="6"/>
     </row>
-    <row r="488" spans="6:15" ht="14.25" customHeight="1">
+    <row r="488" spans="6:15">
       <c r="F488" s="7"/>
       <c r="G488" s="7"/>
       <c r="H488" s="7"/>
@@ -9121,7 +9093,7 @@
       <c r="N488" s="9"/>
       <c r="O488" s="6"/>
     </row>
-    <row r="489" spans="6:15" ht="14.25" customHeight="1">
+    <row r="489" spans="6:15">
       <c r="F489" s="7"/>
       <c r="G489" s="7"/>
       <c r="H489" s="7"/>
@@ -9133,7 +9105,7 @@
       <c r="N489" s="9"/>
       <c r="O489" s="6"/>
     </row>
-    <row r="490" spans="6:15" ht="14.25" customHeight="1">
+    <row r="490" spans="6:15">
       <c r="F490" s="7"/>
       <c r="G490" s="7"/>
       <c r="H490" s="7"/>
@@ -9145,7 +9117,7 @@
       <c r="N490" s="9"/>
       <c r="O490" s="6"/>
     </row>
-    <row r="491" spans="6:15" ht="14.25" customHeight="1">
+    <row r="491" spans="6:15">
       <c r="F491" s="7"/>
       <c r="G491" s="7"/>
       <c r="H491" s="7"/>
@@ -9157,7 +9129,7 @@
       <c r="N491" s="9"/>
       <c r="O491" s="6"/>
     </row>
-    <row r="492" spans="6:15" ht="14.25" customHeight="1">
+    <row r="492" spans="6:15">
       <c r="F492" s="7"/>
       <c r="G492" s="7"/>
       <c r="H492" s="7"/>
@@ -9169,7 +9141,7 @@
       <c r="N492" s="9"/>
       <c r="O492" s="6"/>
     </row>
-    <row r="493" spans="6:15" ht="14.25" customHeight="1">
+    <row r="493" spans="6:15">
       <c r="F493" s="7"/>
       <c r="G493" s="7"/>
       <c r="H493" s="7"/>
@@ -9181,7 +9153,7 @@
       <c r="N493" s="9"/>
       <c r="O493" s="6"/>
     </row>
-    <row r="494" spans="6:15" ht="14.25" customHeight="1">
+    <row r="494" spans="6:15">
       <c r="F494" s="7"/>
       <c r="G494" s="7"/>
       <c r="H494" s="7"/>
@@ -9193,7 +9165,7 @@
       <c r="N494" s="9"/>
       <c r="O494" s="6"/>
     </row>
-    <row r="495" spans="6:15" ht="14.25" customHeight="1">
+    <row r="495" spans="6:15">
       <c r="F495" s="7"/>
       <c r="G495" s="7"/>
       <c r="H495" s="7"/>
@@ -9205,7 +9177,7 @@
       <c r="N495" s="9"/>
       <c r="O495" s="6"/>
     </row>
-    <row r="496" spans="6:15" ht="14.25" customHeight="1">
+    <row r="496" spans="6:15">
       <c r="F496" s="7"/>
       <c r="G496" s="7"/>
       <c r="H496" s="7"/>
@@ -9217,7 +9189,7 @@
       <c r="N496" s="9"/>
       <c r="O496" s="6"/>
     </row>
-    <row r="497" spans="6:15" ht="14.25" customHeight="1">
+    <row r="497" spans="6:15">
       <c r="F497" s="7"/>
       <c r="G497" s="7"/>
       <c r="H497" s="7"/>
@@ -9229,7 +9201,7 @@
       <c r="N497" s="9"/>
       <c r="O497" s="6"/>
     </row>
-    <row r="498" spans="6:15" ht="14.25" customHeight="1">
+    <row r="498" spans="6:15">
       <c r="F498" s="7"/>
       <c r="G498" s="7"/>
       <c r="H498" s="7"/>
@@ -9241,7 +9213,7 @@
       <c r="N498" s="9"/>
       <c r="O498" s="6"/>
     </row>
-    <row r="499" spans="6:15" ht="14.25" customHeight="1">
+    <row r="499" spans="6:15">
       <c r="F499" s="7"/>
       <c r="G499" s="7"/>
       <c r="H499" s="7"/>
@@ -9253,7 +9225,7 @@
       <c r="N499" s="9"/>
       <c r="O499" s="6"/>
     </row>
-    <row r="500" spans="6:15" ht="14.25" customHeight="1">
+    <row r="500" spans="6:15">
       <c r="F500" s="7"/>
       <c r="G500" s="7"/>
       <c r="H500" s="7"/>
@@ -9265,7 +9237,7 @@
       <c r="N500" s="9"/>
       <c r="O500" s="6"/>
     </row>
-    <row r="501" spans="6:15" ht="14.25" customHeight="1">
+    <row r="501" spans="6:15">
       <c r="F501" s="7"/>
       <c r="G501" s="7"/>
       <c r="H501" s="7"/>
@@ -9277,7 +9249,7 @@
       <c r="N501" s="9"/>
       <c r="O501" s="6"/>
     </row>
-    <row r="502" spans="6:15" ht="14.25" customHeight="1">
+    <row r="502" spans="6:15">
       <c r="F502" s="7"/>
       <c r="G502" s="7"/>
       <c r="H502" s="7"/>
@@ -9289,7 +9261,7 @@
       <c r="N502" s="9"/>
       <c r="O502" s="6"/>
     </row>
-    <row r="503" spans="6:15" ht="14.25" customHeight="1">
+    <row r="503" spans="6:15">
       <c r="F503" s="7"/>
       <c r="G503" s="7"/>
       <c r="H503" s="7"/>
@@ -9301,7 +9273,7 @@
       <c r="N503" s="9"/>
       <c r="O503" s="6"/>
     </row>
-    <row r="504" spans="6:15" ht="14.25" customHeight="1">
+    <row r="504" spans="6:15">
       <c r="F504" s="7"/>
       <c r="G504" s="7"/>
       <c r="H504" s="7"/>
@@ -9313,7 +9285,7 @@
       <c r="N504" s="9"/>
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="6:15" ht="14.25" customHeight="1">
+    <row r="505" spans="6:15">
       <c r="F505" s="7"/>
       <c r="G505" s="7"/>
       <c r="H505" s="7"/>
@@ -9325,7 +9297,7 @@
       <c r="N505" s="9"/>
       <c r="O505" s="6"/>
     </row>
-    <row r="506" spans="6:15" ht="14.25" customHeight="1">
+    <row r="506" spans="6:15">
       <c r="F506" s="7"/>
       <c r="G506" s="7"/>
       <c r="H506" s="7"/>
@@ -9337,7 +9309,7 @@
       <c r="N506" s="9"/>
       <c r="O506" s="6"/>
     </row>
-    <row r="507" spans="6:15" ht="14.25" customHeight="1">
+    <row r="507" spans="6:15">
       <c r="F507" s="7"/>
       <c r="G507" s="7"/>
       <c r="H507" s="7"/>
@@ -9349,7 +9321,7 @@
       <c r="N507" s="9"/>
       <c r="O507" s="6"/>
     </row>
-    <row r="508" spans="6:15" ht="14.25" customHeight="1">
+    <row r="508" spans="6:15">
       <c r="F508" s="7"/>
       <c r="G508" s="7"/>
       <c r="H508" s="7"/>
@@ -9361,7 +9333,7 @@
       <c r="N508" s="9"/>
       <c r="O508" s="6"/>
     </row>
-    <row r="509" spans="6:15" ht="14.25" customHeight="1">
+    <row r="509" spans="6:15">
       <c r="F509" s="7"/>
       <c r="G509" s="7"/>
       <c r="H509" s="7"/>
@@ -9373,7 +9345,7 @@
       <c r="N509" s="9"/>
       <c r="O509" s="6"/>
     </row>
-    <row r="510" spans="6:15" ht="14.25" customHeight="1">
+    <row r="510" spans="6:15">
       <c r="F510" s="7"/>
       <c r="G510" s="7"/>
       <c r="H510" s="7"/>
@@ -9385,7 +9357,7 @@
       <c r="N510" s="9"/>
       <c r="O510" s="6"/>
     </row>
-    <row r="511" spans="6:15" ht="14.25" customHeight="1">
+    <row r="511" spans="6:15">
       <c r="F511" s="7"/>
       <c r="G511" s="7"/>
       <c r="H511" s="7"/>
@@ -9397,7 +9369,7 @@
       <c r="N511" s="9"/>
       <c r="O511" s="6"/>
     </row>
-    <row r="512" spans="6:15" ht="14.25" customHeight="1">
+    <row r="512" spans="6:15">
       <c r="F512" s="7"/>
       <c r="G512" s="7"/>
       <c r="H512" s="7"/>
@@ -9409,7 +9381,7 @@
       <c r="N512" s="9"/>
       <c r="O512" s="6"/>
     </row>
-    <row r="513" spans="6:15" ht="14.25" customHeight="1">
+    <row r="513" spans="6:15">
       <c r="F513" s="7"/>
       <c r="G513" s="7"/>
       <c r="H513" s="7"/>
@@ -9421,7 +9393,7 @@
       <c r="N513" s="9"/>
       <c r="O513" s="6"/>
     </row>
-    <row r="514" spans="6:15" ht="14.25" customHeight="1">
+    <row r="514" spans="6:15">
       <c r="F514" s="7"/>
       <c r="G514" s="7"/>
       <c r="H514" s="7"/>
@@ -9433,7 +9405,7 @@
       <c r="N514" s="9"/>
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="6:15" ht="14.25" customHeight="1">
+    <row r="515" spans="6:15">
       <c r="F515" s="7"/>
       <c r="G515" s="7"/>
       <c r="H515" s="7"/>
@@ -9445,7 +9417,7 @@
       <c r="N515" s="9"/>
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="6:15" ht="14.25" customHeight="1">
+    <row r="516" spans="6:15">
       <c r="F516" s="7"/>
       <c r="G516" s="7"/>
       <c r="H516" s="7"/>
@@ -9457,7 +9429,7 @@
       <c r="N516" s="9"/>
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="6:15" ht="14.25" customHeight="1">
+    <row r="517" spans="6:15">
       <c r="F517" s="7"/>
       <c r="G517" s="7"/>
       <c r="H517" s="7"/>
@@ -9469,7 +9441,7 @@
       <c r="N517" s="9"/>
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="6:15" ht="14.25" customHeight="1">
+    <row r="518" spans="6:15">
       <c r="F518" s="7"/>
       <c r="G518" s="7"/>
       <c r="H518" s="7"/>
@@ -9481,7 +9453,7 @@
       <c r="N518" s="9"/>
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="6:15" ht="14.25" customHeight="1">
+    <row r="519" spans="6:15">
       <c r="F519" s="7"/>
       <c r="G519" s="7"/>
       <c r="H519" s="7"/>
@@ -9493,7 +9465,7 @@
       <c r="N519" s="9"/>
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="6:15" ht="14.25" customHeight="1">
+    <row r="520" spans="6:15">
       <c r="F520" s="7"/>
       <c r="G520" s="7"/>
       <c r="H520" s="7"/>
@@ -9505,7 +9477,7 @@
       <c r="N520" s="9"/>
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="6:15" ht="14.25" customHeight="1">
+    <row r="521" spans="6:15">
       <c r="F521" s="7"/>
       <c r="G521" s="7"/>
       <c r="H521" s="7"/>
@@ -9517,7 +9489,7 @@
       <c r="N521" s="9"/>
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="6:15" ht="14.25" customHeight="1">
+    <row r="522" spans="6:15">
       <c r="F522" s="7"/>
       <c r="G522" s="7"/>
       <c r="H522" s="7"/>
@@ -9529,7 +9501,7 @@
       <c r="N522" s="9"/>
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="6:15" ht="14.25" customHeight="1">
+    <row r="523" spans="6:15">
       <c r="F523" s="7"/>
       <c r="G523" s="7"/>
       <c r="H523" s="7"/>
@@ -9541,7 +9513,7 @@
       <c r="N523" s="9"/>
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="6:15" ht="14.25" customHeight="1">
+    <row r="524" spans="6:15">
       <c r="F524" s="7"/>
       <c r="G524" s="7"/>
       <c r="H524" s="7"/>
@@ -9553,7 +9525,7 @@
       <c r="N524" s="9"/>
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="6:15" ht="14.25" customHeight="1">
+    <row r="525" spans="6:15">
       <c r="F525" s="7"/>
       <c r="G525" s="7"/>
       <c r="H525" s="7"/>
@@ -9565,7 +9537,7 @@
       <c r="N525" s="9"/>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="6:15" ht="14.25" customHeight="1">
+    <row r="526" spans="6:15">
       <c r="F526" s="7"/>
       <c r="G526" s="7"/>
       <c r="H526" s="7"/>
@@ -9577,7 +9549,7 @@
       <c r="N526" s="9"/>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="6:15" ht="14.25" customHeight="1">
+    <row r="527" spans="6:15">
       <c r="F527" s="7"/>
       <c r="G527" s="7"/>
       <c r="H527" s="7"/>
@@ -9589,7 +9561,7 @@
       <c r="N527" s="9"/>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="6:15" ht="14.25" customHeight="1">
+    <row r="528" spans="6:15">
       <c r="F528" s="7"/>
       <c r="G528" s="7"/>
       <c r="H528" s="7"/>
@@ -9601,7 +9573,7 @@
       <c r="N528" s="9"/>
       <c r="O528" s="6"/>
     </row>
-    <row r="529" spans="6:15" ht="14.25" customHeight="1">
+    <row r="529" spans="6:15">
       <c r="F529" s="7"/>
       <c r="G529" s="7"/>
       <c r="H529" s="7"/>
@@ -9613,7 +9585,7 @@
       <c r="N529" s="9"/>
       <c r="O529" s="6"/>
     </row>
-    <row r="530" spans="6:15" ht="14.25" customHeight="1">
+    <row r="530" spans="6:15">
       <c r="F530" s="7"/>
       <c r="G530" s="7"/>
       <c r="H530" s="7"/>
@@ -9625,7 +9597,7 @@
       <c r="N530" s="9"/>
       <c r="O530" s="6"/>
     </row>
-    <row r="531" spans="6:15" ht="14.25" customHeight="1">
+    <row r="531" spans="6:15">
       <c r="F531" s="7"/>
       <c r="G531" s="7"/>
       <c r="H531" s="7"/>
@@ -9637,7 +9609,7 @@
       <c r="N531" s="9"/>
       <c r="O531" s="6"/>
     </row>
-    <row r="532" spans="6:15" ht="14.25" customHeight="1">
+    <row r="532" spans="6:15">
       <c r="F532" s="7"/>
       <c r="G532" s="7"/>
       <c r="H532" s="7"/>
@@ -9649,7 +9621,7 @@
       <c r="N532" s="9"/>
       <c r="O532" s="6"/>
     </row>
-    <row r="533" spans="6:15" ht="14.25" customHeight="1">
+    <row r="533" spans="6:15">
       <c r="F533" s="7"/>
       <c r="G533" s="7"/>
       <c r="H533" s="7"/>
@@ -9661,7 +9633,7 @@
       <c r="N533" s="9"/>
       <c r="O533" s="6"/>
     </row>
-    <row r="534" spans="6:15" ht="14.25" customHeight="1">
+    <row r="534" spans="6:15">
       <c r="F534" s="7"/>
       <c r="G534" s="7"/>
       <c r="H534" s="7"/>
@@ -9673,7 +9645,7 @@
       <c r="N534" s="9"/>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="6:15" ht="14.25" customHeight="1">
+    <row r="535" spans="6:15">
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
       <c r="H535" s="7"/>
@@ -9685,7 +9657,7 @@
       <c r="N535" s="9"/>
       <c r="O535" s="6"/>
     </row>
-    <row r="536" spans="6:15" ht="14.25" customHeight="1">
+    <row r="536" spans="6:15">
       <c r="F536" s="7"/>
       <c r="G536" s="7"/>
       <c r="H536" s="7"/>
@@ -9697,7 +9669,7 @@
       <c r="N536" s="9"/>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="6:15" ht="14.25" customHeight="1">
+    <row r="537" spans="6:15">
       <c r="F537" s="7"/>
       <c r="G537" s="7"/>
       <c r="H537" s="7"/>
@@ -9709,7 +9681,7 @@
       <c r="N537" s="9"/>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="6:15" ht="14.25" customHeight="1">
+    <row r="538" spans="6:15">
       <c r="F538" s="7"/>
       <c r="G538" s="7"/>
       <c r="H538" s="7"/>
@@ -9721,7 +9693,7 @@
       <c r="N538" s="9"/>
       <c r="O538" s="6"/>
     </row>
-    <row r="539" spans="6:15" ht="14.25" customHeight="1">
+    <row r="539" spans="6:15">
       <c r="F539" s="7"/>
       <c r="G539" s="7"/>
       <c r="H539" s="7"/>
@@ -9733,7 +9705,7 @@
       <c r="N539" s="9"/>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="6:15" ht="14.25" customHeight="1">
+    <row r="540" spans="6:15">
       <c r="F540" s="7"/>
       <c r="G540" s="7"/>
       <c r="H540" s="7"/>
@@ -9745,7 +9717,7 @@
       <c r="N540" s="9"/>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="6:15" ht="14.25" customHeight="1">
+    <row r="541" spans="6:15">
       <c r="F541" s="7"/>
       <c r="G541" s="7"/>
       <c r="H541" s="7"/>
@@ -9757,7 +9729,7 @@
       <c r="N541" s="9"/>
       <c r="O541" s="6"/>
     </row>
-    <row r="542" spans="6:15" ht="14.25" customHeight="1">
+    <row r="542" spans="6:15">
       <c r="F542" s="7"/>
       <c r="G542" s="7"/>
       <c r="H542" s="7"/>
@@ -9769,7 +9741,7 @@
       <c r="N542" s="9"/>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="6:15" ht="14.25" customHeight="1">
+    <row r="543" spans="6:15">
       <c r="F543" s="7"/>
       <c r="G543" s="7"/>
       <c r="H543" s="7"/>
@@ -9781,7 +9753,7 @@
       <c r="N543" s="9"/>
       <c r="O543" s="6"/>
     </row>
-    <row r="544" spans="6:15" ht="14.25" customHeight="1">
+    <row r="544" spans="6:15">
       <c r="F544" s="7"/>
       <c r="G544" s="7"/>
       <c r="H544" s="7"/>
@@ -9793,7 +9765,7 @@
       <c r="N544" s="9"/>
       <c r="O544" s="6"/>
     </row>
-    <row r="545" spans="6:15" ht="14.25" customHeight="1">
+    <row r="545" spans="6:15">
       <c r="F545" s="7"/>
       <c r="G545" s="7"/>
       <c r="H545" s="7"/>
@@ -9805,7 +9777,7 @@
       <c r="N545" s="9"/>
       <c r="O545" s="6"/>
     </row>
-    <row r="546" spans="6:15" ht="14.25" customHeight="1">
+    <row r="546" spans="6:15">
       <c r="F546" s="7"/>
       <c r="G546" s="7"/>
       <c r="H546" s="7"/>
@@ -9817,7 +9789,7 @@
       <c r="N546" s="9"/>
       <c r="O546" s="6"/>
     </row>
-    <row r="547" spans="6:15" ht="14.25" customHeight="1">
+    <row r="547" spans="6:15">
       <c r="F547" s="7"/>
       <c r="G547" s="7"/>
       <c r="H547" s="7"/>
@@ -9829,7 +9801,7 @@
       <c r="N547" s="9"/>
       <c r="O547" s="6"/>
     </row>
-    <row r="548" spans="6:15" ht="14.25" customHeight="1">
+    <row r="548" spans="6:15">
       <c r="F548" s="7"/>
       <c r="G548" s="7"/>
       <c r="H548" s="7"/>
@@ -9841,7 +9813,7 @@
       <c r="N548" s="9"/>
       <c r="O548" s="6"/>
     </row>
-    <row r="549" spans="6:15" ht="14.25" customHeight="1">
+    <row r="549" spans="6:15">
       <c r="F549" s="7"/>
       <c r="G549" s="7"/>
       <c r="H549" s="7"/>
@@ -9853,7 +9825,7 @@
       <c r="N549" s="9"/>
       <c r="O549" s="6"/>
     </row>
-    <row r="550" spans="6:15" ht="14.25" customHeight="1">
+    <row r="550" spans="6:15">
       <c r="F550" s="7"/>
       <c r="G550" s="7"/>
       <c r="H550" s="7"/>
@@ -9865,7 +9837,7 @@
       <c r="N550" s="9"/>
       <c r="O550" s="6"/>
     </row>
-    <row r="551" spans="6:15" ht="14.25" customHeight="1">
+    <row r="551" spans="6:15">
       <c r="F551" s="7"/>
       <c r="G551" s="7"/>
       <c r="H551" s="7"/>
@@ -9877,7 +9849,7 @@
       <c r="N551" s="9"/>
       <c r="O551" s="6"/>
     </row>
-    <row r="552" spans="6:15" ht="14.25" customHeight="1">
+    <row r="552" spans="6:15">
       <c r="F552" s="7"/>
       <c r="G552" s="7"/>
       <c r="H552" s="7"/>
@@ -9889,7 +9861,7 @@
       <c r="N552" s="9"/>
       <c r="O552" s="6"/>
     </row>
-    <row r="553" spans="6:15" ht="14.25" customHeight="1">
+    <row r="553" spans="6:15">
       <c r="F553" s="7"/>
       <c r="G553" s="7"/>
       <c r="H553" s="7"/>
@@ -9901,7 +9873,7 @@
       <c r="N553" s="9"/>
       <c r="O553" s="6"/>
     </row>
-    <row r="554" spans="6:15" ht="14.25" customHeight="1">
+    <row r="554" spans="6:15">
       <c r="F554" s="7"/>
       <c r="G554" s="7"/>
       <c r="H554" s="7"/>
@@ -9913,7 +9885,7 @@
       <c r="N554" s="9"/>
       <c r="O554" s="6"/>
     </row>
-    <row r="555" spans="6:15" ht="14.25" customHeight="1">
+    <row r="555" spans="6:15">
       <c r="F555" s="7"/>
       <c r="G555" s="7"/>
       <c r="H555" s="7"/>
@@ -9925,7 +9897,7 @@
       <c r="N555" s="9"/>
       <c r="O555" s="6"/>
     </row>
-    <row r="556" spans="6:15" ht="14.25" customHeight="1">
+    <row r="556" spans="6:15">
       <c r="F556" s="7"/>
       <c r="G556" s="7"/>
       <c r="H556" s="7"/>
@@ -9937,7 +9909,7 @@
       <c r="N556" s="9"/>
       <c r="O556" s="6"/>
     </row>
-    <row r="557" spans="6:15" ht="14.25" customHeight="1">
+    <row r="557" spans="6:15">
       <c r="F557" s="7"/>
       <c r="G557" s="7"/>
       <c r="H557" s="7"/>
@@ -9949,7 +9921,7 @@
       <c r="N557" s="9"/>
       <c r="O557" s="6"/>
     </row>
-    <row r="558" spans="6:15" ht="14.25" customHeight="1">
+    <row r="558" spans="6:15">
       <c r="F558" s="7"/>
       <c r="G558" s="7"/>
       <c r="H558" s="7"/>
@@ -9961,7 +9933,7 @@
       <c r="N558" s="9"/>
       <c r="O558" s="6"/>
     </row>
-    <row r="559" spans="6:15" ht="14.25" customHeight="1">
+    <row r="559" spans="6:15">
       <c r="F559" s="7"/>
       <c r="G559" s="7"/>
       <c r="H559" s="7"/>
@@ -9973,7 +9945,7 @@
       <c r="N559" s="9"/>
       <c r="O559" s="6"/>
     </row>
-    <row r="560" spans="6:15" ht="14.25" customHeight="1">
+    <row r="560" spans="6:15">
       <c r="F560" s="7"/>
       <c r="G560" s="7"/>
       <c r="H560" s="7"/>
@@ -9985,7 +9957,7 @@
       <c r="N560" s="9"/>
       <c r="O560" s="6"/>
     </row>
-    <row r="561" spans="6:15" ht="14.25" customHeight="1">
+    <row r="561" spans="6:15">
       <c r="F561" s="7"/>
       <c r="G561" s="7"/>
       <c r="H561" s="7"/>
@@ -9997,7 +9969,7 @@
       <c r="N561" s="9"/>
       <c r="O561" s="6"/>
     </row>
-    <row r="562" spans="6:15" ht="14.25" customHeight="1">
+    <row r="562" spans="6:15">
       <c r="F562" s="7"/>
       <c r="G562" s="7"/>
       <c r="H562" s="7"/>
@@ -10009,7 +9981,7 @@
       <c r="N562" s="9"/>
       <c r="O562" s="6"/>
     </row>
-    <row r="563" spans="6:15" ht="14.25" customHeight="1">
+    <row r="563" spans="6:15">
       <c r="F563" s="7"/>
       <c r="G563" s="7"/>
       <c r="H563" s="7"/>
@@ -10021,7 +9993,7 @@
       <c r="N563" s="9"/>
       <c r="O563" s="6"/>
     </row>
-    <row r="564" spans="6:15" ht="14.25" customHeight="1">
+    <row r="564" spans="6:15">
       <c r="F564" s="7"/>
       <c r="G564" s="7"/>
       <c r="H564" s="7"/>
@@ -10033,7 +10005,7 @@
       <c r="N564" s="9"/>
       <c r="O564" s="6"/>
     </row>
-    <row r="565" spans="6:15" ht="14.25" customHeight="1">
+    <row r="565" spans="6:15">
       <c r="F565" s="7"/>
       <c r="G565" s="7"/>
       <c r="H565" s="7"/>
@@ -10045,7 +10017,7 @@
       <c r="N565" s="9"/>
       <c r="O565" s="6"/>
     </row>
-    <row r="566" spans="6:15" ht="14.25" customHeight="1">
+    <row r="566" spans="6:15">
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
       <c r="H566" s="7"/>
@@ -10057,7 +10029,7 @@
       <c r="N566" s="9"/>
       <c r="O566" s="6"/>
     </row>
-    <row r="567" spans="6:15" ht="14.25" customHeight="1">
+    <row r="567" spans="6:15">
       <c r="F567" s="7"/>
       <c r="G567" s="7"/>
       <c r="H567" s="7"/>
@@ -10069,7 +10041,7 @@
       <c r="N567" s="9"/>
       <c r="O567" s="6"/>
     </row>
-    <row r="568" spans="6:15" ht="14.25" customHeight="1">
+    <row r="568" spans="6:15">
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
       <c r="H568" s="7"/>
@@ -10081,7 +10053,7 @@
       <c r="N568" s="9"/>
       <c r="O568" s="6"/>
     </row>
-    <row r="569" spans="6:15" ht="14.25" customHeight="1">
+    <row r="569" spans="6:15">
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
       <c r="H569" s="7"/>
@@ -10093,7 +10065,7 @@
       <c r="N569" s="9"/>
       <c r="O569" s="6"/>
     </row>
-    <row r="570" spans="6:15" ht="14.25" customHeight="1">
+    <row r="570" spans="6:15">
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
       <c r="H570" s="7"/>
@@ -10105,7 +10077,7 @@
       <c r="N570" s="9"/>
       <c r="O570" s="6"/>
     </row>
-    <row r="571" spans="6:15" ht="14.25" customHeight="1">
+    <row r="571" spans="6:15">
       <c r="F571" s="7"/>
       <c r="G571" s="7"/>
       <c r="H571" s="7"/>
@@ -10117,7 +10089,7 @@
       <c r="N571" s="9"/>
       <c r="O571" s="6"/>
     </row>
-    <row r="572" spans="6:15" ht="14.25" customHeight="1">
+    <row r="572" spans="6:15">
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
       <c r="H572" s="7"/>
@@ -10129,7 +10101,7 @@
       <c r="N572" s="9"/>
       <c r="O572" s="6"/>
     </row>
-    <row r="573" spans="6:15" ht="14.25" customHeight="1">
+    <row r="573" spans="6:15">
       <c r="F573" s="7"/>
       <c r="G573" s="7"/>
       <c r="H573" s="7"/>
@@ -10141,7 +10113,7 @@
       <c r="N573" s="9"/>
       <c r="O573" s="6"/>
     </row>
-    <row r="574" spans="6:15" ht="14.25" customHeight="1">
+    <row r="574" spans="6:15">
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
       <c r="H574" s="7"/>
@@ -10153,7 +10125,7 @@
       <c r="N574" s="9"/>
       <c r="O574" s="6"/>
     </row>
-    <row r="575" spans="6:15" ht="14.25" customHeight="1">
+    <row r="575" spans="6:15">
       <c r="F575" s="7"/>
       <c r="G575" s="7"/>
       <c r="H575" s="7"/>
@@ -10165,7 +10137,7 @@
       <c r="N575" s="9"/>
       <c r="O575" s="6"/>
     </row>
-    <row r="576" spans="6:15" ht="14.25" customHeight="1">
+    <row r="576" spans="6:15">
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
       <c r="H576" s="7"/>
@@ -10177,7 +10149,7 @@
       <c r="N576" s="9"/>
       <c r="O576" s="6"/>
     </row>
-    <row r="577" spans="6:15" ht="14.25" customHeight="1">
+    <row r="577" spans="6:15">
       <c r="F577" s="7"/>
       <c r="G577" s="7"/>
       <c r="H577" s="7"/>
@@ -10189,7 +10161,7 @@
       <c r="N577" s="9"/>
       <c r="O577" s="6"/>
     </row>
-    <row r="578" spans="6:15" ht="14.25" customHeight="1">
+    <row r="578" spans="6:15">
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
       <c r="H578" s="7"/>
@@ -10201,7 +10173,7 @@
       <c r="N578" s="9"/>
       <c r="O578" s="6"/>
     </row>
-    <row r="579" spans="6:15" ht="14.25" customHeight="1">
+    <row r="579" spans="6:15">
       <c r="F579" s="7"/>
       <c r="G579" s="7"/>
       <c r="H579" s="7"/>
@@ -10213,7 +10185,7 @@
       <c r="N579" s="9"/>
       <c r="O579" s="6"/>
     </row>
-    <row r="580" spans="6:15" ht="14.25" customHeight="1">
+    <row r="580" spans="6:15">
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
       <c r="H580" s="7"/>
@@ -10225,7 +10197,7 @@
       <c r="N580" s="9"/>
       <c r="O580" s="6"/>
     </row>
-    <row r="581" spans="6:15" ht="14.25" customHeight="1">
+    <row r="581" spans="6:15">
       <c r="F581" s="7"/>
       <c r="G581" s="7"/>
       <c r="H581" s="7"/>
@@ -10237,7 +10209,7 @@
       <c r="N581" s="9"/>
       <c r="O581" s="6"/>
     </row>
-    <row r="582" spans="6:15" ht="14.25" customHeight="1">
+    <row r="582" spans="6:15">
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
       <c r="H582" s="7"/>
@@ -10249,7 +10221,7 @@
       <c r="N582" s="9"/>
       <c r="O582" s="6"/>
     </row>
-    <row r="583" spans="6:15" ht="14.25" customHeight="1">
+    <row r="583" spans="6:15">
       <c r="F583" s="7"/>
       <c r="G583" s="7"/>
       <c r="H583" s="7"/>
@@ -10261,7 +10233,7 @@
       <c r="N583" s="9"/>
       <c r="O583" s="6"/>
     </row>
-    <row r="584" spans="6:15" ht="14.25" customHeight="1">
+    <row r="584" spans="6:15">
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
       <c r="H584" s="7"/>
@@ -10273,7 +10245,7 @@
       <c r="N584" s="9"/>
       <c r="O584" s="6"/>
     </row>
-    <row r="585" spans="6:15" ht="14.25" customHeight="1">
+    <row r="585" spans="6:15">
       <c r="F585" s="7"/>
       <c r="G585" s="7"/>
       <c r="H585" s="7"/>
@@ -10285,7 +10257,7 @@
       <c r="N585" s="9"/>
       <c r="O585" s="6"/>
     </row>
-    <row r="586" spans="6:15" ht="14.25" customHeight="1">
+    <row r="586" spans="6:15">
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
       <c r="H586" s="7"/>
@@ -10297,7 +10269,7 @@
       <c r="N586" s="9"/>
       <c r="O586" s="6"/>
     </row>
-    <row r="587" spans="6:15" ht="14.25" customHeight="1">
+    <row r="587" spans="6:15">
       <c r="F587" s="7"/>
       <c r="G587" s="7"/>
       <c r="H587" s="7"/>
@@ -10309,7 +10281,7 @@
       <c r="N587" s="9"/>
       <c r="O587" s="6"/>
     </row>
-    <row r="588" spans="6:15" ht="14.25" customHeight="1">
+    <row r="588" spans="6:15">
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
       <c r="H588" s="7"/>
@@ -10321,7 +10293,7 @@
       <c r="N588" s="9"/>
       <c r="O588" s="6"/>
     </row>
-    <row r="589" spans="6:15" ht="14.25" customHeight="1">
+    <row r="589" spans="6:15">
       <c r="F589" s="7"/>
       <c r="G589" s="7"/>
       <c r="H589" s="7"/>
@@ -10333,7 +10305,7 @@
       <c r="N589" s="9"/>
       <c r="O589" s="6"/>
     </row>
-    <row r="590" spans="6:15" ht="14.25" customHeight="1">
+    <row r="590" spans="6:15">
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
       <c r="H590" s="7"/>
@@ -10345,7 +10317,7 @@
       <c r="N590" s="9"/>
       <c r="O590" s="6"/>
     </row>
-    <row r="591" spans="6:15" ht="14.25" customHeight="1">
+    <row r="591" spans="6:15">
       <c r="F591" s="7"/>
       <c r="G591" s="7"/>
       <c r="H591" s="7"/>
@@ -10357,7 +10329,7 @@
       <c r="N591" s="9"/>
       <c r="O591" s="6"/>
     </row>
-    <row r="592" spans="6:15" ht="14.25" customHeight="1">
+    <row r="592" spans="6:15">
       <c r="F592" s="7"/>
       <c r="G592" s="7"/>
       <c r="H592" s="7"/>
@@ -10369,7 +10341,7 @@
       <c r="N592" s="9"/>
       <c r="O592" s="6"/>
     </row>
-    <row r="593" spans="6:15" ht="14.25" customHeight="1">
+    <row r="593" spans="6:15">
       <c r="F593" s="7"/>
       <c r="G593" s="7"/>
       <c r="H593" s="7"/>
@@ -10381,7 +10353,7 @@
       <c r="N593" s="9"/>
       <c r="O593" s="6"/>
     </row>
-    <row r="594" spans="6:15" ht="14.25" customHeight="1">
+    <row r="594" spans="6:15">
       <c r="F594" s="7"/>
       <c r="G594" s="7"/>
       <c r="H594" s="7"/>
@@ -10393,7 +10365,7 @@
       <c r="N594" s="9"/>
       <c r="O594" s="6"/>
     </row>
-    <row r="595" spans="6:15" ht="14.25" customHeight="1">
+    <row r="595" spans="6:15">
       <c r="F595" s="7"/>
       <c r="G595" s="7"/>
       <c r="H595" s="7"/>
@@ -10405,7 +10377,7 @@
       <c r="N595" s="9"/>
       <c r="O595" s="6"/>
     </row>
-    <row r="596" spans="6:15" ht="14.25" customHeight="1">
+    <row r="596" spans="6:15">
       <c r="F596" s="7"/>
       <c r="G596" s="7"/>
       <c r="H596" s="7"/>
@@ -10417,7 +10389,7 @@
       <c r="N596" s="9"/>
       <c r="O596" s="6"/>
     </row>
-    <row r="597" spans="6:15" ht="14.25" customHeight="1">
+    <row r="597" spans="6:15">
       <c r="F597" s="7"/>
       <c r="G597" s="7"/>
       <c r="H597" s="7"/>
@@ -10429,7 +10401,7 @@
       <c r="N597" s="9"/>
       <c r="O597" s="6"/>
     </row>
-    <row r="598" spans="6:15" ht="14.25" customHeight="1">
+    <row r="598" spans="6:15">
       <c r="F598" s="7"/>
       <c r="G598" s="7"/>
       <c r="H598" s="7"/>
@@ -10441,7 +10413,7 @@
       <c r="N598" s="9"/>
       <c r="O598" s="6"/>
     </row>
-    <row r="599" spans="6:15" ht="14.25" customHeight="1">
+    <row r="599" spans="6:15">
       <c r="F599" s="7"/>
       <c r="G599" s="7"/>
       <c r="H599" s="7"/>
@@ -10453,7 +10425,7 @@
       <c r="N599" s="9"/>
       <c r="O599" s="6"/>
     </row>
-    <row r="600" spans="6:15" ht="14.25" customHeight="1">
+    <row r="600" spans="6:15">
       <c r="F600" s="7"/>
       <c r="G600" s="7"/>
       <c r="H600" s="7"/>
@@ -10465,7 +10437,7 @@
       <c r="N600" s="9"/>
       <c r="O600" s="6"/>
     </row>
-    <row r="601" spans="6:15" ht="14.25" customHeight="1">
+    <row r="601" spans="6:15">
       <c r="F601" s="7"/>
       <c r="G601" s="7"/>
       <c r="H601" s="7"/>
@@ -10477,7 +10449,7 @@
       <c r="N601" s="9"/>
       <c r="O601" s="6"/>
     </row>
-    <row r="602" spans="6:15" ht="14.25" customHeight="1">
+    <row r="602" spans="6:15">
       <c r="F602" s="7"/>
       <c r="G602" s="7"/>
       <c r="H602" s="7"/>
@@ -10489,7 +10461,7 @@
       <c r="N602" s="9"/>
       <c r="O602" s="6"/>
     </row>
-    <row r="603" spans="6:15" ht="14.25" customHeight="1">
+    <row r="603" spans="6:15">
       <c r="F603" s="7"/>
       <c r="G603" s="7"/>
       <c r="H603" s="7"/>
@@ -10501,7 +10473,7 @@
       <c r="N603" s="9"/>
       <c r="O603" s="6"/>
     </row>
-    <row r="604" spans="6:15" ht="14.25" customHeight="1">
+    <row r="604" spans="6:15">
       <c r="F604" s="7"/>
       <c r="G604" s="7"/>
       <c r="H604" s="7"/>
@@ -10513,7 +10485,7 @@
       <c r="N604" s="9"/>
       <c r="O604" s="6"/>
     </row>
-    <row r="605" spans="6:15" ht="14.25" customHeight="1">
+    <row r="605" spans="6:15">
       <c r="F605" s="7"/>
       <c r="G605" s="7"/>
       <c r="H605" s="7"/>
@@ -10525,7 +10497,7 @@
       <c r="N605" s="9"/>
       <c r="O605" s="6"/>
     </row>
-    <row r="606" spans="6:15" ht="14.25" customHeight="1">
+    <row r="606" spans="6:15">
       <c r="F606" s="7"/>
       <c r="G606" s="7"/>
       <c r="H606" s="7"/>
@@ -10537,7 +10509,7 @@
       <c r="N606" s="9"/>
       <c r="O606" s="6"/>
     </row>
-    <row r="607" spans="6:15" ht="14.25" customHeight="1">
+    <row r="607" spans="6:15">
       <c r="F607" s="7"/>
       <c r="G607" s="7"/>
       <c r="H607" s="7"/>
@@ -10549,7 +10521,7 @@
       <c r="N607" s="9"/>
       <c r="O607" s="6"/>
     </row>
-    <row r="608" spans="6:15" ht="14.25" customHeight="1">
+    <row r="608" spans="6:15">
       <c r="F608" s="7"/>
       <c r="G608" s="7"/>
       <c r="H608" s="7"/>
@@ -10561,7 +10533,7 @@
       <c r="N608" s="9"/>
       <c r="O608" s="6"/>
     </row>
-    <row r="609" spans="6:15" ht="14.25" customHeight="1">
+    <row r="609" spans="6:15">
       <c r="F609" s="7"/>
       <c r="G609" s="7"/>
       <c r="H609" s="7"/>
@@ -10573,7 +10545,7 @@
       <c r="N609" s="9"/>
       <c r="O609" s="6"/>
     </row>
-    <row r="610" spans="6:15" ht="14.25" customHeight="1">
+    <row r="610" spans="6:15">
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
       <c r="H610" s="7"/>
@@ -10585,7 +10557,7 @@
       <c r="N610" s="9"/>
       <c r="O610" s="6"/>
     </row>
-    <row r="611" spans="6:15" ht="14.25" customHeight="1">
+    <row r="611" spans="6:15">
       <c r="F611" s="7"/>
       <c r="G611" s="7"/>
       <c r="H611" s="7"/>
@@ -10597,7 +10569,7 @@
       <c r="N611" s="9"/>
       <c r="O611" s="6"/>
     </row>
-    <row r="612" spans="6:15" ht="14.25" customHeight="1">
+    <row r="612" spans="6:15">
       <c r="F612" s="7"/>
       <c r="G612" s="7"/>
       <c r="H612" s="7"/>
@@ -10609,7 +10581,7 @@
       <c r="N612" s="9"/>
       <c r="O612" s="6"/>
     </row>
-    <row r="613" spans="6:15" ht="14.25" customHeight="1">
+    <row r="613" spans="6:15">
       <c r="F613" s="7"/>
       <c r="G613" s="7"/>
       <c r="H613" s="7"/>
@@ -10621,7 +10593,7 @@
       <c r="N613" s="9"/>
       <c r="O613" s="6"/>
     </row>
-    <row r="614" spans="6:15" ht="14.25" customHeight="1">
+    <row r="614" spans="6:15">
       <c r="F614" s="7"/>
       <c r="G614" s="7"/>
       <c r="H614" s="7"/>
@@ -10633,7 +10605,7 @@
       <c r="N614" s="9"/>
       <c r="O614" s="6"/>
     </row>
-    <row r="615" spans="6:15" ht="14.25" customHeight="1">
+    <row r="615" spans="6:15">
       <c r="F615" s="7"/>
       <c r="G615" s="7"/>
       <c r="H615" s="7"/>
@@ -10645,7 +10617,7 @@
       <c r="N615" s="9"/>
       <c r="O615" s="6"/>
     </row>
-    <row r="616" spans="6:15" ht="14.25" customHeight="1">
+    <row r="616" spans="6:15">
       <c r="F616" s="7"/>
       <c r="G616" s="7"/>
       <c r="H616" s="7"/>
@@ -10657,7 +10629,7 @@
       <c r="N616" s="9"/>
       <c r="O616" s="6"/>
     </row>
-    <row r="617" spans="6:15" ht="14.25" customHeight="1">
+    <row r="617" spans="6:15">
       <c r="F617" s="7"/>
       <c r="G617" s="7"/>
       <c r="H617" s="7"/>
@@ -10669,7 +10641,7 @@
       <c r="N617" s="9"/>
       <c r="O617" s="6"/>
     </row>
-    <row r="618" spans="6:15" ht="14.25" customHeight="1">
+    <row r="618" spans="6:15">
       <c r="F618" s="7"/>
       <c r="G618" s="7"/>
       <c r="H618" s="7"/>
@@ -10681,7 +10653,7 @@
       <c r="N618" s="9"/>
       <c r="O618" s="6"/>
     </row>
-    <row r="619" spans="6:15" ht="14.25" customHeight="1">
+    <row r="619" spans="6:15">
       <c r="F619" s="7"/>
       <c r="G619" s="7"/>
       <c r="H619" s="7"/>
@@ -10693,7 +10665,7 @@
       <c r="N619" s="9"/>
       <c r="O619" s="6"/>
     </row>
-    <row r="620" spans="6:15" ht="14.25" customHeight="1">
+    <row r="620" spans="6:15">
       <c r="F620" s="7"/>
       <c r="G620" s="7"/>
       <c r="H620" s="7"/>
@@ -10705,7 +10677,7 @@
       <c r="N620" s="9"/>
       <c r="O620" s="6"/>
     </row>
-    <row r="621" spans="6:15" ht="14.25" customHeight="1">
+    <row r="621" spans="6:15">
       <c r="F621" s="7"/>
       <c r="G621" s="7"/>
       <c r="H621" s="7"/>
@@ -10717,7 +10689,7 @@
       <c r="N621" s="9"/>
       <c r="O621" s="6"/>
     </row>
-    <row r="622" spans="6:15" ht="14.25" customHeight="1">
+    <row r="622" spans="6:15">
       <c r="F622" s="7"/>
       <c r="G622" s="7"/>
       <c r="H622" s="7"/>
@@ -10729,7 +10701,7 @@
       <c r="N622" s="9"/>
       <c r="O622" s="6"/>
     </row>
-    <row r="623" spans="6:15" ht="14.25" customHeight="1">
+    <row r="623" spans="6:15">
       <c r="F623" s="7"/>
       <c r="G623" s="7"/>
       <c r="H623" s="7"/>
@@ -10741,7 +10713,7 @@
       <c r="N623" s="9"/>
       <c r="O623" s="6"/>
     </row>
-    <row r="624" spans="6:15" ht="14.25" customHeight="1">
+    <row r="624" spans="6:15">
       <c r="F624" s="7"/>
       <c r="G624" s="7"/>
       <c r="H624" s="7"/>
@@ -10753,7 +10725,7 @@
       <c r="N624" s="9"/>
       <c r="O624" s="6"/>
     </row>
-    <row r="625" spans="6:15" ht="14.25" customHeight="1">
+    <row r="625" spans="6:15">
       <c r="F625" s="7"/>
       <c r="G625" s="7"/>
       <c r="H625" s="7"/>
@@ -10765,7 +10737,7 @@
       <c r="N625" s="9"/>
       <c r="O625" s="6"/>
     </row>
-    <row r="626" spans="6:15" ht="14.25" customHeight="1">
+    <row r="626" spans="6:15">
       <c r="F626" s="7"/>
       <c r="G626" s="7"/>
       <c r="H626" s="7"/>
@@ -10777,7 +10749,7 @@
       <c r="N626" s="9"/>
       <c r="O626" s="6"/>
     </row>
-    <row r="627" spans="6:15" ht="14.25" customHeight="1">
+    <row r="627" spans="6:15">
       <c r="F627" s="7"/>
       <c r="G627" s="7"/>
       <c r="H627" s="7"/>
@@ -10789,7 +10761,7 @@
       <c r="N627" s="9"/>
       <c r="O627" s="6"/>
     </row>
-    <row r="628" spans="6:15" ht="14.25" customHeight="1">
+    <row r="628" spans="6:15">
       <c r="F628" s="7"/>
       <c r="G628" s="7"/>
       <c r="H628" s="7"/>
@@ -10801,7 +10773,7 @@
       <c r="N628" s="9"/>
       <c r="O628" s="6"/>
     </row>
-    <row r="629" spans="6:15" ht="14.25" customHeight="1">
+    <row r="629" spans="6:15">
       <c r="F629" s="7"/>
       <c r="G629" s="7"/>
       <c r="H629" s="7"/>
@@ -10813,7 +10785,7 @@
       <c r="N629" s="9"/>
       <c r="O629" s="6"/>
     </row>
-    <row r="630" spans="6:15" ht="14.25" customHeight="1">
+    <row r="630" spans="6:15">
       <c r="F630" s="7"/>
       <c r="G630" s="7"/>
       <c r="H630" s="7"/>
@@ -10825,7 +10797,7 @@
       <c r="N630" s="9"/>
       <c r="O630" s="6"/>
     </row>
-    <row r="631" spans="6:15" ht="14.25" customHeight="1">
+    <row r="631" spans="6:15">
       <c r="F631" s="7"/>
       <c r="G631" s="7"/>
       <c r="H631" s="7"/>
@@ -10837,7 +10809,7 @@
       <c r="N631" s="9"/>
       <c r="O631" s="6"/>
     </row>
-    <row r="632" spans="6:15" ht="14.25" customHeight="1">
+    <row r="632" spans="6:15">
       <c r="F632" s="7"/>
       <c r="G632" s="7"/>
       <c r="H632" s="7"/>
@@ -10849,7 +10821,7 @@
       <c r="N632" s="9"/>
       <c r="O632" s="6"/>
     </row>
-    <row r="633" spans="6:15" ht="14.25" customHeight="1">
+    <row r="633" spans="6:15">
       <c r="F633" s="7"/>
       <c r="G633" s="7"/>
       <c r="H633" s="7"/>
@@ -10861,7 +10833,7 @@
       <c r="N633" s="9"/>
       <c r="O633" s="6"/>
     </row>
-    <row r="634" spans="6:15" ht="14.25" customHeight="1">
+    <row r="634" spans="6:15">
       <c r="F634" s="7"/>
       <c r="G634" s="7"/>
       <c r="H634" s="7"/>
@@ -10873,7 +10845,7 @@
       <c r="N634" s="9"/>
       <c r="O634" s="6"/>
     </row>
-    <row r="635" spans="6:15" ht="14.25" customHeight="1">
+    <row r="635" spans="6:15">
       <c r="F635" s="7"/>
       <c r="G635" s="7"/>
       <c r="H635" s="7"/>
@@ -10885,7 +10857,7 @@
       <c r="N635" s="9"/>
       <c r="O635" s="6"/>
     </row>
-    <row r="636" spans="6:15" ht="14.25" customHeight="1">
+    <row r="636" spans="6:15">
       <c r="F636" s="7"/>
       <c r="G636" s="7"/>
       <c r="H636" s="7"/>
@@ -10897,7 +10869,7 @@
       <c r="N636" s="9"/>
       <c r="O636" s="6"/>
     </row>
-    <row r="637" spans="6:15" ht="14.25" customHeight="1">
+    <row r="637" spans="6:15">
       <c r="F637" s="7"/>
       <c r="G637" s="7"/>
       <c r="H637" s="7"/>
@@ -10909,7 +10881,7 @@
       <c r="N637" s="9"/>
       <c r="O637" s="6"/>
     </row>
-    <row r="638" spans="6:15" ht="14.25" customHeight="1">
+    <row r="638" spans="6:15">
       <c r="F638" s="7"/>
       <c r="G638" s="7"/>
       <c r="H638" s="7"/>
@@ -10921,7 +10893,7 @@
       <c r="N638" s="9"/>
       <c r="O638" s="6"/>
     </row>
-    <row r="639" spans="6:15" ht="14.25" customHeight="1">
+    <row r="639" spans="6:15">
       <c r="F639" s="7"/>
       <c r="G639" s="7"/>
       <c r="H639" s="7"/>
@@ -10933,7 +10905,7 @@
       <c r="N639" s="9"/>
       <c r="O639" s="6"/>
     </row>
-    <row r="640" spans="6:15" ht="14.25" customHeight="1">
+    <row r="640" spans="6:15">
       <c r="F640" s="7"/>
       <c r="G640" s="7"/>
       <c r="H640" s="7"/>
@@ -10945,7 +10917,7 @@
       <c r="N640" s="9"/>
       <c r="O640" s="6"/>
     </row>
-    <row r="641" spans="6:15" ht="14.25" customHeight="1">
+    <row r="641" spans="6:15">
       <c r="F641" s="7"/>
       <c r="G641" s="7"/>
       <c r="H641" s="7"/>
@@ -10957,7 +10929,7 @@
       <c r="N641" s="9"/>
       <c r="O641" s="6"/>
     </row>
-    <row r="642" spans="6:15" ht="14.25" customHeight="1">
+    <row r="642" spans="6:15">
       <c r="F642" s="7"/>
       <c r="G642" s="7"/>
       <c r="H642" s="7"/>
@@ -10969,7 +10941,7 @@
       <c r="N642" s="9"/>
       <c r="O642" s="6"/>
     </row>
-    <row r="643" spans="6:15" ht="14.25" customHeight="1">
+    <row r="643" spans="6:15">
       <c r="F643" s="7"/>
       <c r="G643" s="7"/>
       <c r="H643" s="7"/>
@@ -10981,7 +10953,7 @@
       <c r="N643" s="9"/>
       <c r="O643" s="6"/>
     </row>
-    <row r="644" spans="6:15" ht="14.25" customHeight="1">
+    <row r="644" spans="6:15">
       <c r="F644" s="7"/>
       <c r="G644" s="7"/>
       <c r="H644" s="7"/>
@@ -10993,7 +10965,7 @@
       <c r="N644" s="9"/>
       <c r="O644" s="6"/>
     </row>
-    <row r="645" spans="6:15" ht="14.25" customHeight="1">
+    <row r="645" spans="6:15">
       <c r="F645" s="7"/>
       <c r="G645" s="7"/>
       <c r="H645" s="7"/>
@@ -11005,7 +10977,7 @@
       <c r="N645" s="9"/>
       <c r="O645" s="6"/>
     </row>
-    <row r="646" spans="6:15" ht="14.25" customHeight="1">
+    <row r="646" spans="6:15">
       <c r="F646" s="7"/>
       <c r="G646" s="7"/>
       <c r="H646" s="7"/>
@@ -11017,7 +10989,7 @@
       <c r="N646" s="9"/>
       <c r="O646" s="6"/>
     </row>
-    <row r="647" spans="6:15" ht="14.25" customHeight="1">
+    <row r="647" spans="6:15">
       <c r="F647" s="7"/>
       <c r="G647" s="7"/>
       <c r="H647" s="7"/>
@@ -11029,7 +11001,7 @@
       <c r="N647" s="9"/>
       <c r="O647" s="6"/>
     </row>
-    <row r="648" spans="6:15" ht="14.25" customHeight="1">
+    <row r="648" spans="6:15">
       <c r="F648" s="7"/>
       <c r="G648" s="7"/>
       <c r="H648" s="7"/>
@@ -11041,7 +11013,7 @@
       <c r="N648" s="9"/>
       <c r="O648" s="6"/>
     </row>
-    <row r="649" spans="6:15" ht="14.25" customHeight="1">
+    <row r="649" spans="6:15">
       <c r="F649" s="7"/>
       <c r="G649" s="7"/>
       <c r="H649" s="7"/>
@@ -11053,7 +11025,7 @@
       <c r="N649" s="9"/>
       <c r="O649" s="6"/>
     </row>
-    <row r="650" spans="6:15" ht="14.25" customHeight="1">
+    <row r="650" spans="6:15">
       <c r="F650" s="7"/>
       <c r="G650" s="7"/>
       <c r="H650" s="7"/>
@@ -11065,7 +11037,7 @@
       <c r="N650" s="9"/>
       <c r="O650" s="6"/>
     </row>
-    <row r="651" spans="6:15" ht="14.25" customHeight="1">
+    <row r="651" spans="6:15">
       <c r="F651" s="7"/>
       <c r="G651" s="7"/>
       <c r="H651" s="7"/>
@@ -11077,7 +11049,7 @@
       <c r="N651" s="9"/>
       <c r="O651" s="6"/>
     </row>
-    <row r="652" spans="6:15" ht="14.25" customHeight="1">
+    <row r="652" spans="6:15">
       <c r="F652" s="7"/>
       <c r="G652" s="7"/>
       <c r="H652" s="7"/>
@@ -11089,7 +11061,7 @@
       <c r="N652" s="9"/>
       <c r="O652" s="6"/>
     </row>
-    <row r="653" spans="6:15" ht="14.25" customHeight="1">
+    <row r="653" spans="6:15">
       <c r="F653" s="7"/>
       <c r="G653" s="7"/>
       <c r="H653" s="7"/>
@@ -11101,7 +11073,7 @@
       <c r="N653" s="9"/>
       <c r="O653" s="6"/>
     </row>
-    <row r="654" spans="6:15" ht="14.25" customHeight="1">
+    <row r="654" spans="6:15">
       <c r="F654" s="7"/>
       <c r="G654" s="7"/>
       <c r="H654" s="7"/>
@@ -11113,7 +11085,7 @@
       <c r="N654" s="9"/>
       <c r="O654" s="6"/>
     </row>
-    <row r="655" spans="6:15" ht="14.25" customHeight="1">
+    <row r="655" spans="6:15">
       <c r="F655" s="7"/>
       <c r="G655" s="7"/>
       <c r="H655" s="7"/>
@@ -11125,7 +11097,7 @@
       <c r="N655" s="9"/>
       <c r="O655" s="6"/>
     </row>
-    <row r="656" spans="6:15" ht="14.25" customHeight="1">
+    <row r="656" spans="6:15">
       <c r="F656" s="7"/>
       <c r="G656" s="7"/>
       <c r="H656" s="7"/>
@@ -11137,7 +11109,7 @@
       <c r="N656" s="9"/>
       <c r="O656" s="6"/>
     </row>
-    <row r="657" spans="6:15" ht="14.25" customHeight="1">
+    <row r="657" spans="6:15">
       <c r="F657" s="7"/>
       <c r="G657" s="7"/>
       <c r="H657" s="7"/>
@@ -11149,7 +11121,7 @@
       <c r="N657" s="9"/>
       <c r="O657" s="6"/>
     </row>
-    <row r="658" spans="6:15" ht="14.25" customHeight="1">
+    <row r="658" spans="6:15">
       <c r="F658" s="7"/>
       <c r="G658" s="7"/>
       <c r="H658" s="7"/>
@@ -11161,7 +11133,7 @@
       <c r="N658" s="9"/>
       <c r="O658" s="6"/>
     </row>
-    <row r="659" spans="6:15" ht="14.25" customHeight="1">
+    <row r="659" spans="6:15">
       <c r="F659" s="7"/>
       <c r="G659" s="7"/>
       <c r="H659" s="7"/>
@@ -11173,7 +11145,7 @@
       <c r="N659" s="9"/>
       <c r="O659" s="6"/>
     </row>
-    <row r="660" spans="6:15" ht="14.25" customHeight="1">
+    <row r="660" spans="6:15">
       <c r="F660" s="7"/>
       <c r="G660" s="7"/>
       <c r="H660" s="7"/>
@@ -11185,7 +11157,7 @@
       <c r="N660" s="9"/>
       <c r="O660" s="6"/>
     </row>
-    <row r="661" spans="6:15" ht="14.25" customHeight="1">
+    <row r="661" spans="6:15">
       <c r="F661" s="7"/>
       <c r="G661" s="7"/>
       <c r="H661" s="7"/>
@@ -11197,7 +11169,7 @@
       <c r="N661" s="9"/>
       <c r="O661" s="6"/>
     </row>
-    <row r="662" spans="6:15" ht="14.25" customHeight="1">
+    <row r="662" spans="6:15">
       <c r="F662" s="7"/>
       <c r="G662" s="7"/>
       <c r="H662" s="7"/>
@@ -11209,7 +11181,7 @@
       <c r="N662" s="9"/>
       <c r="O662" s="6"/>
     </row>
-    <row r="663" spans="6:15" ht="14.25" customHeight="1">
+    <row r="663" spans="6:15">
       <c r="F663" s="7"/>
       <c r="G663" s="7"/>
       <c r="H663" s="7"/>
@@ -11221,7 +11193,7 @@
       <c r="N663" s="9"/>
       <c r="O663" s="6"/>
     </row>
-    <row r="664" spans="6:15" ht="14.25" customHeight="1">
+    <row r="664" spans="6:15">
       <c r="F664" s="7"/>
       <c r="G664" s="7"/>
       <c r="H664" s="7"/>
@@ -11233,7 +11205,7 @@
       <c r="N664" s="9"/>
       <c r="O664" s="6"/>
     </row>
-    <row r="665" spans="6:15" ht="14.25" customHeight="1">
+    <row r="665" spans="6:15">
       <c r="F665" s="7"/>
       <c r="G665" s="7"/>
       <c r="H665" s="7"/>
@@ -11245,7 +11217,7 @@
       <c r="N665" s="9"/>
       <c r="O665" s="6"/>
     </row>
-    <row r="666" spans="6:15" ht="14.25" customHeight="1">
+    <row r="666" spans="6:15">
       <c r="F666" s="7"/>
       <c r="G666" s="7"/>
       <c r="H666" s="7"/>
@@ -11257,7 +11229,7 @@
       <c r="N666" s="9"/>
       <c r="O666" s="6"/>
     </row>
-    <row r="667" spans="6:15" ht="14.25" customHeight="1">
+    <row r="667" spans="6:15">
       <c r="F667" s="7"/>
       <c r="G667" s="7"/>
       <c r="H667" s="7"/>
@@ -11269,7 +11241,7 @@
       <c r="N667" s="9"/>
       <c r="O667" s="6"/>
     </row>
-    <row r="668" spans="6:15" ht="14.25" customHeight="1">
+    <row r="668" spans="6:15">
       <c r="F668" s="7"/>
       <c r="G668" s="7"/>
       <c r="H668" s="7"/>
@@ -11281,7 +11253,7 @@
       <c r="N668" s="9"/>
       <c r="O668" s="6"/>
     </row>
-    <row r="669" spans="6:15" ht="14.25" customHeight="1">
+    <row r="669" spans="6:15">
       <c r="F669" s="7"/>
       <c r="G669" s="7"/>
       <c r="H669" s="7"/>
@@ -11293,7 +11265,7 @@
       <c r="N669" s="9"/>
       <c r="O669" s="6"/>
     </row>
-    <row r="670" spans="6:15" ht="14.25" customHeight="1">
+    <row r="670" spans="6:15">
       <c r="F670" s="7"/>
       <c r="G670" s="7"/>
       <c r="H670" s="7"/>
@@ -11305,7 +11277,7 @@
       <c r="N670" s="9"/>
       <c r="O670" s="6"/>
     </row>
-    <row r="671" spans="6:15" ht="14.25" customHeight="1">
+    <row r="671" spans="6:15">
       <c r="F671" s="7"/>
       <c r="G671" s="7"/>
       <c r="H671" s="7"/>
@@ -11317,7 +11289,7 @@
       <c r="N671" s="9"/>
       <c r="O671" s="6"/>
     </row>
-    <row r="672" spans="6:15" ht="14.25" customHeight="1">
+    <row r="672" spans="6:15">
       <c r="F672" s="7"/>
       <c r="G672" s="7"/>
       <c r="H672" s="7"/>
@@ -11329,7 +11301,7 @@
       <c r="N672" s="9"/>
       <c r="O672" s="6"/>
     </row>
-    <row r="673" spans="6:15" ht="14.25" customHeight="1">
+    <row r="673" spans="6:15">
       <c r="F673" s="7"/>
       <c r="G673" s="7"/>
       <c r="H673" s="7"/>
@@ -11341,7 +11313,7 @@
       <c r="N673" s="9"/>
       <c r="O673" s="6"/>
     </row>
-    <row r="674" spans="6:15" ht="14.25" customHeight="1">
+    <row r="674" spans="6:15">
       <c r="F674" s="7"/>
       <c r="G674" s="7"/>
       <c r="H674" s="7"/>
@@ -11353,7 +11325,7 @@
       <c r="N674" s="9"/>
       <c r="O674" s="6"/>
     </row>
-    <row r="675" spans="6:15" ht="14.25" customHeight="1">
+    <row r="675" spans="6:15">
       <c r="F675" s="7"/>
       <c r="G675" s="7"/>
       <c r="H675" s="7"/>
@@ -11365,7 +11337,7 @@
       <c r="N675" s="9"/>
       <c r="O675" s="6"/>
     </row>
-    <row r="676" spans="6:15" ht="14.25" customHeight="1">
+    <row r="676" spans="6:15">
       <c r="F676" s="7"/>
       <c r="G676" s="7"/>
       <c r="H676" s="7"/>
@@ -11377,7 +11349,7 @@
       <c r="N676" s="9"/>
       <c r="O676" s="6"/>
     </row>
-    <row r="677" spans="6:15" ht="14.25" customHeight="1">
+    <row r="677" spans="6:15">
       <c r="F677" s="7"/>
       <c r="G677" s="7"/>
       <c r="H677" s="7"/>
@@ -11389,7 +11361,7 @@
       <c r="N677" s="9"/>
       <c r="O677" s="6"/>
     </row>
-    <row r="678" spans="6:15" ht="14.25" customHeight="1">
+    <row r="678" spans="6:15">
       <c r="F678" s="7"/>
       <c r="G678" s="7"/>
       <c r="H678" s="7"/>
@@ -11401,7 +11373,7 @@
       <c r="N678" s="9"/>
       <c r="O678" s="6"/>
     </row>
-    <row r="679" spans="6:15" ht="14.25" customHeight="1">
+    <row r="679" spans="6:15">
       <c r="F679" s="7"/>
       <c r="G679" s="7"/>
       <c r="H679" s="7"/>
@@ -11413,7 +11385,7 @@
       <c r="N679" s="9"/>
       <c r="O679" s="6"/>
     </row>
-    <row r="680" spans="6:15" ht="14.25" customHeight="1">
+    <row r="680" spans="6:15">
       <c r="F680" s="7"/>
       <c r="G680" s="7"/>
       <c r="H680" s="7"/>
@@ -11425,7 +11397,7 @@
       <c r="N680" s="9"/>
       <c r="O680" s="6"/>
     </row>
-    <row r="681" spans="6:15" ht="14.25" customHeight="1">
+    <row r="681" spans="6:15">
       <c r="F681" s="7"/>
       <c r="G681" s="7"/>
       <c r="H681" s="7"/>
@@ -11437,7 +11409,7 @@
       <c r="N681" s="9"/>
       <c r="O681" s="6"/>
     </row>
-    <row r="682" spans="6:15" ht="14.25" customHeight="1">
+    <row r="682" spans="6:15">
       <c r="F682" s="7"/>
       <c r="G682" s="7"/>
       <c r="H682" s="7"/>
@@ -11449,7 +11421,7 @@
       <c r="N682" s="9"/>
       <c r="O682" s="6"/>
     </row>
-    <row r="683" spans="6:15" ht="14.25" customHeight="1">
+    <row r="683" spans="6:15">
       <c r="F683" s="7"/>
       <c r="G683" s="7"/>
       <c r="H683" s="7"/>
@@ -11461,7 +11433,7 @@
       <c r="N683" s="9"/>
       <c r="O683" s="6"/>
     </row>
-    <row r="684" spans="6:15" ht="14.25" customHeight="1">
+    <row r="684" spans="6:15">
       <c r="F684" s="7"/>
       <c r="G684" s="7"/>
       <c r="H684" s="7"/>
@@ -11473,7 +11445,7 @@
       <c r="N684" s="9"/>
       <c r="O684" s="6"/>
     </row>
-    <row r="685" spans="6:15" ht="14.25" customHeight="1">
+    <row r="685" spans="6:15">
       <c r="F685" s="7"/>
       <c r="G685" s="7"/>
       <c r="H685" s="7"/>
@@ -11485,7 +11457,7 @@
       <c r="N685" s="9"/>
       <c r="O685" s="6"/>
     </row>
-    <row r="686" spans="6:15" ht="14.25" customHeight="1">
+    <row r="686" spans="6:15">
       <c r="F686" s="7"/>
       <c r="G686" s="7"/>
       <c r="H686" s="7"/>
@@ -11497,7 +11469,7 @@
       <c r="N686" s="9"/>
       <c r="O686" s="6"/>
     </row>
-    <row r="687" spans="6:15" ht="14.25" customHeight="1">
+    <row r="687" spans="6:15">
       <c r="F687" s="7"/>
       <c r="G687" s="7"/>
       <c r="H687" s="7"/>
@@ -11509,7 +11481,7 @@
       <c r="N687" s="9"/>
       <c r="O687" s="6"/>
     </row>
-    <row r="688" spans="6:15" ht="14.25" customHeight="1">
+    <row r="688" spans="6:15">
       <c r="F688" s="7"/>
       <c r="G688" s="7"/>
       <c r="H688" s="7"/>
@@ -11521,7 +11493,7 @@
       <c r="N688" s="9"/>
       <c r="O688" s="6"/>
     </row>
-    <row r="689" spans="6:15" ht="14.25" customHeight="1">
+    <row r="689" spans="6:15">
       <c r="F689" s="7"/>
       <c r="G689" s="7"/>
       <c r="H689" s="7"/>
@@ -11533,7 +11505,7 @@
       <c r="N689" s="9"/>
       <c r="O689" s="6"/>
     </row>
-    <row r="690" spans="6:15" ht="14.25" customHeight="1">
+    <row r="690" spans="6:15">
       <c r="F690" s="7"/>
       <c r="G690" s="7"/>
       <c r="H690" s="7"/>
@@ -11545,7 +11517,7 @@
       <c r="N690" s="9"/>
       <c r="O690" s="6"/>
     </row>
-    <row r="691" spans="6:15" ht="14.25" customHeight="1">
+    <row r="691" spans="6:15">
       <c r="F691" s="7"/>
       <c r="G691" s="7"/>
       <c r="H691" s="7"/>
@@ -11557,7 +11529,7 @@
       <c r="N691" s="9"/>
       <c r="O691" s="6"/>
     </row>
-    <row r="692" spans="6:15" ht="14.25" customHeight="1">
+    <row r="692" spans="6:15">
       <c r="F692" s="7"/>
       <c r="G692" s="7"/>
       <c r="H692" s="7"/>
@@ -11569,7 +11541,7 @@
       <c r="N692" s="9"/>
       <c r="O692" s="6"/>
     </row>
-    <row r="693" spans="6:15" ht="14.25" customHeight="1">
+    <row r="693" spans="6:15">
       <c r="F693" s="7"/>
       <c r="G693" s="7"/>
       <c r="H693" s="7"/>
@@ -11581,7 +11553,7 @@
       <c r="N693" s="9"/>
       <c r="O693" s="6"/>
     </row>
-    <row r="694" spans="6:15" ht="14.25" customHeight="1">
+    <row r="694" spans="6:15">
       <c r="F694" s="7"/>
       <c r="G694" s="7"/>
       <c r="H694" s="7"/>
@@ -11593,7 +11565,7 @@
       <c r="N694" s="9"/>
       <c r="O694" s="6"/>
     </row>
-    <row r="695" spans="6:15" ht="14.25" customHeight="1">
+    <row r="695" spans="6:15">
       <c r="F695" s="7"/>
       <c r="G695" s="7"/>
       <c r="H695" s="7"/>
@@ -11605,7 +11577,7 @@
       <c r="N695" s="9"/>
       <c r="O695" s="6"/>
     </row>
-    <row r="696" spans="6:15" ht="14.25" customHeight="1">
+    <row r="696" spans="6:15">
       <c r="F696" s="7"/>
       <c r="G696" s="7"/>
       <c r="H696" s="7"/>
@@ -11617,7 +11589,7 @@
       <c r="N696" s="9"/>
       <c r="O696" s="6"/>
     </row>
-    <row r="697" spans="6:15" ht="14.25" customHeight="1">
+    <row r="697" spans="6:15">
       <c r="F697" s="7"/>
       <c r="G697" s="7"/>
       <c r="H697" s="7"/>
@@ -11629,7 +11601,7 @@
       <c r="N697" s="9"/>
       <c r="O697" s="6"/>
     </row>
-    <row r="698" spans="6:15" ht="14.25" customHeight="1">
+    <row r="698" spans="6:15">
       <c r="F698" s="7"/>
       <c r="G698" s="7"/>
       <c r="H698" s="7"/>
@@ -11641,7 +11613,7 @@
       <c r="N698" s="9"/>
       <c r="O698" s="6"/>
     </row>
-    <row r="699" spans="6:15" ht="14.25" customHeight="1">
+    <row r="699" spans="6:15">
       <c r="F699" s="7"/>
       <c r="G699" s="7"/>
       <c r="H699" s="7"/>
@@ -11653,7 +11625,7 @@
       <c r="N699" s="9"/>
       <c r="O699" s="6"/>
     </row>
-    <row r="700" spans="6:15" ht="14.25" customHeight="1">
+    <row r="700" spans="6:15">
       <c r="F700" s="7"/>
       <c r="G700" s="7"/>
       <c r="H700" s="7"/>
@@ -11665,7 +11637,7 @@
       <c r="N700" s="9"/>
       <c r="O700" s="6"/>
     </row>
-    <row r="701" spans="6:15" ht="14.25" customHeight="1">
+    <row r="701" spans="6:15">
       <c r="F701" s="7"/>
       <c r="G701" s="7"/>
       <c r="H701" s="7"/>
@@ -11677,7 +11649,7 @@
       <c r="N701" s="9"/>
       <c r="O701" s="6"/>
     </row>
-    <row r="702" spans="6:15" ht="14.25" customHeight="1">
+    <row r="702" spans="6:15">
       <c r="F702" s="7"/>
       <c r="G702" s="7"/>
       <c r="H702" s="7"/>
@@ -11689,7 +11661,7 @@
       <c r="N702" s="9"/>
       <c r="O702" s="6"/>
     </row>
-    <row r="703" spans="6:15" ht="14.25" customHeight="1">
+    <row r="703" spans="6:15">
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
       <c r="H703" s="7"/>
@@ -11701,7 +11673,7 @@
       <c r="N703" s="9"/>
       <c r="O703" s="6"/>
     </row>
-    <row r="704" spans="6:15" ht="14.25" customHeight="1">
+    <row r="704" spans="6:15">
       <c r="F704" s="7"/>
       <c r="G704" s="7"/>
       <c r="H704" s="7"/>
@@ -11713,7 +11685,7 @@
       <c r="N704" s="9"/>
       <c r="O704" s="6"/>
     </row>
-    <row r="705" spans="6:15" ht="14.25" customHeight="1">
+    <row r="705" spans="6:15">
       <c r="F705" s="7"/>
       <c r="G705" s="7"/>
       <c r="H705" s="7"/>
@@ -11725,7 +11697,7 @@
       <c r="N705" s="9"/>
       <c r="O705" s="6"/>
     </row>
-    <row r="706" spans="6:15" ht="14.25" customHeight="1">
+    <row r="706" spans="6:15">
       <c r="F706" s="7"/>
       <c r="G706" s="7"/>
       <c r="H706" s="7"/>
@@ -11737,7 +11709,7 @@
       <c r="N706" s="9"/>
       <c r="O706" s="6"/>
     </row>
-    <row r="707" spans="6:15" ht="14.25" customHeight="1">
+    <row r="707" spans="6:15">
       <c r="F707" s="7"/>
       <c r="G707" s="7"/>
       <c r="H707" s="7"/>
@@ -11749,7 +11721,7 @@
       <c r="N707" s="9"/>
       <c r="O707" s="6"/>
     </row>
-    <row r="708" spans="6:15" ht="14.25" customHeight="1">
+    <row r="708" spans="6:15">
       <c r="F708" s="7"/>
       <c r="G708" s="7"/>
       <c r="H708" s="7"/>
@@ -11761,7 +11733,7 @@
       <c r="N708" s="9"/>
       <c r="O708" s="6"/>
     </row>
-    <row r="709" spans="6:15" ht="14.25" customHeight="1">
+    <row r="709" spans="6:15">
       <c r="F709" s="7"/>
       <c r="G709" s="7"/>
       <c r="H709" s="7"/>
@@ -11773,7 +11745,7 @@
       <c r="N709" s="9"/>
       <c r="O709" s="6"/>
     </row>
-    <row r="710" spans="6:15" ht="14.25" customHeight="1">
+    <row r="710" spans="6:15">
       <c r="F710" s="7"/>
       <c r="G710" s="7"/>
       <c r="H710" s="7"/>
@@ -11785,7 +11757,7 @@
       <c r="N710" s="9"/>
       <c r="O710" s="6"/>
     </row>
-    <row r="711" spans="6:15" ht="14.25" customHeight="1">
+    <row r="711" spans="6:15">
       <c r="F711" s="7"/>
       <c r="G711" s="7"/>
       <c r="H711" s="7"/>
@@ -11797,7 +11769,7 @@
       <c r="N711" s="9"/>
       <c r="O711" s="6"/>
     </row>
-    <row r="712" spans="6:15" ht="14.25" customHeight="1">
+    <row r="712" spans="6:15">
       <c r="F712" s="7"/>
       <c r="G712" s="7"/>
       <c r="H712" s="7"/>
@@ -11809,7 +11781,7 @@
       <c r="N712" s="9"/>
       <c r="O712" s="6"/>
     </row>
-    <row r="713" spans="6:15" ht="14.25" customHeight="1">
+    <row r="713" spans="6:15">
       <c r="F713" s="7"/>
       <c r="G713" s="7"/>
       <c r="H713" s="7"/>
@@ -11821,7 +11793,7 @@
       <c r="N713" s="9"/>
       <c r="O713" s="6"/>
     </row>
-    <row r="714" spans="6:15" ht="14.25" customHeight="1">
+    <row r="714" spans="6:15">
       <c r="F714" s="7"/>
       <c r="G714" s="7"/>
       <c r="H714" s="7"/>
@@ -11833,7 +11805,7 @@
       <c r="N714" s="9"/>
       <c r="O714" s="6"/>
     </row>
-    <row r="715" spans="6:15" ht="14.25" customHeight="1">
+    <row r="715" spans="6:15">
       <c r="F715" s="7"/>
       <c r="G715" s="7"/>
       <c r="H715" s="7"/>
@@ -11845,7 +11817,7 @@
       <c r="N715" s="9"/>
       <c r="O715" s="6"/>
     </row>
-    <row r="716" spans="6:15" ht="14.25" customHeight="1">
+    <row r="716" spans="6:15">
       <c r="F716" s="7"/>
       <c r="G716" s="7"/>
       <c r="H716" s="7"/>
@@ -11857,7 +11829,7 @@
       <c r="N716" s="9"/>
       <c r="O716" s="6"/>
     </row>
-    <row r="717" spans="6:15" ht="14.25" customHeight="1">
+    <row r="717" spans="6:15">
       <c r="F717" s="7"/>
       <c r="G717" s="7"/>
       <c r="H717" s="7"/>
@@ -11869,7 +11841,7 @@
       <c r="N717" s="9"/>
       <c r="O717" s="6"/>
     </row>
-    <row r="718" spans="6:15" ht="14.25" customHeight="1">
+    <row r="718" spans="6:15">
       <c r="F718" s="7"/>
       <c r="G718" s="7"/>
       <c r="H718" s="7"/>
@@ -11881,7 +11853,7 @@
       <c r="N718" s="9"/>
       <c r="O718" s="6"/>
     </row>
-    <row r="719" spans="6:15" ht="14.25" customHeight="1">
+    <row r="719" spans="6:15">
       <c r="F719" s="7"/>
       <c r="G719" s="7"/>
       <c r="H719" s="7"/>
@@ -11893,7 +11865,7 @@
       <c r="N719" s="9"/>
       <c r="O719" s="6"/>
     </row>
-    <row r="720" spans="6:15" ht="14.25" customHeight="1">
+    <row r="720" spans="6:15">
       <c r="F720" s="7"/>
       <c r="G720" s="7"/>
       <c r="H720" s="7"/>
@@ -11905,7 +11877,7 @@
       <c r="N720" s="9"/>
       <c r="O720" s="6"/>
     </row>
-    <row r="721" spans="6:15" ht="14.25" customHeight="1">
+    <row r="721" spans="6:15">
       <c r="F721" s="7"/>
       <c r="G721" s="7"/>
       <c r="H721" s="7"/>
@@ -11917,7 +11889,7 @@
       <c r="N721" s="9"/>
       <c r="O721" s="6"/>
     </row>
-    <row r="722" spans="6:15" ht="14.25" customHeight="1">
+    <row r="722" spans="6:15">
       <c r="F722" s="7"/>
       <c r="G722" s="7"/>
       <c r="H722" s="7"/>
@@ -11929,7 +11901,7 @@
       <c r="N722" s="9"/>
       <c r="O722" s="6"/>
     </row>
-    <row r="723" spans="6:15" ht="14.25" customHeight="1">
+    <row r="723" spans="6:15">
       <c r="F723" s="7"/>
       <c r="G723" s="7"/>
       <c r="H723" s="7"/>
@@ -11941,7 +11913,7 @@
       <c r="N723" s="9"/>
       <c r="O723" s="6"/>
     </row>
-    <row r="724" spans="6:15" ht="14.25" customHeight="1">
+    <row r="724" spans="6:15">
       <c r="F724" s="7"/>
       <c r="G724" s="7"/>
       <c r="H724" s="7"/>
@@ -11953,7 +11925,7 @@
       <c r="N724" s="9"/>
       <c r="O724" s="6"/>
     </row>
-    <row r="725" spans="6:15" ht="14.25" customHeight="1">
+    <row r="725" spans="6:15">
       <c r="F725" s="7"/>
       <c r="G725" s="7"/>
       <c r="H725" s="7"/>
@@ -11965,7 +11937,7 @@
       <c r="N725" s="9"/>
       <c r="O725" s="6"/>
     </row>
-    <row r="726" spans="6:15" ht="14.25" customHeight="1">
+    <row r="726" spans="6:15">
       <c r="F726" s="7"/>
       <c r="G726" s="7"/>
       <c r="H726" s="7"/>
@@ -11977,7 +11949,7 @@
       <c r="N726" s="9"/>
       <c r="O726" s="6"/>
     </row>
-    <row r="727" spans="6:15" ht="14.25" customHeight="1">
+    <row r="727" spans="6:15">
       <c r="F727" s="7"/>
       <c r="G727" s="7"/>
       <c r="H727" s="7"/>
@@ -11989,7 +11961,7 @@
       <c r="N727" s="9"/>
       <c r="O727" s="6"/>
     </row>
-    <row r="728" spans="6:15" ht="14.25" customHeight="1">
+    <row r="728" spans="6:15">
       <c r="F728" s="7"/>
       <c r="G728" s="7"/>
       <c r="H728" s="7"/>
@@ -12001,7 +11973,7 @@
       <c r="N728" s="9"/>
       <c r="O728" s="6"/>
     </row>
-    <row r="729" spans="6:15" ht="14.25" customHeight="1">
+    <row r="729" spans="6:15">
       <c r="F729" s="7"/>
       <c r="G729" s="7"/>
       <c r="H729" s="7"/>
@@ -12013,7 +11985,7 @@
       <c r="N729" s="9"/>
       <c r="O729" s="6"/>
     </row>
-    <row r="730" spans="6:15" ht="14.25" customHeight="1">
+    <row r="730" spans="6:15">
       <c r="F730" s="7"/>
       <c r="G730" s="7"/>
       <c r="H730" s="7"/>
@@ -12025,7 +11997,7 @@
       <c r="N730" s="9"/>
       <c r="O730" s="6"/>
     </row>
-    <row r="731" spans="6:15" ht="14.25" customHeight="1">
+    <row r="731" spans="6:15">
       <c r="F731" s="7"/>
       <c r="G731" s="7"/>
       <c r="H731" s="7"/>
@@ -12037,7 +12009,7 @@
       <c r="N731" s="9"/>
       <c r="O731" s="6"/>
     </row>
-    <row r="732" spans="6:15" ht="14.25" customHeight="1">
+    <row r="732" spans="6:15">
       <c r="F732" s="7"/>
       <c r="G732" s="7"/>
       <c r="H732" s="7"/>
@@ -12049,7 +12021,7 @@
       <c r="N732" s="9"/>
       <c r="O732" s="6"/>
     </row>
-    <row r="733" spans="6:15" ht="14.25" customHeight="1">
+    <row r="733" spans="6:15">
       <c r="F733" s="7"/>
       <c r="G733" s="7"/>
       <c r="H733" s="7"/>
@@ -12061,7 +12033,7 @@
       <c r="N733" s="9"/>
       <c r="O733" s="6"/>
     </row>
-    <row r="734" spans="6:15" ht="14.25" customHeight="1">
+    <row r="734" spans="6:15">
       <c r="F734" s="7"/>
       <c r="G734" s="7"/>
       <c r="H734" s="7"/>
@@ -12073,7 +12045,7 @@
       <c r="N734" s="9"/>
       <c r="O734" s="6"/>
     </row>
-    <row r="735" spans="6:15" ht="14.25" customHeight="1">
+    <row r="735" spans="6:15">
       <c r="F735" s="7"/>
       <c r="G735" s="7"/>
       <c r="H735" s="7"/>
@@ -12085,7 +12057,7 @@
       <c r="N735" s="9"/>
       <c r="O735" s="6"/>
     </row>
-    <row r="736" spans="6:15" ht="14.25" customHeight="1">
+    <row r="736" spans="6:15">
       <c r="F736" s="7"/>
       <c r="G736" s="7"/>
       <c r="H736" s="7"/>
@@ -12097,7 +12069,7 @@
       <c r="N736" s="9"/>
       <c r="O736" s="6"/>
     </row>
-    <row r="737" spans="6:15" ht="14.25" customHeight="1">
+    <row r="737" spans="6:15">
       <c r="F737" s="7"/>
       <c r="G737" s="7"/>
       <c r="H737" s="7"/>
@@ -12109,7 +12081,7 @@
       <c r="N737" s="9"/>
       <c r="O737" s="6"/>
     </row>
-    <row r="738" spans="6:15" ht="14.25" customHeight="1">
+    <row r="738" spans="6:15">
       <c r="F738" s="7"/>
       <c r="G738" s="7"/>
       <c r="H738" s="7"/>
@@ -12121,7 +12093,7 @@
       <c r="N738" s="9"/>
       <c r="O738" s="6"/>
     </row>
-    <row r="739" spans="6:15" ht="14.25" customHeight="1">
+    <row r="739" spans="6:15">
       <c r="F739" s="7"/>
       <c r="G739" s="7"/>
       <c r="H739" s="7"/>
@@ -12133,7 +12105,7 @@
       <c r="N739" s="9"/>
       <c r="O739" s="6"/>
     </row>
-    <row r="740" spans="6:15" ht="14.25" customHeight="1">
+    <row r="740" spans="6:15">
       <c r="F740" s="7"/>
       <c r="G740" s="7"/>
       <c r="H740" s="7"/>
@@ -12145,7 +12117,7 @@
       <c r="N740" s="9"/>
       <c r="O740" s="6"/>
     </row>
-    <row r="741" spans="6:15" ht="14.25" customHeight="1">
+    <row r="741" spans="6:15">
       <c r="F741" s="7"/>
       <c r="G741" s="7"/>
       <c r="H741" s="7"/>
@@ -12157,7 +12129,7 @@
       <c r="N741" s="9"/>
       <c r="O741" s="6"/>
     </row>
-    <row r="742" spans="6:15" ht="14.25" customHeight="1">
+    <row r="742" spans="6:15">
       <c r="F742" s="7"/>
       <c r="G742" s="7"/>
       <c r="H742" s="7"/>
@@ -12169,7 +12141,7 @@
       <c r="N742" s="9"/>
       <c r="O742" s="6"/>
     </row>
-    <row r="743" spans="6:15" ht="14.25" customHeight="1">
+    <row r="743" spans="6:15">
       <c r="F743" s="7"/>
       <c r="G743" s="7"/>
       <c r="H743" s="7"/>
@@ -12181,7 +12153,7 @@
       <c r="N743" s="9"/>
       <c r="O743" s="6"/>
     </row>
-    <row r="744" spans="6:15" ht="14.25" customHeight="1">
+    <row r="744" spans="6:15">
       <c r="F744" s="7"/>
       <c r="G744" s="7"/>
       <c r="H744" s="7"/>
@@ -12193,7 +12165,7 @@
       <c r="N744" s="9"/>
       <c r="O744" s="6"/>
     </row>
-    <row r="745" spans="6:15" ht="14.25" customHeight="1">
+    <row r="745" spans="6:15">
       <c r="F745" s="7"/>
       <c r="G745" s="7"/>
       <c r="H745" s="7"/>
@@ -12205,7 +12177,7 @@
       <c r="N745" s="9"/>
       <c r="O745" s="6"/>
     </row>
-    <row r="746" spans="6:15" ht="14.25" customHeight="1">
+    <row r="746" spans="6:15">
       <c r="F746" s="7"/>
       <c r="G746" s="7"/>
       <c r="H746" s="7"/>
@@ -12217,7 +12189,7 @@
       <c r="N746" s="9"/>
       <c r="O746" s="6"/>
     </row>
-    <row r="747" spans="6:15" ht="14.25" customHeight="1">
+    <row r="747" spans="6:15">
       <c r="F747" s="7"/>
       <c r="G747" s="7"/>
       <c r="H747" s="7"/>
@@ -12229,7 +12201,7 @@
       <c r="N747" s="9"/>
       <c r="O747" s="6"/>
     </row>
-    <row r="748" spans="6:15" ht="14.25" customHeight="1">
+    <row r="748" spans="6:15">
       <c r="F748" s="7"/>
       <c r="G748" s="7"/>
       <c r="H748" s="7"/>
@@ -12241,7 +12213,7 @@
       <c r="N748" s="9"/>
       <c r="O748" s="6"/>
     </row>
-    <row r="749" spans="6:15" ht="14.25" customHeight="1">
+    <row r="749" spans="6:15">
       <c r="F749" s="7"/>
       <c r="G749" s="7"/>
       <c r="H749" s="7"/>
@@ -12253,7 +12225,7 @@
       <c r="N749" s="9"/>
       <c r="O749" s="6"/>
     </row>
-    <row r="750" spans="6:15" ht="14.25" customHeight="1">
+    <row r="750" spans="6:15">
       <c r="F750" s="7"/>
       <c r="G750" s="7"/>
       <c r="H750" s="7"/>
@@ -12265,7 +12237,7 @@
       <c r="N750" s="9"/>
       <c r="O750" s="6"/>
     </row>
-    <row r="751" spans="6:15" ht="14.25" customHeight="1">
+    <row r="751" spans="6:15">
       <c r="F751" s="7"/>
       <c r="G751" s="7"/>
       <c r="H751" s="7"/>
@@ -12277,7 +12249,7 @@
       <c r="N751" s="9"/>
       <c r="O751" s="6"/>
     </row>
-    <row r="752" spans="6:15" ht="14.25" customHeight="1">
+    <row r="752" spans="6:15">
       <c r="F752" s="7"/>
       <c r="G752" s="7"/>
       <c r="H752" s="7"/>
@@ -12289,7 +12261,7 @@
       <c r="N752" s="9"/>
       <c r="O752" s="6"/>
     </row>
-    <row r="753" spans="6:15" ht="14.25" customHeight="1">
+    <row r="753" spans="6:15">
       <c r="F753" s="7"/>
       <c r="G753" s="7"/>
       <c r="H753" s="7"/>
@@ -12301,7 +12273,7 @@
       <c r="N753" s="9"/>
       <c r="O753" s="6"/>
     </row>
-    <row r="754" spans="6:15" ht="14.25" customHeight="1">
+    <row r="754" spans="6:15">
       <c r="F754" s="7"/>
       <c r="G754" s="7"/>
       <c r="H754" s="7"/>
@@ -12313,7 +12285,7 @@
       <c r="N754" s="9"/>
       <c r="O754" s="6"/>
     </row>
-    <row r="755" spans="6:15" ht="14.25" customHeight="1">
+    <row r="755" spans="6:15">
       <c r="F755" s="7"/>
       <c r="G755" s="7"/>
       <c r="H755" s="7"/>
@@ -12325,7 +12297,7 @@
       <c r="N755" s="9"/>
       <c r="O755" s="6"/>
     </row>
-    <row r="756" spans="6:15" ht="14.25" customHeight="1">
+    <row r="756" spans="6:15">
       <c r="F756" s="7"/>
       <c r="G756" s="7"/>
       <c r="H756" s="7"/>
@@ -12337,7 +12309,7 @@
       <c r="N756" s="9"/>
       <c r="O756" s="6"/>
     </row>
-    <row r="757" spans="6:15" ht="14.25" customHeight="1">
+    <row r="757" spans="6:15">
       <c r="F757" s="7"/>
       <c r="G757" s="7"/>
       <c r="H757" s="7"/>
@@ -12349,7 +12321,7 @@
       <c r="N757" s="9"/>
       <c r="O757" s="6"/>
     </row>
-    <row r="758" spans="6:15" ht="14.25" customHeight="1">
+    <row r="758" spans="6:15">
       <c r="F758" s="7"/>
       <c r="G758" s="7"/>
       <c r="H758" s="7"/>
@@ -12361,7 +12333,7 @@
       <c r="N758" s="9"/>
       <c r="O758" s="6"/>
     </row>
-    <row r="759" spans="6:15" ht="14.25" customHeight="1">
+    <row r="759" spans="6:15">
       <c r="F759" s="7"/>
       <c r="G759" s="7"/>
       <c r="H759" s="7"/>
@@ -12373,7 +12345,7 @@
       <c r="N759" s="9"/>
       <c r="O759" s="6"/>
     </row>
-    <row r="760" spans="6:15" ht="14.25" customHeight="1">
+    <row r="760" spans="6:15">
       <c r="F760" s="7"/>
       <c r="G760" s="7"/>
       <c r="H760" s="7"/>
@@ -12385,7 +12357,7 @@
       <c r="N760" s="9"/>
       <c r="O760" s="6"/>
     </row>
-    <row r="761" spans="6:15" ht="14.25" customHeight="1">
+    <row r="761" spans="6:15">
       <c r="F761" s="7"/>
       <c r="G761" s="7"/>
       <c r="H761" s="7"/>
@@ -12397,7 +12369,7 @@
       <c r="N761" s="9"/>
       <c r="O761" s="6"/>
     </row>
-    <row r="762" spans="6:15" ht="14.25" customHeight="1">
+    <row r="762" spans="6:15">
       <c r="F762" s="7"/>
       <c r="G762" s="7"/>
       <c r="H762" s="7"/>
@@ -12409,7 +12381,7 @@
       <c r="N762" s="9"/>
       <c r="O762" s="6"/>
     </row>
-    <row r="763" spans="6:15" ht="14.25" customHeight="1">
+    <row r="763" spans="6:15">
       <c r="F763" s="7"/>
       <c r="G763" s="7"/>
       <c r="H763" s="7"/>
@@ -12421,7 +12393,7 @@
       <c r="N763" s="9"/>
       <c r="O763" s="6"/>
     </row>
-    <row r="764" spans="6:15" ht="14.25" customHeight="1">
+    <row r="764" spans="6:15">
       <c r="F764" s="7"/>
       <c r="G764" s="7"/>
       <c r="H764" s="7"/>
@@ -12433,7 +12405,7 @@
       <c r="N764" s="9"/>
       <c r="O764" s="6"/>
     </row>
-    <row r="765" spans="6:15" ht="14.25" customHeight="1">
+    <row r="765" spans="6:15">
       <c r="F765" s="7"/>
       <c r="G765" s="7"/>
       <c r="H765" s="7"/>
@@ -12445,7 +12417,7 @@
       <c r="N765" s="9"/>
       <c r="O765" s="6"/>
     </row>
-    <row r="766" spans="6:15" ht="14.25" customHeight="1">
+    <row r="766" spans="6:15">
       <c r="F766" s="7"/>
       <c r="G766" s="7"/>
       <c r="H766" s="7"/>
@@ -12457,7 +12429,7 @@
       <c r="N766" s="9"/>
       <c r="O766" s="6"/>
     </row>
-    <row r="767" spans="6:15" ht="14.25" customHeight="1">
+    <row r="767" spans="6:15">
       <c r="F767" s="7"/>
       <c r="G767" s="7"/>
       <c r="H767" s="7"/>
@@ -12469,7 +12441,7 @@
       <c r="N767" s="9"/>
       <c r="O767" s="6"/>
     </row>
-    <row r="768" spans="6:15" ht="14.25" customHeight="1">
+    <row r="768" spans="6:15">
       <c r="F768" s="7"/>
       <c r="G768" s="7"/>
       <c r="H768" s="7"/>
@@ -12481,7 +12453,7 @@
       <c r="N768" s="9"/>
       <c r="O768" s="6"/>
     </row>
-    <row r="769" spans="6:15" ht="14.25" customHeight="1">
+    <row r="769" spans="6:15">
       <c r="F769" s="7"/>
       <c r="G769" s="7"/>
       <c r="H769" s="7"/>
@@ -12493,7 +12465,7 @@
       <c r="N769" s="9"/>
       <c r="O769" s="6"/>
     </row>
-    <row r="770" spans="6:15" ht="14.25" customHeight="1">
+    <row r="770" spans="6:15">
       <c r="F770" s="7"/>
       <c r="G770" s="7"/>
       <c r="H770" s="7"/>
@@ -12505,7 +12477,7 @@
       <c r="N770" s="9"/>
       <c r="O770" s="6"/>
     </row>
-    <row r="771" spans="6:15" ht="14.25" customHeight="1">
+    <row r="771" spans="6:15">
       <c r="F771" s="7"/>
       <c r="G771" s="7"/>
       <c r="H771" s="7"/>
@@ -12517,7 +12489,7 @@
       <c r="N771" s="9"/>
       <c r="O771" s="6"/>
     </row>
-    <row r="772" spans="6:15" ht="14.25" customHeight="1">
+    <row r="772" spans="6:15">
       <c r="F772" s="7"/>
       <c r="G772" s="7"/>
       <c r="H772" s="7"/>
@@ -12529,7 +12501,7 @@
       <c r="N772" s="9"/>
       <c r="O772" s="6"/>
     </row>
-    <row r="773" spans="6:15" ht="14.25" customHeight="1">
+    <row r="773" spans="6:15">
       <c r="F773" s="7"/>
       <c r="G773" s="7"/>
       <c r="H773" s="7"/>
@@ -12541,7 +12513,7 @@
       <c r="N773" s="9"/>
       <c r="O773" s="6"/>
     </row>
-    <row r="774" spans="6:15" ht="14.25" customHeight="1">
+    <row r="774" spans="6:15">
       <c r="F774" s="7"/>
       <c r="G774" s="7"/>
       <c r="H774" s="7"/>
@@ -12553,7 +12525,7 @@
       <c r="N774" s="9"/>
       <c r="O774" s="6"/>
     </row>
-    <row r="775" spans="6:15" ht="14.25" customHeight="1">
+    <row r="775" spans="6:15">
       <c r="F775" s="7"/>
       <c r="G775" s="7"/>
       <c r="H775" s="7"/>
@@ -12565,7 +12537,7 @@
       <c r="N775" s="9"/>
       <c r="O775" s="6"/>
     </row>
-    <row r="776" spans="6:15" ht="14.25" customHeight="1">
+    <row r="776" spans="6:15">
       <c r="F776" s="7"/>
       <c r="G776" s="7"/>
       <c r="H776" s="7"/>
@@ -12577,7 +12549,7 @@
       <c r="N776" s="9"/>
       <c r="O776" s="6"/>
     </row>
-    <row r="777" spans="6:15" ht="14.25" customHeight="1">
+    <row r="777" spans="6:15">
       <c r="F777" s="7"/>
       <c r="G777" s="7"/>
       <c r="H777" s="7"/>
@@ -12589,7 +12561,7 @@
       <c r="N777" s="9"/>
       <c r="O777" s="6"/>
     </row>
-    <row r="778" spans="6:15" ht="14.25" customHeight="1">
+    <row r="778" spans="6:15">
       <c r="F778" s="7"/>
       <c r="G778" s="7"/>
       <c r="H778" s="7"/>
@@ -12601,7 +12573,7 @@
       <c r="N778" s="9"/>
       <c r="O778" s="6"/>
     </row>
-    <row r="779" spans="6:15" ht="14.25" customHeight="1">
+    <row r="779" spans="6:15">
       <c r="F779" s="7"/>
       <c r="G779" s="7"/>
       <c r="H779" s="7"/>
@@ -12613,7 +12585,7 @@
       <c r="N779" s="9"/>
       <c r="O779" s="6"/>
     </row>
-    <row r="780" spans="6:15" ht="14.25" customHeight="1">
+    <row r="780" spans="6:15">
       <c r="F780" s="7"/>
       <c r="G780" s="7"/>
       <c r="H780" s="7"/>
@@ -12625,7 +12597,7 @@
       <c r="N780" s="9"/>
       <c r="O780" s="6"/>
     </row>
-    <row r="781" spans="6:15" ht="14.25" customHeight="1">
+    <row r="781" spans="6:15">
       <c r="F781" s="7"/>
       <c r="G781" s="7"/>
       <c r="H781" s="7"/>
@@ -12637,7 +12609,7 @@
       <c r="N781" s="9"/>
       <c r="O781" s="6"/>
     </row>
-    <row r="782" spans="6:15" ht="14.25" customHeight="1">
+    <row r="782" spans="6:15">
       <c r="F782" s="7"/>
       <c r="G782" s="7"/>
       <c r="H782" s="7"/>
@@ -12649,7 +12621,7 @@
       <c r="N782" s="9"/>
       <c r="O782" s="6"/>
     </row>
-    <row r="783" spans="6:15" ht="14.25" customHeight="1">
+    <row r="783" spans="6:15">
       <c r="F783" s="7"/>
       <c r="G783" s="7"/>
       <c r="H783" s="7"/>
@@ -12661,7 +12633,7 @@
       <c r="N783" s="9"/>
       <c r="O783" s="6"/>
     </row>
-    <row r="784" spans="6:15" ht="14.25" customHeight="1">
+    <row r="784" spans="6:15">
       <c r="F784" s="7"/>
       <c r="G784" s="7"/>
       <c r="H784" s="7"/>
@@ -12673,7 +12645,7 @@
       <c r="N784" s="9"/>
       <c r="O784" s="6"/>
     </row>
-    <row r="785" spans="6:15" ht="14.25" customHeight="1">
+    <row r="785" spans="6:15">
       <c r="F785" s="7"/>
       <c r="G785" s="7"/>
       <c r="H785" s="7"/>
@@ -12685,7 +12657,7 @@
       <c r="N785" s="9"/>
       <c r="O785" s="6"/>
     </row>
-    <row r="786" spans="6:15" ht="14.25" customHeight="1">
+    <row r="786" spans="6:15">
       <c r="F786" s="7"/>
       <c r="G786" s="7"/>
       <c r="H786" s="7"/>
@@ -12697,7 +12669,7 @@
       <c r="N786" s="9"/>
       <c r="O786" s="6"/>
     </row>
-    <row r="787" spans="6:15" ht="14.25" customHeight="1">
+    <row r="787" spans="6:15">
       <c r="F787" s="7"/>
       <c r="G787" s="7"/>
       <c r="H787" s="7"/>
@@ -12709,7 +12681,7 @@
       <c r="N787" s="9"/>
       <c r="O787" s="6"/>
     </row>
-    <row r="788" spans="6:15" ht="14.25" customHeight="1">
+    <row r="788" spans="6:15">
       <c r="F788" s="7"/>
       <c r="G788" s="7"/>
       <c r="H788" s="7"/>
@@ -12721,7 +12693,7 @@
       <c r="N788" s="9"/>
       <c r="O788" s="6"/>
     </row>
-    <row r="789" spans="6:15" ht="14.25" customHeight="1">
+    <row r="789" spans="6:15">
       <c r="F789" s="7"/>
       <c r="G789" s="7"/>
       <c r="H789" s="7"/>
@@ -12733,7 +12705,7 @@
       <c r="N789" s="9"/>
       <c r="O789" s="6"/>
     </row>
-    <row r="790" spans="6:15" ht="14.25" customHeight="1">
+    <row r="790" spans="6:15">
       <c r="F790" s="7"/>
       <c r="G790" s="7"/>
       <c r="H790" s="7"/>
@@ -12745,7 +12717,7 @@
       <c r="N790" s="9"/>
       <c r="O790" s="6"/>
     </row>
-    <row r="791" spans="6:15" ht="14.25" customHeight="1">
+    <row r="791" spans="6:15">
       <c r="F791" s="7"/>
       <c r="G791" s="7"/>
       <c r="H791" s="7"/>
@@ -12757,7 +12729,7 @@
       <c r="N791" s="9"/>
       <c r="O791" s="6"/>
     </row>
-    <row r="792" spans="6:15" ht="14.25" customHeight="1">
+    <row r="792" spans="6:15">
       <c r="F792" s="7"/>
       <c r="G792" s="7"/>
       <c r="H792" s="7"/>
@@ -12769,7 +12741,7 @@
       <c r="N792" s="9"/>
       <c r="O792" s="6"/>
     </row>
-    <row r="793" spans="6:15" ht="14.25" customHeight="1">
+    <row r="793" spans="6:15">
       <c r="F793" s="7"/>
       <c r="G793" s="7"/>
       <c r="H793" s="7"/>
@@ -12781,7 +12753,7 @@
       <c r="N793" s="9"/>
       <c r="O793" s="6"/>
     </row>
-    <row r="794" spans="6:15" ht="14.25" customHeight="1">
+    <row r="794" spans="6:15">
       <c r="F794" s="7"/>
       <c r="G794" s="7"/>
       <c r="H794" s="7"/>
@@ -12793,7 +12765,7 @@
       <c r="N794" s="9"/>
       <c r="O794" s="6"/>
     </row>
-    <row r="795" spans="6:15" ht="14.25" customHeight="1">
+    <row r="795" spans="6:15">
       <c r="F795" s="7"/>
       <c r="G795" s="7"/>
       <c r="H795" s="7"/>
@@ -12805,7 +12777,7 @@
       <c r="N795" s="9"/>
       <c r="O795" s="6"/>
     </row>
-    <row r="796" spans="6:15" ht="14.25" customHeight="1">
+    <row r="796" spans="6:15">
       <c r="F796" s="7"/>
       <c r="G796" s="7"/>
       <c r="H796" s="7"/>
@@ -12817,7 +12789,7 @@
       <c r="N796" s="9"/>
       <c r="O796" s="6"/>
     </row>
-    <row r="797" spans="6:15" ht="14.25" customHeight="1">
+    <row r="797" spans="6:15">
       <c r="F797" s="7"/>
       <c r="G797" s="7"/>
       <c r="H797" s="7"/>
@@ -12829,7 +12801,7 @@
       <c r="N797" s="9"/>
       <c r="O797" s="6"/>
     </row>
-    <row r="798" spans="6:15" ht="14.25" customHeight="1">
+    <row r="798" spans="6:15">
       <c r="F798" s="7"/>
       <c r="G798" s="7"/>
       <c r="H798" s="7"/>
@@ -12841,7 +12813,7 @@
       <c r="N798" s="9"/>
       <c r="O798" s="6"/>
     </row>
-    <row r="799" spans="6:15" ht="14.25" customHeight="1">
+    <row r="799" spans="6:15">
       <c r="F799" s="7"/>
       <c r="G799" s="7"/>
       <c r="H799" s="7"/>
@@ -12853,7 +12825,7 @@
       <c r="N799" s="9"/>
       <c r="O799" s="6"/>
     </row>
-    <row r="800" spans="6:15" ht="14.25" customHeight="1">
+    <row r="800" spans="6:15">
       <c r="F800" s="7"/>
       <c r="G800" s="7"/>
       <c r="H800" s="7"/>
@@ -12865,7 +12837,7 @@
       <c r="N800" s="9"/>
       <c r="O800" s="6"/>
     </row>
-    <row r="801" spans="6:15" ht="14.25" customHeight="1">
+    <row r="801" spans="6:15">
       <c r="F801" s="7"/>
       <c r="G801" s="7"/>
       <c r="H801" s="7"/>
@@ -12877,7 +12849,7 @@
       <c r="N801" s="9"/>
       <c r="O801" s="6"/>
     </row>
-    <row r="802" spans="6:15" ht="14.25" customHeight="1">
+    <row r="802" spans="6:15">
       <c r="F802" s="7"/>
       <c r="G802" s="7"/>
       <c r="H802" s="7"/>
@@ -12889,7 +12861,7 @@
       <c r="N802" s="9"/>
       <c r="O802" s="6"/>
     </row>
-    <row r="803" spans="6:15" ht="14.25" customHeight="1">
+    <row r="803" spans="6:15">
       <c r="F803" s="7"/>
       <c r="G803" s="7"/>
       <c r="H803" s="7"/>
@@ -12901,7 +12873,7 @@
       <c r="N803" s="9"/>
       <c r="O803" s="6"/>
     </row>
-    <row r="804" spans="6:15" ht="14.25" customHeight="1">
+    <row r="804" spans="6:15">
       <c r="F804" s="7"/>
       <c r="G804" s="7"/>
       <c r="H804" s="7"/>
@@ -12913,7 +12885,7 @@
       <c r="N804" s="9"/>
       <c r="O804" s="6"/>
     </row>
-    <row r="805" spans="6:15" ht="14.25" customHeight="1">
+    <row r="805" spans="6:15">
       <c r="F805" s="7"/>
       <c r="G805" s="7"/>
       <c r="H805" s="7"/>
@@ -12925,7 +12897,7 @@
       <c r="N805" s="9"/>
       <c r="O805" s="6"/>
     </row>
-    <row r="806" spans="6:15" ht="14.25" customHeight="1">
+    <row r="806" spans="6:15">
       <c r="F806" s="7"/>
       <c r="G806" s="7"/>
       <c r="H806" s="7"/>
@@ -12937,7 +12909,7 @@
       <c r="N806" s="9"/>
       <c r="O806" s="6"/>
     </row>
-    <row r="807" spans="6:15" ht="14.25" customHeight="1">
+    <row r="807" spans="6:15">
       <c r="F807" s="7"/>
       <c r="G807" s="7"/>
       <c r="H807" s="7"/>
@@ -12949,7 +12921,7 @@
       <c r="N807" s="9"/>
       <c r="O807" s="6"/>
     </row>
-    <row r="808" spans="6:15" ht="14.25" customHeight="1">
+    <row r="808" spans="6:15">
       <c r="F808" s="7"/>
       <c r="G808" s="7"/>
       <c r="H808" s="7"/>
@@ -12961,7 +12933,7 @@
       <c r="N808" s="9"/>
       <c r="O808" s="6"/>
     </row>
-    <row r="809" spans="6:15" ht="14.25" customHeight="1">
+    <row r="809" spans="6:15">
       <c r="F809" s="7"/>
       <c r="G809" s="7"/>
       <c r="H809" s="7"/>
@@ -12973,7 +12945,7 @@
       <c r="N809" s="9"/>
       <c r="O809" s="6"/>
     </row>
-    <row r="810" spans="6:15" ht="14.25" customHeight="1">
+    <row r="810" spans="6:15">
       <c r="F810" s="7"/>
       <c r="G810" s="7"/>
       <c r="H810" s="7"/>
@@ -12985,7 +12957,7 @@
       <c r="N810" s="9"/>
       <c r="O810" s="6"/>
     </row>
-    <row r="811" spans="6:15" ht="14.25" customHeight="1">
+    <row r="811" spans="6:15">
       <c r="F811" s="7"/>
       <c r="G811" s="7"/>
       <c r="H811" s="7"/>
@@ -12997,7 +12969,7 @@
       <c r="N811" s="9"/>
       <c r="O811" s="6"/>
     </row>
-    <row r="812" spans="6:15" ht="14.25" customHeight="1">
+    <row r="812" spans="6:15">
       <c r="F812" s="7"/>
       <c r="G812" s="7"/>
       <c r="H812" s="7"/>
@@ -13009,7 +12981,7 @@
       <c r="N812" s="9"/>
       <c r="O812" s="6"/>
     </row>
-    <row r="813" spans="6:15" ht="14.25" customHeight="1">
+    <row r="813" spans="6:15">
       <c r="F813" s="7"/>
       <c r="G813" s="7"/>
       <c r="H813" s="7"/>
@@ -13021,7 +12993,7 @@
       <c r="N813" s="9"/>
       <c r="O813" s="6"/>
     </row>
-    <row r="814" spans="6:15" ht="14.25" customHeight="1">
+    <row r="814" spans="6:15">
       <c r="F814" s="7"/>
       <c r="G814" s="7"/>
       <c r="H814" s="7"/>
@@ -13033,7 +13005,7 @@
       <c r="N814" s="9"/>
       <c r="O814" s="6"/>
     </row>
-    <row r="815" spans="6:15" ht="14.25" customHeight="1">
+    <row r="815" spans="6:15">
       <c r="F815" s="7"/>
       <c r="G815" s="7"/>
       <c r="H815" s="7"/>
@@ -13045,7 +13017,7 @@
       <c r="N815" s="9"/>
       <c r="O815" s="6"/>
     </row>
-    <row r="816" spans="6:15" ht="14.25" customHeight="1">
+    <row r="816" spans="6:15">
       <c r="F816" s="7"/>
       <c r="G816" s="7"/>
       <c r="H816" s="7"/>
@@ -13057,7 +13029,7 @@
       <c r="N816" s="9"/>
       <c r="O816" s="6"/>
     </row>
-    <row r="817" spans="6:15" ht="14.25" customHeight="1">
+    <row r="817" spans="6:15">
       <c r="F817" s="7"/>
       <c r="G817" s="7"/>
       <c r="H817" s="7"/>
@@ -13069,7 +13041,7 @@
       <c r="N817" s="9"/>
       <c r="O817" s="6"/>
     </row>
-    <row r="818" spans="6:15" ht="14.25" customHeight="1">
+    <row r="818" spans="6:15">
       <c r="F818" s="7"/>
       <c r="G818" s="7"/>
       <c r="H818" s="7"/>
@@ -13081,7 +13053,7 @@
       <c r="N818" s="9"/>
       <c r="O818" s="6"/>
     </row>
-    <row r="819" spans="6:15" ht="14.25" customHeight="1">
+    <row r="819" spans="6:15">
       <c r="F819" s="7"/>
       <c r="G819" s="7"/>
       <c r="H819" s="7"/>
@@ -13093,7 +13065,7 @@
       <c r="N819" s="9"/>
       <c r="O819" s="6"/>
     </row>
-    <row r="820" spans="6:15" ht="14.25" customHeight="1">
+    <row r="820" spans="6:15">
       <c r="F820" s="7"/>
       <c r="G820" s="7"/>
       <c r="H820" s="7"/>
@@ -13105,7 +13077,7 @@
       <c r="N820" s="9"/>
       <c r="O820" s="6"/>
     </row>
-    <row r="821" spans="6:15" ht="14.25" customHeight="1">
+    <row r="821" spans="6:15">
       <c r="F821" s="7"/>
       <c r="G821" s="7"/>
       <c r="H821" s="7"/>
@@ -13117,7 +13089,7 @@
       <c r="N821" s="9"/>
       <c r="O821" s="6"/>
     </row>
-    <row r="822" spans="6:15" ht="14.25" customHeight="1">
+    <row r="822" spans="6:15">
       <c r="F822" s="7"/>
       <c r="G822" s="7"/>
       <c r="H822" s="7"/>
@@ -13129,7 +13101,7 @@
       <c r="N822" s="9"/>
       <c r="O822" s="6"/>
     </row>
-    <row r="823" spans="6:15" ht="14.25" customHeight="1">
+    <row r="823" spans="6:15">
       <c r="F823" s="7"/>
       <c r="G823" s="7"/>
       <c r="H823" s="7"/>
@@ -13141,7 +13113,7 @@
       <c r="N823" s="9"/>
       <c r="O823" s="6"/>
     </row>
-    <row r="824" spans="6:15" ht="14.25" customHeight="1">
+    <row r="824" spans="6:15">
       <c r="F824" s="7"/>
       <c r="G824" s="7"/>
       <c r="H824" s="7"/>
@@ -13153,7 +13125,7 @@
       <c r="N824" s="9"/>
       <c r="O824" s="6"/>
     </row>
-    <row r="825" spans="6:15" ht="14.25" customHeight="1">
+    <row r="825" spans="6:15">
       <c r="F825" s="7"/>
       <c r="G825" s="7"/>
       <c r="H825" s="7"/>
@@ -13165,7 +13137,7 @@
       <c r="N825" s="9"/>
       <c r="O825" s="6"/>
     </row>
-    <row r="826" spans="6:15" ht="14.25" customHeight="1">
+    <row r="826" spans="6:15">
       <c r="F826" s="7"/>
       <c r="G826" s="7"/>
       <c r="H826" s="7"/>
@@ -13177,7 +13149,7 @@
       <c r="N826" s="9"/>
       <c r="O826" s="6"/>
     </row>
-    <row r="827" spans="6:15" ht="14.25" customHeight="1">
+    <row r="827" spans="6:15">
       <c r="F827" s="7"/>
       <c r="G827" s="7"/>
       <c r="H827" s="7"/>
@@ -13189,7 +13161,7 @@
       <c r="N827" s="9"/>
       <c r="O827" s="6"/>
     </row>
-    <row r="828" spans="6:15" ht="14.25" customHeight="1">
+    <row r="828" spans="6:15">
       <c r="F828" s="7"/>
       <c r="G828" s="7"/>
       <c r="H828" s="7"/>
@@ -13201,7 +13173,7 @@
       <c r="N828" s="9"/>
       <c r="O828" s="6"/>
     </row>
-    <row r="829" spans="6:15" ht="14.25" customHeight="1">
+    <row r="829" spans="6:15">
       <c r="F829" s="7"/>
       <c r="G829" s="7"/>
       <c r="H829" s="7"/>
@@ -13213,7 +13185,7 @@
       <c r="N829" s="9"/>
       <c r="O829" s="6"/>
     </row>
-    <row r="830" spans="6:15" ht="14.25" customHeight="1">
+    <row r="830" spans="6:15">
       <c r="F830" s="7"/>
       <c r="G830" s="7"/>
       <c r="H830" s="7"/>
@@ -13225,7 +13197,7 @@
       <c r="N830" s="9"/>
       <c r="O830" s="6"/>
     </row>
-    <row r="831" spans="6:15" ht="14.25" customHeight="1">
+    <row r="831" spans="6:15">
       <c r="F831" s="7"/>
       <c r="G831" s="7"/>
       <c r="H831" s="7"/>
@@ -13237,7 +13209,7 @@
       <c r="N831" s="9"/>
       <c r="O831" s="6"/>
     </row>
-    <row r="832" spans="6:15" ht="14.25" customHeight="1">
+    <row r="832" spans="6:15">
       <c r="F832" s="7"/>
       <c r="G832" s="7"/>
       <c r="H832" s="7"/>
@@ -13249,7 +13221,7 @@
       <c r="N832" s="9"/>
       <c r="O832" s="6"/>
     </row>
-    <row r="833" spans="6:15" ht="14.25" customHeight="1">
+    <row r="833" spans="6:15">
       <c r="F833" s="7"/>
       <c r="G833" s="7"/>
       <c r="H833" s="7"/>
@@ -13261,7 +13233,7 @@
       <c r="N833" s="9"/>
       <c r="O833" s="6"/>
     </row>
-    <row r="834" spans="6:15" ht="14.25" customHeight="1">
+    <row r="834" spans="6:15">
       <c r="F834" s="7"/>
       <c r="G834" s="7"/>
       <c r="H834" s="7"/>
@@ -13273,7 +13245,7 @@
       <c r="N834" s="9"/>
       <c r="O834" s="6"/>
     </row>
-    <row r="835" spans="6:15" ht="14.25" customHeight="1">
+    <row r="835" spans="6:15">
       <c r="F835" s="7"/>
       <c r="G835" s="7"/>
       <c r="H835" s="7"/>
@@ -13285,7 +13257,7 @@
       <c r="N835" s="9"/>
       <c r="O835" s="6"/>
     </row>
-    <row r="836" spans="6:15" ht="14.25" customHeight="1">
+    <row r="836" spans="6:15">
       <c r="F836" s="7"/>
       <c r="G836" s="7"/>
       <c r="H836" s="7"/>
@@ -13297,7 +13269,7 @@
       <c r="N836" s="9"/>
       <c r="O836" s="6"/>
     </row>
-    <row r="837" spans="6:15" ht="14.25" customHeight="1">
+    <row r="837" spans="6:15">
       <c r="F837" s="7"/>
       <c r="G837" s="7"/>
       <c r="H837" s="7"/>
@@ -13309,7 +13281,7 @@
       <c r="N837" s="9"/>
       <c r="O837" s="6"/>
     </row>
-    <row r="838" spans="6:15" ht="14.25" customHeight="1">
+    <row r="838" spans="6:15">
       <c r="F838" s="7"/>
       <c r="G838" s="7"/>
       <c r="H838" s="7"/>
@@ -13321,7 +13293,7 @@
       <c r="N838" s="9"/>
       <c r="O838" s="6"/>
     </row>
-    <row r="839" spans="6:15" ht="14.25" customHeight="1">
+    <row r="839" spans="6:15">
       <c r="F839" s="7"/>
       <c r="G839" s="7"/>
       <c r="H839" s="7"/>
@@ -13333,7 +13305,7 @@
       <c r="N839" s="9"/>
       <c r="O839" s="6"/>
     </row>
-    <row r="840" spans="6:15" ht="14.25" customHeight="1">
+    <row r="840" spans="6:15">
       <c r="F840" s="7"/>
       <c r="G840" s="7"/>
       <c r="H840" s="7"/>
@@ -13345,7 +13317,7 @@
       <c r="N840" s="9"/>
       <c r="O840" s="6"/>
     </row>
-    <row r="841" spans="6:15" ht="14.25" customHeight="1">
+    <row r="841" spans="6:15">
       <c r="F841" s="7"/>
       <c r="G841" s="7"/>
       <c r="H841" s="7"/>
@@ -13357,7 +13329,7 @@
       <c r="N841" s="9"/>
       <c r="O841" s="6"/>
     </row>
-    <row r="842" spans="6:15" ht="14.25" customHeight="1">
+    <row r="842" spans="6:15">
       <c r="F842" s="7"/>
       <c r="G842" s="7"/>
       <c r="H842" s="7"/>
@@ -13369,7 +13341,7 @@
       <c r="N842" s="9"/>
       <c r="O842" s="6"/>
     </row>
-    <row r="843" spans="6:15" ht="14.25" customHeight="1">
+    <row r="843" spans="6:15">
       <c r="F843" s="7"/>
       <c r="G843" s="7"/>
       <c r="H843" s="7"/>
@@ -13381,7 +13353,7 @@
       <c r="N843" s="9"/>
       <c r="O843" s="6"/>
     </row>
-    <row r="844" spans="6:15" ht="14.25" customHeight="1">
+    <row r="844" spans="6:15">
       <c r="F844" s="7"/>
       <c r="G844" s="7"/>
       <c r="H844" s="7"/>
@@ -13393,7 +13365,7 @@
       <c r="N844" s="9"/>
       <c r="O844" s="6"/>
     </row>
-    <row r="845" spans="6:15" ht="14.25" customHeight="1">
+    <row r="845" spans="6:15">
       <c r="F845" s="7"/>
       <c r="G845" s="7"/>
       <c r="H845" s="7"/>
@@ -13405,7 +13377,7 @@
       <c r="N845" s="9"/>
       <c r="O845" s="6"/>
     </row>
-    <row r="846" spans="6:15" ht="14.25" customHeight="1">
+    <row r="846" spans="6:15">
       <c r="F846" s="7"/>
       <c r="G846" s="7"/>
       <c r="H846" s="7"/>
@@ -13417,7 +13389,7 @@
       <c r="N846" s="9"/>
       <c r="O846" s="6"/>
     </row>
-    <row r="847" spans="6:15" ht="14.25" customHeight="1">
+    <row r="847" spans="6:15">
       <c r="F847" s="7"/>
       <c r="G847" s="7"/>
       <c r="H847" s="7"/>
@@ -13429,7 +13401,7 @@
       <c r="N847" s="9"/>
       <c r="O847" s="6"/>
     </row>
-    <row r="848" spans="6:15" ht="14.25" customHeight="1">
+    <row r="848" spans="6:15">
       <c r="F848" s="7"/>
       <c r="G848" s="7"/>
       <c r="H848" s="7"/>
@@ -13441,7 +13413,7 @@
       <c r="N848" s="9"/>
       <c r="O848" s="6"/>
     </row>
-    <row r="849" spans="6:15" ht="14.25" customHeight="1">
+    <row r="849" spans="6:15">
       <c r="F849" s="7"/>
       <c r="G849" s="7"/>
       <c r="H849" s="7"/>
@@ -13453,7 +13425,7 @@
       <c r="N849" s="9"/>
       <c r="O849" s="6"/>
     </row>
-    <row r="850" spans="6:15" ht="14.25" customHeight="1">
+    <row r="850" spans="6:15">
       <c r="F850" s="7"/>
       <c r="G850" s="7"/>
       <c r="H850" s="7"/>
@@ -13465,7 +13437,7 @@
       <c r="N850" s="9"/>
       <c r="O850" s="6"/>
     </row>
-    <row r="851" spans="6:15" ht="14.25" customHeight="1">
+    <row r="851" spans="6:15">
       <c r="F851" s="7"/>
       <c r="G851" s="7"/>
       <c r="H851" s="7"/>
@@ -13477,7 +13449,7 @@
       <c r="N851" s="9"/>
       <c r="O851" s="6"/>
     </row>
-    <row r="852" spans="6:15" ht="14.25" customHeight="1">
+    <row r="852" spans="6:15">
       <c r="F852" s="7"/>
       <c r="G852" s="7"/>
       <c r="H852" s="7"/>
@@ -13489,7 +13461,7 @@
       <c r="N852" s="9"/>
       <c r="O852" s="6"/>
     </row>
-    <row r="853" spans="6:15" ht="14.25" customHeight="1">
+    <row r="853" spans="6:15">
       <c r="F853" s="7"/>
       <c r="G853" s="7"/>
       <c r="H853" s="7"/>
@@ -13501,7 +13473,7 @@
       <c r="N853" s="9"/>
       <c r="O853" s="6"/>
     </row>
-    <row r="854" spans="6:15" ht="14.25" customHeight="1">
+    <row r="854" spans="6:15">
       <c r="F854" s="7"/>
       <c r="G854" s="7"/>
       <c r="H854" s="7"/>
@@ -13513,7 +13485,7 @@
       <c r="N854" s="9"/>
       <c r="O854" s="6"/>
     </row>
-    <row r="855" spans="6:15" ht="14.25" customHeight="1">
+    <row r="855" spans="6:15">
       <c r="F855" s="7"/>
       <c r="G855" s="7"/>
       <c r="H855" s="7"/>
@@ -13525,7 +13497,7 @@
       <c r="N855" s="9"/>
       <c r="O855" s="6"/>
     </row>
-    <row r="856" spans="6:15" ht="14.25" customHeight="1">
+    <row r="856" spans="6:15">
       <c r="F856" s="7"/>
       <c r="G856" s="7"/>
       <c r="H856" s="7"/>
@@ -13537,7 +13509,7 @@
       <c r="N856" s="9"/>
       <c r="O856" s="6"/>
     </row>
-    <row r="857" spans="6:15" ht="14.25" customHeight="1">
+    <row r="857" spans="6:15">
       <c r="F857" s="7"/>
       <c r="G857" s="7"/>
       <c r="H857" s="7"/>
@@ -13549,7 +13521,7 @@
       <c r="N857" s="9"/>
       <c r="O857" s="6"/>
     </row>
-    <row r="858" spans="6:15" ht="14.25" customHeight="1">
+    <row r="858" spans="6:15">
       <c r="F858" s="7"/>
       <c r="G858" s="7"/>
       <c r="H858" s="7"/>
@@ -13561,7 +13533,7 @@
       <c r="N858" s="9"/>
       <c r="O858" s="6"/>
     </row>
-    <row r="859" spans="6:15" ht="14.25" customHeight="1">
+    <row r="859" spans="6:15">
       <c r="F859" s="7"/>
       <c r="G859" s="7"/>
       <c r="H859" s="7"/>
@@ -13573,7 +13545,7 @@
       <c r="N859" s="9"/>
       <c r="O859" s="6"/>
     </row>
-    <row r="860" spans="6:15" ht="14.25" customHeight="1">
+    <row r="860" spans="6:15">
       <c r="F860" s="7"/>
       <c r="G860" s="7"/>
       <c r="H860" s="7"/>
@@ -13585,7 +13557,7 @@
       <c r="N860" s="9"/>
       <c r="O860" s="6"/>
     </row>
-    <row r="861" spans="6:15" ht="14.25" customHeight="1">
+    <row r="861" spans="6:15">
       <c r="F861" s="7"/>
       <c r="G861" s="7"/>
       <c r="H861" s="7"/>
@@ -13597,7 +13569,7 @@
       <c r="N861" s="9"/>
       <c r="O861" s="6"/>
     </row>
-    <row r="862" spans="6:15" ht="14.25" customHeight="1">
+    <row r="862" spans="6:15">
       <c r="F862" s="7"/>
       <c r="G862" s="7"/>
       <c r="H862" s="7"/>
@@ -13609,7 +13581,7 @@
       <c r="N862" s="9"/>
       <c r="O862" s="6"/>
     </row>
-    <row r="863" spans="6:15" ht="14.25" customHeight="1">
+    <row r="863" spans="6:15">
       <c r="F863" s="7"/>
       <c r="G863" s="7"/>
       <c r="H863" s="7"/>
@@ -13621,7 +13593,7 @@
       <c r="N863" s="9"/>
       <c r="O863" s="6"/>
     </row>
-    <row r="864" spans="6:15" ht="14.25" customHeight="1">
+    <row r="864" spans="6:15">
       <c r="F864" s="7"/>
       <c r="G864" s="7"/>
       <c r="H864" s="7"/>
@@ -13633,7 +13605,7 @@
       <c r="N864" s="9"/>
       <c r="O864" s="6"/>
     </row>
-    <row r="865" spans="6:15" ht="14.25" customHeight="1">
+    <row r="865" spans="6:15">
       <c r="F865" s="7"/>
       <c r="G865" s="7"/>
       <c r="H865" s="7"/>
@@ -13645,7 +13617,7 @@
       <c r="N865" s="9"/>
       <c r="O865" s="6"/>
     </row>
-    <row r="866" spans="6:15" ht="14.25" customHeight="1">
+    <row r="866" spans="6:15">
       <c r="F866" s="7"/>
       <c r="G866" s="7"/>
       <c r="H866" s="7"/>
@@ -13657,7 +13629,7 @@
       <c r="N866" s="9"/>
       <c r="O866" s="6"/>
     </row>
-    <row r="867" spans="6:15" ht="14.25" customHeight="1">
+    <row r="867" spans="6:15">
       <c r="F867" s="7"/>
       <c r="G867" s="7"/>
       <c r="H867" s="7"/>
@@ -13669,7 +13641,7 @@
       <c r="N867" s="9"/>
       <c r="O867" s="6"/>
     </row>
-    <row r="868" spans="6:15" ht="14.25" customHeight="1">
+    <row r="868" spans="6:15">
       <c r="F868" s="7"/>
       <c r="G868" s="7"/>
       <c r="H868" s="7"/>
@@ -13681,7 +13653,7 @@
       <c r="N868" s="9"/>
       <c r="O868" s="6"/>
     </row>
-    <row r="869" spans="6:15" ht="14.25" customHeight="1">
+    <row r="869" spans="6:15">
       <c r="F869" s="7"/>
       <c r="G869" s="7"/>
       <c r="H869" s="7"/>
@@ -13693,7 +13665,7 @@
       <c r="N869" s="9"/>
       <c r="O869" s="6"/>
     </row>
-    <row r="870" spans="6:15" ht="14.25" customHeight="1">
+    <row r="870" spans="6:15">
       <c r="F870" s="7"/>
       <c r="G870" s="7"/>
       <c r="H870" s="7"/>
@@ -13705,7 +13677,7 @@
       <c r="N870" s="9"/>
       <c r="O870" s="6"/>
     </row>
-    <row r="871" spans="6:15" ht="14.25" customHeight="1">
+    <row r="871" spans="6:15">
       <c r="F871" s="7"/>
       <c r="G871" s="7"/>
       <c r="H871" s="7"/>
@@ -13717,7 +13689,7 @@
       <c r="N871" s="9"/>
       <c r="O871" s="6"/>
     </row>
-    <row r="872" spans="6:15" ht="14.25" customHeight="1">
+    <row r="872" spans="6:15">
       <c r="F872" s="7"/>
       <c r="G872" s="7"/>
       <c r="H872" s="7"/>
@@ -13729,7 +13701,7 @@
       <c r="N872" s="9"/>
       <c r="O872" s="6"/>
     </row>
-    <row r="873" spans="6:15" ht="14.25" customHeight="1">
+    <row r="873" spans="6:15">
       <c r="F873" s="7"/>
       <c r="G873" s="7"/>
       <c r="H873" s="7"/>
@@ -13796,100 +13768,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -14904,26 +14876,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - secondo invio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - terzo invio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE8B6D-C6FA-4E56-A8E9-01899782B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8795D3F8-1308-447E-8255-4E22EE642308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2652,7 +2652,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2801,7 +2801,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" thickBot="1">
+    <row r="9" spans="1:15" ht="38.25" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +3032,9 @@
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="135.75" thickBot="1">
@@ -3071,7 +3073,9 @@
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="N15" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="90.75" thickBot="1">
@@ -3104,7 +3108,9 @@
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
+      <c r="N16" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="120.75" thickBot="1">
@@ -3143,7 +3149,9 @@
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="N17" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="120.75" thickBot="1">
@@ -3182,7 +3190,9 @@
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
+      <c r="N18" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="120.75" thickBot="1">
@@ -3221,7 +3231,9 @@
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" ht="120.75" thickBot="1">
@@ -3260,7 +3272,9 @@
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" ht="120.75" thickBot="1">
@@ -3299,7 +3313,9 @@
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
+      <c r="N21" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="120.75" thickBot="1">
@@ -3338,7 +3354,9 @@
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="120.75" thickBot="1">
@@ -3377,7 +3395,9 @@
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="N23" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="120.75" thickBot="1">
@@ -3416,7 +3436,9 @@
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
+      <c r="N24" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" ht="120.75" thickBot="1">
@@ -3455,7 +3477,9 @@
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="20"/>
+      <c r="N25" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" ht="120.75" thickBot="1">
@@ -3494,7 +3518,9 @@
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="20"/>
+      <c r="N26" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" ht="120.75" thickBot="1">
@@ -3533,7 +3559,9 @@
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
+      <c r="N27" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" ht="120">
@@ -3572,7 +3600,9 @@
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="20"/>
+      <c r="N28" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15">

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - terzo invio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - quarto invio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8795D3F8-1308-447E-8255-4E22EE642308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838434DF-4A69-4E61-A39F-6A91EE4E6CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -554,61 +554,10 @@
     <t>10.6</t>
   </si>
   <si>
-    <t>2023-04-11T18:37:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:45:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:42:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:43:00Z</t>
-  </si>
-  <si>
     <t>2023-04-11T19:53:00Z</t>
   </si>
   <si>
     <t>2023-04-11T19:54:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:47:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:49:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:52:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:53:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:54:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:55:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:56:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:57:00Z</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:58:00Z</t>
-  </si>
-  <si>
-    <t>5f9457138da29580</t>
-  </si>
-  <si>
-    <t>3bd1b1fba81da84b</t>
-  </si>
-  <si>
-    <t>bdf6d19029dfa8ee</t>
-  </si>
-  <si>
-    <t>dae198d89ee6f4db</t>
   </si>
   <si>
     <t>73d5cf6cf5297b72</t>
@@ -617,88 +566,139 @@
     <t>5b2063e288e3f156</t>
   </si>
   <si>
-    <t>3edc6d889d0766d3</t>
+    <t>2023-04-26T20:42:00Z</t>
   </si>
   <si>
-    <t>b164e8a71a8dcb5c</t>
+    <t>94635735dfb1f0d7</t>
   </si>
   <si>
-    <t>de99d25224d6ebc8</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.de3e71bffe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>6180a2d2287e8758</t>
+    <t>2023-04-26T20:44:00Z</t>
   </si>
   <si>
-    <t>61f137fe294f2e7a</t>
+    <t>ab6c70b0d076375d</t>
   </si>
   <si>
-    <t>9d768808a0f2c347</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b7c9020ed9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>e85cad9d9a5e0726</t>
+    <t>2023-04-26T20:45:00Z</t>
   </si>
   <si>
-    <t>2056fdf0f33dfbc7</t>
+    <t>701e74e0fda5a5e4</t>
   </si>
   <si>
-    <t>e4ee95ca64be042f</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0d1a12eb4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>398971a8142112ef</t>
+    <t>902cef1b40feecc2</t>
   </si>
   <si>
-    <t>e3684f2a6d744253</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9b717f63e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>8c174d777aff6be4</t>
+    <t>2023-04-26T20:49:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7b32ba0bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b8d33fde8c17e4a6</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.09084d7608^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8fccb3c8a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.6533422bed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-26T20:50:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3d9e1be19b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>dcbafe4e900b1ecd</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.46f08847a6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2a05968c29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.173181412d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-26T20:51:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7803b4a9ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>488e0a3103680c1a</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9003febdd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ac5db74a8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.94889b2121^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-26T20:52:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d089aae03d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>8f368b84ae5712ef</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.56f5b0c609^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.44340bd3e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8f0b27c7c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-26T20:55:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.76e3924442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>0fa565016911c175</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.cece6fbffb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.fc369a7a51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f2a4aeeef5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-26T20:56:00Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c0b7772a89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b0448cc8972d8901</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9df0f966f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-26T20:57:00Z</t>
+  </si>
+  <si>
+    <t>2c3602dd4e0a05c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d10969dff9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8f8f32239d3f54f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.999ff87faf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-26T20:58:00Z</t>
+  </si>
+  <si>
+    <t>d55abcec4d97b2a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f0c1203d0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-26T20:59:00Z</t>
+  </si>
+  <si>
+    <t>08cb4f6038506df5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.eb7879dfca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c47dcd062c35718b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.29b9824f4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-26T21:00:00Z</t>
+  </si>
+  <si>
+    <t>caca83c80a92682f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e1dd3a20fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2649,10 +2649,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2801,7 +2801,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="38.25" thickBot="1">
+    <row r="9" spans="1:15" ht="19.5" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2865,16 +2865,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2902,16 +2902,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -2939,16 +2939,16 @@
         <v>33</v>
       </c>
       <c r="F12" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -2976,16 +2976,16 @@
         <v>35</v>
       </c>
       <c r="F13" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -3016,10 +3016,10 @@
         <v>45027</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>90</v>
@@ -3057,10 +3057,10 @@
         <v>45027</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>90</v>
@@ -3130,16 +3130,16 @@
         <v>48</v>
       </c>
       <c r="F17" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>91</v>
@@ -3171,16 +3171,16 @@
         <v>50</v>
       </c>
       <c r="F18" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>91</v>
@@ -3212,16 +3212,16 @@
         <v>52</v>
       </c>
       <c r="F19" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>134</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>91</v>
@@ -3253,16 +3253,16 @@
         <v>54</v>
       </c>
       <c r="F20" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J20" s="37" t="s">
         <v>91</v>
@@ -3294,16 +3294,16 @@
         <v>56</v>
       </c>
       <c r="F21" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J21" s="37" t="s">
         <v>91</v>
@@ -3335,16 +3335,16 @@
         <v>58</v>
       </c>
       <c r="F22" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J22" s="37" t="s">
         <v>91</v>
@@ -3376,16 +3376,16 @@
         <v>60</v>
       </c>
       <c r="F23" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J23" s="37" t="s">
         <v>91</v>
@@ -3417,16 +3417,16 @@
         <v>62</v>
       </c>
       <c r="F24" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J24" s="37" t="s">
         <v>91</v>
@@ -3458,16 +3458,16 @@
         <v>64</v>
       </c>
       <c r="F25" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J25" s="37" t="s">
         <v>91</v>
@@ -3499,16 +3499,16 @@
         <v>66</v>
       </c>
       <c r="F26" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J26" s="37" t="s">
         <v>91</v>
@@ -3540,16 +3540,16 @@
         <v>68</v>
       </c>
       <c r="F27" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J27" s="37" t="s">
         <v>91</v>
@@ -3581,13 +3581,13 @@
         <v>70</v>
       </c>
       <c r="F28" s="17">
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>143</v>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\pdf - quarto invio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\GATEWAY - OK\A1#111DEDALUS0000\DEDALUS\TCWA\10.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838434DF-4A69-4E61-A39F-6A91EE4E6CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46470C91-33D7-4873-9DBF-DDDB0EBC6ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -536,13 +536,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Viene segnalato all'utente un errore di timeout, chidendo conferma se proseguire con la validazione del documento o riprovare più tardi</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'utente l'errore, chidendo conferma se proseguire con la validazione del documento o annullare l'operazione per correggere il problema</t>
   </si>
   <si>
     <t>Dedalus</t>
@@ -699,6 +693,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e1dd3a20fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o se annullare l'operazione per correggere il problema. Il sistema di CCE segnala l'errore affinchè l'utente possa correggere i dati errati/mancanti o, se impossibilitato a farlo per mancanza di autorizzazioni specifiche, segnalarlo al personale del CED affinchè intervenga direttamente. Il perimetro di azione dell'utente della CCE, ovvero la sua capacità di risoluzione di eventuali errori, dipende dalla configurazione dell'impianto e dalle policy concordate con il cliente e con i gestori dei SW dai quali vengono recuperati i dati (es. MPI, ADT, CUP, etc)</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. La gestione dell'errore è a carico del sistema di pubblicazione, ovvero alla piattaforma ESB in uso. Trattandosi di errore non dipendente dall'operatore, la sua correzione sarà a carico del gestore del sistema pubblicante (fornitore e/o CED ospedaliero)</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. La gestione dell'errore è a carico del sistema di pubblicazione, ovvero alla piattaforma ESB in uso, che può gestire sia successivi retry automatici (code) o il reinvio manuale a carico di operatore tecnico autorizzato (CED/assistenza).</t>
   </si>
 </sst>
 </file>
@@ -1579,11 +1582,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -2649,25 +2652,25 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
-    <col min="6" max="9" width="33.28515625" customWidth="1"/>
-    <col min="10" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="14" width="36.42578125" customWidth="1"/>
-    <col min="15" max="15" width="98.5703125" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" customWidth="1"/>
+    <col min="6" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="14" width="36.44140625" customWidth="1"/>
+    <col min="15" max="15" width="98.5546875" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2682,13 +2685,13 @@
       <c r="N1" s="9"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75">
+    <row r="2" spans="1:15" ht="18">
       <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="47"/>
       <c r="F2" s="7"/>
@@ -2702,13 +2705,13 @@
       <c r="N2" s="9"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="47"/>
       <c r="F3" s="7"/>
@@ -2722,11 +2725,11 @@
       <c r="N3" s="9"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="15.6">
       <c r="A4" s="51"/>
       <c r="B4" s="52"/>
       <c r="C4" s="55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="2"/>
@@ -2741,11 +2744,11 @@
       <c r="N4" s="9"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="15.6">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="47"/>
       <c r="F5" s="7"/>
@@ -2789,7 +2792,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2801,7 +2804,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" thickBot="1">
+    <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="150.75" thickBot="1">
+    <row r="10" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2868,13 +2871,13 @@
         <v>45042</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>101</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2885,7 +2888,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="150.75" thickBot="1">
+    <row r="11" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2905,13 +2908,13 @@
         <v>45042</v>
       </c>
       <c r="G11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>104</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -2922,7 +2925,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="40"/>
     </row>
-    <row r="12" spans="1:15" ht="150.75" thickBot="1">
+    <row r="12" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2942,13 +2945,13 @@
         <v>45042</v>
       </c>
       <c r="G12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -2959,7 +2962,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="40"/>
     </row>
-    <row r="13" spans="1:15" ht="150.75" thickBot="1">
+    <row r="13" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2979,13 +2982,13 @@
         <v>45042</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -2996,7 +2999,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="40"/>
     </row>
-    <row r="14" spans="1:15" ht="120.75" thickBot="1">
+    <row r="14" spans="1:15" ht="202.2" thickBot="1">
       <c r="A14" s="14">
         <v>29</v>
       </c>
@@ -3016,16 +3019,16 @@
         <v>45027</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="38" t="s">
-        <v>97</v>
-      </c>
       <c r="I14" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>40</v>
@@ -3037,7 +3040,7 @@
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="135.75" thickBot="1">
+    <row r="15" spans="1:15" ht="202.2" thickBot="1">
       <c r="A15" s="14">
         <v>37</v>
       </c>
@@ -3057,16 +3060,16 @@
         <v>45027</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>98</v>
-      </c>
       <c r="I15" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>40</v>
@@ -3078,7 +3081,7 @@
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="90.75" thickBot="1">
+    <row r="16" spans="1:15" ht="202.2" thickBot="1">
       <c r="A16" s="14">
         <v>45</v>
       </c>
@@ -3100,8 +3103,8 @@
       <c r="G16" s="39"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="19" t="s">
-        <v>89</v>
+      <c r="J16" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>40</v>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="120.75" thickBot="1">
+    <row r="17" spans="1:15" ht="331.8" thickBot="1">
       <c r="A17" s="14">
         <v>63</v>
       </c>
@@ -3133,16 +3136,16 @@
         <v>45042</v>
       </c>
       <c r="G17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>112</v>
-      </c>
       <c r="J17" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>40</v>
@@ -3154,7 +3157,7 @@
       </c>
       <c r="O17" s="40"/>
     </row>
-    <row r="18" spans="1:15" ht="120.75" thickBot="1">
+    <row r="18" spans="1:15" ht="331.8" thickBot="1">
       <c r="A18" s="14">
         <v>64</v>
       </c>
@@ -3174,16 +3177,16 @@
         <v>45042</v>
       </c>
       <c r="G18" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>115</v>
-      </c>
       <c r="J18" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>40</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="120.75" thickBot="1">
+    <row r="19" spans="1:15" ht="331.8" thickBot="1">
       <c r="A19" s="14">
         <v>65</v>
       </c>
@@ -3215,16 +3218,16 @@
         <v>45042</v>
       </c>
       <c r="G19" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>118</v>
-      </c>
       <c r="J19" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>40</v>
@@ -3236,7 +3239,7 @@
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="120.75" thickBot="1">
+    <row r="20" spans="1:15" ht="331.8" thickBot="1">
       <c r="A20" s="14">
         <v>66</v>
       </c>
@@ -3256,16 +3259,16 @@
         <v>45042</v>
       </c>
       <c r="G20" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>121</v>
-      </c>
       <c r="J20" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K20" s="37" t="s">
         <v>40</v>
@@ -3277,7 +3280,7 @@
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="120.75" thickBot="1">
+    <row r="21" spans="1:15" ht="331.8" thickBot="1">
       <c r="A21" s="14">
         <v>67</v>
       </c>
@@ -3297,16 +3300,16 @@
         <v>45042</v>
       </c>
       <c r="G21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="J21" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>40</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="120.75" thickBot="1">
+    <row r="22" spans="1:15" ht="331.8" thickBot="1">
       <c r="A22" s="14">
         <v>68</v>
       </c>
@@ -3338,16 +3341,16 @@
         <v>45042</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="J22" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>40</v>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="120.75" thickBot="1">
+    <row r="23" spans="1:15" ht="331.8" thickBot="1">
       <c r="A23" s="14">
         <v>69</v>
       </c>
@@ -3379,16 +3382,16 @@
         <v>45042</v>
       </c>
       <c r="G23" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="J23" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>40</v>
@@ -3400,7 +3403,7 @@
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="120.75" thickBot="1">
+    <row r="24" spans="1:15" ht="331.8" thickBot="1">
       <c r="A24" s="14">
         <v>70</v>
       </c>
@@ -3420,16 +3423,16 @@
         <v>45042</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>40</v>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="120.75" thickBot="1">
+    <row r="25" spans="1:15" ht="331.8" thickBot="1">
       <c r="A25" s="14">
         <v>71</v>
       </c>
@@ -3461,16 +3464,16 @@
         <v>45042</v>
       </c>
       <c r="G25" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="J25" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>40</v>
@@ -3482,7 +3485,7 @@
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="120.75" thickBot="1">
+    <row r="26" spans="1:15" ht="331.8" thickBot="1">
       <c r="A26" s="14">
         <v>72</v>
       </c>
@@ -3502,16 +3505,16 @@
         <v>45042</v>
       </c>
       <c r="G26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="J26" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>40</v>
@@ -3523,7 +3526,7 @@
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="120.75" thickBot="1">
+    <row r="27" spans="1:15" ht="331.8" thickBot="1">
       <c r="A27" s="14">
         <v>73</v>
       </c>
@@ -3543,16 +3546,16 @@
         <v>45042</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>40</v>
@@ -3564,7 +3567,7 @@
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="120">
+    <row r="28" spans="1:15" ht="331.2">
       <c r="A28" s="14">
         <v>74</v>
       </c>
@@ -3584,16 +3587,16 @@
         <v>45042</v>
       </c>
       <c r="G28" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="J28" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>91</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>40</v>
@@ -13787,13 +13790,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -14897,11 +14900,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dedalusspa-my.sharepoint.com/personal/giorgio_torchiana_dedalus_eu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\GATEWAY\A1#111DEDALUS0000\DEDALUS\TCWA\10.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{C3124943-8B2D-41E7-BF39-45DB261589A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8250CEA-637F-46DF-80C0-FD216645C177}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83203273-0B73-4FD7-8F3D-1EBA8920420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -503,9 +503,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>subject_application_vendor: Dedalus</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -1408,6 +1405,9 @@
   <si>
     <t>Il test riguarda un caso sovrapponibile al CT1, corrispondente al set minimo di informazioni presenti nel CDA e richieste da HL7 Italia</t>
   </si>
+  <si>
+    <t>subject_application_vendor: DEDALUS</t>
+  </si>
 </sst>
 </file>
 
@@ -1416,11 +1416,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1739,70 +1746,70 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1811,7 +1818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1823,108 +1830,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,10 +2008,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4397,7 +4400,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,14 +4446,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="59"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4468,14 +4471,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="66"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="67"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4493,12 +4496,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="66"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="67"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4517,12 +4520,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="66"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="67"/>
       <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4541,8 +4544,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4670,22 +4673,22 @@
         <v>54</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="F10" s="27">
         <v>45258</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>324</v>
-      </c>
       <c r="I10" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>55</v>
@@ -4698,13 +4701,13 @@
         <v>55</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="28" t="s">
         <v>107</v>
@@ -4726,22 +4729,22 @@
         <v>54</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="F11" s="27">
         <v>45258</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>55</v>
@@ -4754,13 +4757,13 @@
         <v>55</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="28" t="s">
         <v>107</v>
@@ -4782,10 +4785,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -4800,13 +4803,13 @@
         <v>55</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="28" t="s">
         <v>107</v>
@@ -4828,10 +4831,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -4841,7 +4844,7 @@
         <v>109</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -4866,10 +4869,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -4879,7 +4882,7 @@
         <v>109</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -4904,10 +4907,10 @@
         <v>54</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -4917,7 +4920,7 @@
         <v>109</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -4942,10 +4945,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -4955,7 +4958,7 @@
         <v>109</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -4980,22 +4983,22 @@
         <v>54</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="F17" s="27">
         <v>45258</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="53" t="s">
         <v>279</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>280</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>55</v>
@@ -5008,13 +5011,13 @@
         <v>55</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="28" t="s">
         <v>107</v>
@@ -5036,22 +5039,22 @@
         <v>54</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="F18" s="27">
         <v>45258</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="H18" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="53" t="s">
         <v>282</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>283</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>55</v>
@@ -5064,13 +5067,13 @@
         <v>55</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>107</v>
@@ -5092,22 +5095,22 @@
         <v>54</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>133</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="F19" s="27">
         <v>45258</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="53" t="s">
         <v>285</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>286</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>55</v>
@@ -5120,13 +5123,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="28" t="s">
         <v>107</v>
@@ -5148,22 +5151,22 @@
         <v>54</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>135</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>136</v>
       </c>
       <c r="F20" s="27">
         <v>45258</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" s="53" t="s">
         <v>288</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>289</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>55</v>
@@ -5176,13 +5179,13 @@
         <v>55</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O20" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="28" t="s">
         <v>107</v>
@@ -5204,22 +5207,22 @@
         <v>54</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="F21" s="27">
         <v>45258</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="53" t="s">
         <v>291</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>292</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>55</v>
@@ -5232,13 +5235,13 @@
         <v>55</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="28" t="s">
         <v>107</v>
@@ -5260,22 +5263,22 @@
         <v>54</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="F22" s="27">
         <v>45258</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="I22" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>295</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>55</v>
@@ -5288,13 +5291,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="28" t="s">
         <v>107</v>
@@ -5316,22 +5319,22 @@
         <v>54</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>142</v>
       </c>
       <c r="F23" s="27">
         <v>45258</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="53" t="s">
         <v>296</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>297</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>55</v>
@@ -5344,13 +5347,13 @@
         <v>55</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>107</v>
@@ -5372,22 +5375,22 @@
         <v>54</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="F24" s="27">
         <v>45258</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="H24" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" s="53" t="s">
         <v>299</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>300</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>55</v>
@@ -5400,13 +5403,13 @@
         <v>55</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="28" t="s">
         <v>107</v>
@@ -5428,22 +5431,22 @@
         <v>54</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="F25" s="27">
         <v>45258</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H25" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="I25" s="53" t="s">
         <v>302</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>303</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>55</v>
@@ -5456,13 +5459,13 @@
         <v>55</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="28" t="s">
         <v>107</v>
@@ -5484,22 +5487,22 @@
         <v>54</v>
       </c>
       <c r="D26" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="F26" s="27">
         <v>45258</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="H26" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" s="53" t="s">
         <v>305</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>306</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>55</v>
@@ -5512,13 +5515,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="28" t="s">
         <v>107</v>
@@ -5540,22 +5543,22 @@
         <v>54</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="F27" s="27">
         <v>45258</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="H27" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" s="53" t="s">
         <v>308</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>309</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>55</v>
@@ -5568,13 +5571,13 @@
         <v>55</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="28" t="s">
         <v>107</v>
@@ -5596,22 +5599,22 @@
         <v>54</v>
       </c>
       <c r="D28" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="F28" s="27">
         <v>45258</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H28" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" s="53" t="s">
         <v>311</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>312</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>55</v>
@@ -5624,13 +5627,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="28" t="s">
         <v>107</v>
@@ -5652,22 +5655,22 @@
         <v>54</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="F29" s="27">
         <v>45258</v>
       </c>
       <c r="G29" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="I29" s="53" t="s">
         <v>314</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>315</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>55</v>
@@ -5680,13 +5683,13 @@
         <v>55</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="28" t="s">
         <v>107</v>
@@ -5708,10 +5711,10 @@
         <v>54</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>157</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -5721,7 +5724,7 @@
         <v>109</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -5746,10 +5749,10 @@
         <v>54</v>
       </c>
       <c r="D31" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>159</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -5759,7 +5762,7 @@
         <v>109</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -5784,10 +5787,10 @@
         <v>54</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>161</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -5797,7 +5800,7 @@
         <v>109</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -5822,10 +5825,10 @@
         <v>54</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>162</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
@@ -5835,7 +5838,7 @@
         <v>109</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -5860,22 +5863,22 @@
         <v>54</v>
       </c>
       <c r="D34" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="F34" s="27">
         <v>45258</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="H34" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="I34" s="53" t="s">
         <v>316</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>317</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>55</v>
@@ -5888,13 +5891,13 @@
         <v>55</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O34" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="28" t="s">
         <v>107</v>
@@ -5916,22 +5919,22 @@
         <v>54</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>166</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>167</v>
       </c>
       <c r="F35" s="27">
         <v>45258</v>
       </c>
       <c r="G35" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="I35" s="53" t="s">
         <v>319</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>320</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>55</v>
@@ -5944,13 +5947,13 @@
         <v>55</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O35" s="28" t="s">
         <v>55</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q35" s="28" t="s">
         <v>107</v>
@@ -5972,22 +5975,22 @@
         <v>54</v>
       </c>
       <c r="D36" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="F36" s="27">
         <v>45258</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H36" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" s="36" t="s">
         <v>321</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>322</v>
       </c>
       <c r="J36" s="37" t="s">
         <v>55</v>
@@ -6018,22 +6021,22 @@
         <v>47</v>
       </c>
       <c r="D37" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="41" t="s">
         <v>188</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>189</v>
       </c>
       <c r="F37" s="42">
         <v>45257</v>
       </c>
       <c r="G37" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="44" t="s">
         <v>232</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>233</v>
       </c>
       <c r="J37" s="45" t="s">
         <v>55</v>
@@ -6064,22 +6067,22 @@
         <v>47</v>
       </c>
       <c r="D38" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="41" t="s">
         <v>190</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>191</v>
       </c>
       <c r="F38" s="42">
         <v>45257</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H38" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I38" s="44" t="s">
         <v>234</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>235</v>
       </c>
       <c r="J38" s="45" t="s">
         <v>55</v>
@@ -6110,22 +6113,22 @@
         <v>47</v>
       </c>
       <c r="D39" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>192</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>193</v>
       </c>
       <c r="F39" s="42">
         <v>45257</v>
       </c>
       <c r="G39" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="I39" s="42" t="s">
         <v>238</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>239</v>
       </c>
       <c r="J39" s="45" t="s">
         <v>55</v>
@@ -6156,22 +6159,22 @@
         <v>47</v>
       </c>
       <c r="D40" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="41" t="s">
         <v>194</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>195</v>
       </c>
       <c r="F40" s="42">
         <v>45257</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H40" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="44" t="s">
         <v>240</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>241</v>
       </c>
       <c r="J40" s="45" t="s">
         <v>55</v>
@@ -6202,22 +6205,22 @@
         <v>47</v>
       </c>
       <c r="D41" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="41" t="s">
         <v>196</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>197</v>
       </c>
       <c r="F41" s="42">
         <v>45257</v>
       </c>
       <c r="G41" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>274</v>
-      </c>
       <c r="I41" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J41" s="45" t="s">
         <v>55</v>
@@ -6230,13 +6233,13 @@
         <v>55</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O41" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q41" s="28" t="s">
         <v>107</v>
@@ -6258,22 +6261,22 @@
         <v>47</v>
       </c>
       <c r="D42" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="41" t="s">
         <v>199</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>200</v>
       </c>
       <c r="F42" s="42">
         <v>45257</v>
       </c>
       <c r="G42" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="H42" s="44" t="s">
-        <v>276</v>
-      </c>
       <c r="I42" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J42" s="45" t="s">
         <v>55</v>
@@ -6286,13 +6289,13 @@
         <v>55</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O42" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q42" s="28" t="s">
         <v>107</v>
@@ -6314,10 +6317,10 @@
         <v>47</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>
@@ -6334,13 +6337,13 @@
         <v>55</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O43" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q43" s="28" t="s">
         <v>107</v>
@@ -6362,22 +6365,22 @@
         <v>47</v>
       </c>
       <c r="D44" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>204</v>
       </c>
       <c r="F44" s="42">
         <v>45257</v>
       </c>
       <c r="G44" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="I44" s="44" t="s">
         <v>243</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>244</v>
       </c>
       <c r="J44" s="45" t="s">
         <v>55</v>
@@ -6390,13 +6393,13 @@
         <v>55</v>
       </c>
       <c r="N44" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O44" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q44" s="28" t="s">
         <v>107</v>
@@ -6418,22 +6421,22 @@
         <v>47</v>
       </c>
       <c r="D45" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="41" t="s">
         <v>205</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>206</v>
       </c>
       <c r="F45" s="42">
         <v>45257</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H45" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="44" t="s">
         <v>245</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>246</v>
       </c>
       <c r="J45" s="45" t="s">
         <v>55</v>
@@ -6446,13 +6449,13 @@
         <v>55</v>
       </c>
       <c r="N45" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O45" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q45" s="28" t="s">
         <v>107</v>
@@ -6474,22 +6477,22 @@
         <v>47</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="41" t="s">
         <v>207</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>208</v>
       </c>
       <c r="F46" s="42">
         <v>45257</v>
       </c>
       <c r="G46" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="H46" s="44" t="s">
+      <c r="I46" s="44" t="s">
         <v>248</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>249</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>55</v>
@@ -6502,13 +6505,13 @@
         <v>55</v>
       </c>
       <c r="N46" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O46" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q46" s="28" t="s">
         <v>107</v>
@@ -6530,22 +6533,22 @@
         <v>47</v>
       </c>
       <c r="D47" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="41" t="s">
         <v>209</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>210</v>
       </c>
       <c r="F47" s="42">
         <v>45257</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>55</v>
@@ -6558,13 +6561,13 @@
         <v>55</v>
       </c>
       <c r="N47" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O47" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q47" s="28" t="s">
         <v>107</v>
@@ -6586,22 +6589,22 @@
         <v>47</v>
       </c>
       <c r="D48" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="41" t="s">
         <v>211</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>212</v>
       </c>
       <c r="F48" s="42">
         <v>45257</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H48" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="44" t="s">
         <v>253</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>254</v>
       </c>
       <c r="J48" s="45" t="s">
         <v>55</v>
@@ -6614,13 +6617,13 @@
         <v>55</v>
       </c>
       <c r="N48" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O48" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q48" s="28" t="s">
         <v>107</v>
@@ -6642,22 +6645,22 @@
         <v>47</v>
       </c>
       <c r="D49" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="41" t="s">
         <v>213</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>214</v>
       </c>
       <c r="F49" s="42">
         <v>45257</v>
       </c>
       <c r="G49" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="I49" s="44" t="s">
         <v>256</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>257</v>
       </c>
       <c r="J49" s="45" t="s">
         <v>55</v>
@@ -6670,13 +6673,13 @@
         <v>55</v>
       </c>
       <c r="N49" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O49" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P49" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q49" s="28" t="s">
         <v>107</v>
@@ -6698,22 +6701,22 @@
         <v>47</v>
       </c>
       <c r="D50" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="41" t="s">
         <v>215</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>216</v>
       </c>
       <c r="F50" s="42">
         <v>45257</v>
       </c>
       <c r="G50" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="H50" s="44" t="s">
+      <c r="I50" s="44" t="s">
         <v>259</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>260</v>
       </c>
       <c r="J50" s="45" t="s">
         <v>55</v>
@@ -6726,13 +6729,13 @@
         <v>55</v>
       </c>
       <c r="N50" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O50" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q50" s="28" t="s">
         <v>107</v>
@@ -6754,22 +6757,22 @@
         <v>47</v>
       </c>
       <c r="D51" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="41" t="s">
         <v>217</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>218</v>
       </c>
       <c r="F51" s="42">
         <v>45257</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H51" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="I51" s="44" t="s">
         <v>261</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>262</v>
       </c>
       <c r="J51" s="45" t="s">
         <v>55</v>
@@ -6782,13 +6785,13 @@
         <v>55</v>
       </c>
       <c r="N51" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O51" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q51" s="28" t="s">
         <v>107</v>
@@ -6810,22 +6813,22 @@
         <v>47</v>
       </c>
       <c r="D52" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="41" t="s">
         <v>219</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>220</v>
       </c>
       <c r="F52" s="42">
         <v>45257</v>
       </c>
       <c r="G52" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="I52" s="44" t="s">
         <v>264</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>265</v>
       </c>
       <c r="J52" s="45" t="s">
         <v>55</v>
@@ -6838,13 +6841,13 @@
         <v>55</v>
       </c>
       <c r="N52" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O52" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q52" s="28" t="s">
         <v>107</v>
@@ -6866,22 +6869,22 @@
         <v>47</v>
       </c>
       <c r="D53" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="41" t="s">
         <v>221</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>222</v>
       </c>
       <c r="F53" s="42">
         <v>45257</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H53" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="I53" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="J53" s="45" t="s">
         <v>55</v>
@@ -6894,13 +6897,13 @@
         <v>55</v>
       </c>
       <c r="N53" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O53" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q53" s="28" t="s">
         <v>107</v>
@@ -6922,22 +6925,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="41" t="s">
         <v>223</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>224</v>
       </c>
       <c r="F54" s="42">
         <v>45257</v>
       </c>
       <c r="G54" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="I54" s="44" t="s">
         <v>269</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>270</v>
       </c>
       <c r="J54" s="45" t="s">
         <v>55</v>
@@ -6950,13 +6953,13 @@
         <v>55</v>
       </c>
       <c r="N54" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O54" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q54" s="28" t="s">
         <v>107</v>
@@ -6978,22 +6981,22 @@
         <v>47</v>
       </c>
       <c r="D55" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="41" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>226</v>
       </c>
       <c r="F55" s="42">
         <v>45257</v>
       </c>
       <c r="G55" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H55" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" s="44" t="s">
         <v>271</v>
-      </c>
-      <c r="I55" s="44" t="s">
-        <v>272</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>55</v>
@@ -7006,13 +7009,13 @@
         <v>55</v>
       </c>
       <c r="N55" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O55" s="45" t="s">
         <v>55</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q55" s="28" t="s">
         <v>107</v>
@@ -7034,10 +7037,10 @@
         <v>47</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="41" t="s">
         <v>229</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>230</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="43"/>
@@ -7047,7 +7050,7 @@
         <v>109</v>
       </c>
       <c r="K56" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TCWA/10.6/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento TCWA\GATEWAY\A1#111DEDALUS0000\DEDALUS\TCWA\10.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83203273-0B73-4FD7-8F3D-1EBA8920420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6965DB6-0674-4D47-92E5-B6E6E678B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="334">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1115,144 +1115,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e1fded846605a755</t>
-  </si>
-  <si>
-    <t>2023-11-27T07:56:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7c8699e8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>301ed8bed57cd070</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e0e014e29b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T07:57:00Z</t>
-  </si>
-  <si>
-    <t>2023-11-27T07:58:00Z</t>
-  </si>
-  <si>
-    <t>08fd0e5781e6f228</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.884112277a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>47afb667f660363d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.def277fdd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:01:00Z</t>
-  </si>
-  <si>
-    <t>82ec7403b36162e9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.073a805d0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c4e07f697a6491f2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.147ec8185a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:02:00Z</t>
-  </si>
-  <si>
-    <t>239156f12ef523b9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c7910275ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>29f1ed9c29426792</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.985479e0cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:03:00Z</t>
-  </si>
-  <si>
-    <t>9dac3cfa9872f22d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d48273d52f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:04:00Z</t>
-  </si>
-  <si>
-    <t>0f1f6f201b06929b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a249f659db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:05:00Z</t>
-  </si>
-  <si>
-    <t>6531fab30cdee09a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0390c008a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c519e5c60df16856</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f1c5fb8615^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:06:00Z</t>
-  </si>
-  <si>
-    <t>614faff399bf600a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.13cb89238b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2d348f1a149ce18d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5a9b727578^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:07:00Z</t>
-  </si>
-  <si>
-    <t>d0cbaef56666ba43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b9fe4356b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8a1571ccd8666758</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c78ec7d7e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:11:00Z</t>
-  </si>
-  <si>
-    <t>8412d54b7e474291</t>
-  </si>
-  <si>
-    <t>2023-11-27T08:12:00Z</t>
-  </si>
-  <si>
-    <t>4a0cd4d2a2bd992d</t>
-  </si>
-  <si>
     <t>subject_application_id: TCWA</t>
   </si>
   <si>
@@ -1407,6 +1269,162 @@
   </si>
   <si>
     <t>subject_application_vendor: DEDALUS</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:25:00Z</t>
+  </si>
+  <si>
+    <t>a387c81bc7114334</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7b79516d50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4f1b84fdaad4fc93</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:27:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.881e5e4526^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a73385d2da8cb2ca</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:29:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.97dce2c68a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3f8145ba5e494757</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3dabec9f8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:30:00Z</t>
+  </si>
+  <si>
+    <t>e526e2cbd63f1da4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.48f15faa30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:32:00Z</t>
+  </si>
+  <si>
+    <t>805b85e39edf1e12</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:35:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2f9032f30c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a4a236023c5359e7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.418c75f378^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:36:00Z</t>
+  </si>
+  <si>
+    <t>01afa59ab0b515ab</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:37:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.47366ceeb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5010a7bdb7dce6f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e8caebfb12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:39:00Z</t>
+  </si>
+  <si>
+    <t>01788570fa7ed136</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f46f2c5193^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:40:00Z</t>
+  </si>
+  <si>
+    <t>e9bb63b8e3655966</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9b76a8e2ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:41:00Z</t>
+  </si>
+  <si>
+    <t>1bd11c4941768f3e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.cbc1792e60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:42:00Z</t>
+  </si>
+  <si>
+    <t>0371b0659d5db90e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c20d53ab0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:43:00Z</t>
+  </si>
+  <si>
+    <t>e1b65a7e1cd89218</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.245928bccd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:44:00Z</t>
+  </si>
+  <si>
+    <t>cc8cb8870acb2274</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7ea602615f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:45:00Z</t>
+  </si>
+  <si>
+    <t>90934e2ce98c7ae5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.8ed272456b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:46:00Z</t>
+  </si>
+  <si>
+    <t>5be37bee10abe192</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:48:00Z</t>
+  </si>
+  <si>
+    <t>20b1dce8c836a998</t>
+  </si>
+  <si>
+    <t>2023-11-28T18:49:00Z</t>
   </si>
 </sst>
 </file>
@@ -4393,14 +4411,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4493,7 @@
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="66" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="D3" s="67"/>
       <c r="F3" s="12"/>
@@ -4499,7 +4516,7 @@
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="66" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="4"/>
@@ -4523,7 +4540,7 @@
       <c r="A5" s="64"/>
       <c r="B5" s="65"/>
       <c r="C5" s="66" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="21"/>
@@ -4682,10 +4699,10 @@
         <v>45258</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>110</v>
@@ -4738,10 +4755,10 @@
         <v>45258</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>110</v>
@@ -4992,13 +5009,13 @@
         <v>45258</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>55</v>
@@ -5048,13 +5065,13 @@
         <v>45258</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>55</v>
@@ -5104,13 +5121,13 @@
         <v>45258</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>55</v>
@@ -5160,13 +5177,13 @@
         <v>45258</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>55</v>
@@ -5216,13 +5233,13 @@
         <v>45258</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>55</v>
@@ -5272,13 +5289,13 @@
         <v>45258</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>55</v>
@@ -5328,13 +5345,13 @@
         <v>45258</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>55</v>
@@ -5384,13 +5401,13 @@
         <v>45258</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>55</v>
@@ -5440,13 +5457,13 @@
         <v>45258</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>55</v>
@@ -5496,13 +5513,13 @@
         <v>45258</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>55</v>
@@ -5552,13 +5569,13 @@
         <v>45258</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>55</v>
@@ -5608,13 +5625,13 @@
         <v>45258</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>55</v>
@@ -5664,13 +5681,13 @@
         <v>45258</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="I29" s="53" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>55</v>
@@ -5872,13 +5889,13 @@
         <v>45258</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>55</v>
@@ -5928,13 +5945,13 @@
         <v>45258</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="I35" s="53" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>55</v>
@@ -5984,13 +6001,13 @@
         <v>45258</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="J36" s="37" t="s">
         <v>55</v>
@@ -6010,7 +6027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>6</v>
       </c>
@@ -6027,16 +6044,16 @@
         <v>188</v>
       </c>
       <c r="F37" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="J37" s="45" t="s">
         <v>55</v>
@@ -6056,7 +6073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>7</v>
       </c>
@@ -6073,16 +6090,16 @@
         <v>190</v>
       </c>
       <c r="F38" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="J38" s="45" t="s">
         <v>55</v>
@@ -6102,7 +6119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>8</v>
       </c>
@@ -6119,16 +6136,16 @@
         <v>192</v>
       </c>
       <c r="F39" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="J39" s="45" t="s">
         <v>55</v>
@@ -6148,7 +6165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>9</v>
       </c>
@@ -6165,16 +6182,16 @@
         <v>194</v>
       </c>
       <c r="F40" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="J40" s="45" t="s">
         <v>55</v>
@@ -6194,7 +6211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>29</v>
       </c>
@@ -6211,13 +6228,13 @@
         <v>196</v>
       </c>
       <c r="F41" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="I41" s="44" t="s">
         <v>110</v>
@@ -6250,7 +6267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37</v>
       </c>
@@ -6267,13 +6284,13 @@
         <v>199</v>
       </c>
       <c r="F42" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="I42" s="44" t="s">
         <v>110</v>
@@ -6306,7 +6323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>63</v>
       </c>
@@ -6371,16 +6388,16 @@
         <v>203</v>
       </c>
       <c r="F44" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="J44" s="45" t="s">
         <v>55</v>
@@ -6410,7 +6427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>64</v>
       </c>
@@ -6427,16 +6444,16 @@
         <v>205</v>
       </c>
       <c r="F45" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="J45" s="45" t="s">
         <v>55</v>
@@ -6466,7 +6483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>65</v>
       </c>
@@ -6483,16 +6500,16 @@
         <v>207</v>
       </c>
       <c r="F46" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>55</v>
@@ -6522,7 +6539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>66</v>
       </c>
@@ -6539,16 +6556,16 @@
         <v>209</v>
       </c>
       <c r="F47" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>55</v>
@@ -6578,7 +6595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>67</v>
       </c>
@@ -6595,16 +6612,16 @@
         <v>211</v>
       </c>
       <c r="F48" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="J48" s="45" t="s">
         <v>55</v>
@@ -6634,7 +6651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>68</v>
       </c>
@@ -6651,16 +6668,16 @@
         <v>213</v>
       </c>
       <c r="F49" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="J49" s="45" t="s">
         <v>55</v>
@@ -6690,7 +6707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>69</v>
       </c>
@@ -6707,16 +6724,16 @@
         <v>215</v>
       </c>
       <c r="F50" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="J50" s="45" t="s">
         <v>55</v>
@@ -6746,7 +6763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>70</v>
       </c>
@@ -6763,16 +6780,16 @@
         <v>217</v>
       </c>
       <c r="F51" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="J51" s="45" t="s">
         <v>55</v>
@@ -6802,7 +6819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>71</v>
       </c>
@@ -6819,16 +6836,16 @@
         <v>219</v>
       </c>
       <c r="F52" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="J52" s="45" t="s">
         <v>55</v>
@@ -6858,7 +6875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>72</v>
       </c>
@@ -6875,16 +6892,16 @@
         <v>221</v>
       </c>
       <c r="F53" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="J53" s="45" t="s">
         <v>55</v>
@@ -6914,7 +6931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>73</v>
       </c>
@@ -6931,16 +6948,16 @@
         <v>223</v>
       </c>
       <c r="F54" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="I54" s="44" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="J54" s="45" t="s">
         <v>55</v>
@@ -6970,7 +6987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>74</v>
       </c>
@@ -6987,16 +7004,16 @@
         <v>225</v>
       </c>
       <c r="F55" s="42">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="G55" s="43" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>55</v>
@@ -7026,7 +7043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>369</v>
       </c>
@@ -7050,7 +7067,7 @@
         <v>109</v>
       </c>
       <c r="K56" s="45" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>
@@ -8031,13 +8048,7 @@
       <c r="T378" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T56" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
